--- a/tests/artifact/script/UI-ProductRegister.xlsx
+++ b/tests/artifact/script/UI-ProductRegister.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="826">
   <si>
     <t>target</t>
   </si>
@@ -2360,100 +2360,103 @@
     <t>${heading.productRegister}</t>
   </si>
   <si>
-    <t>validate the Product Field name</t>
-  </si>
-  <si>
-    <t>${ProductFieldName}</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>validate the Product Field selection Box</t>
+    <t>click the Product field and select the Product</t>
   </si>
   <si>
     <t>${ProductSelect.Field}</t>
   </si>
   <si>
-    <t>click the Product field and select the Product</t>
-  </si>
-  <si>
     <t>Type the product in select Field</t>
   </si>
   <si>
+    <t>Butter_Milk</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>{ENTER}</t>
+  </si>
+  <si>
+    <t>Enter From Date in form date field</t>
+  </si>
+  <si>
+    <t>${FromDate.Value}</t>
+  </si>
+  <si>
+    <t>${From.Date}</t>
+  </si>
+  <si>
+    <t>Enter To date in To date field</t>
+  </si>
+  <si>
+    <t>${ToDatefield.Value}</t>
+  </si>
+  <si>
+    <t>${To.Date}</t>
+  </si>
+  <si>
+    <t>Clear selection in Godown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on godown </t>
+  </si>
+  <si>
+    <t>${GodownField.Value}</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>${Godown.ClearValues}</t>
+  </si>
+  <si>
+    <t>Refresh the page</t>
+  </si>
+  <si>
+    <t>getting Product list</t>
+  </si>
+  <si>
     <t>Fermented</t>
   </si>
   <si>
-    <t>windows</t>
-  </si>
-  <si>
-    <t>{ENTER}</t>
-  </si>
-  <si>
-    <t>validate From date field name</t>
-  </si>
-  <si>
-    <t>${FromField.Name}</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>Enter From Date in form date field</t>
-  </si>
-  <si>
-    <t>${FromDate.Value}</t>
-  </si>
-  <si>
-    <t>${From.Date}</t>
-  </si>
-  <si>
-    <t>validate to date field name</t>
-  </si>
-  <si>
-    <t>${ToDatefield.Name}</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Enter To date in To date field</t>
-  </si>
-  <si>
-    <t>${ToDatefield.Value}</t>
-  </si>
-  <si>
-    <t>${To.Date}</t>
-  </si>
-  <si>
-    <t>Verify Godown section</t>
-  </si>
-  <si>
-    <t>${GodownField.Name}</t>
-  </si>
-  <si>
-    <t>Godown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verfy Godown values selection box </t>
-  </si>
-  <si>
-    <t>${GodownField.Value}</t>
-  </si>
-  <si>
-    <t>Enter godown value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Godown (Primary Godown's address) </t>
-  </si>
-  <si>
-    <t>verify view button</t>
+    <t>click on view button</t>
   </si>
   <si>
     <t>${view.button}</t>
   </si>
   <si>
-    <t>click view button</t>
+    <t>Filter Functionality</t>
+  </si>
+  <si>
+    <t>click on filter Icon</t>
+  </si>
+  <si>
+    <t>${pr.Filter.Icon}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Invoice Filter </t>
+  </si>
+  <si>
+    <t>${Filter.Invoice}</t>
+  </si>
+  <si>
+    <t>close the Filter Field</t>
+  </si>
+  <si>
+    <t>Download Functionality</t>
+  </si>
+  <si>
+    <t>verify Download Icon</t>
+  </si>
+  <si>
+    <t>${pr.Download.Icon}</t>
+  </si>
+  <si>
+    <t>click on Download Icon</t>
+  </si>
+  <si>
+    <t>Search Functionality</t>
   </si>
   <si>
     <t>Verify Search Invoice Text Box</t>
@@ -2462,114 +2465,12 @@
     <t>${search.Field}</t>
   </si>
   <si>
-    <t>Filter Functionality</t>
-  </si>
-  <si>
-    <t>verify the Filter Icon</t>
-  </si>
-  <si>
-    <t>${pr.Filter.Icon}</t>
-  </si>
-  <si>
-    <t>click on filter Icon</t>
-  </si>
-  <si>
-    <t>verify the Filter fields</t>
-  </si>
-  <si>
-    <t>${Filter.Invoice}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify Rejection note in filter </t>
-  </si>
-  <si>
-    <t>${Filter.RejectionNote}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Debit note in Filter </t>
-  </si>
-  <si>
-    <t>${Filter.DebitNote}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Credit Note in Filter </t>
-  </si>
-  <si>
-    <t>${Filter.CreditNote}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Invoice Filter </t>
-  </si>
-  <si>
-    <t>close the Filter Field</t>
-  </si>
-  <si>
-    <t>Download Functionality</t>
-  </si>
-  <si>
-    <t>verify Download Icon</t>
-  </si>
-  <si>
-    <t>${pr.Download.Icon}</t>
-  </si>
-  <si>
-    <t>click on Download Icon</t>
-  </si>
-  <si>
-    <t>Search Functionality</t>
-  </si>
-  <si>
     <t>Type Invoice in search field</t>
   </si>
   <si>
     <t>Vegan</t>
   </si>
   <si>
-    <t>verify date in table list header</t>
-  </si>
-  <si>
-    <t>${pr.Date.section}</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>verify the Particulars in table list header</t>
-  </si>
-  <si>
-    <t>${pr.particular.section}</t>
-  </si>
-  <si>
-    <t>Particulars</t>
-  </si>
-  <si>
-    <t>verify Inward in table list header</t>
-  </si>
-  <si>
-    <t>${pr.Inward.section}</t>
-  </si>
-  <si>
-    <t>Inward</t>
-  </si>
-  <si>
-    <t>verify Outward in table list header</t>
-  </si>
-  <si>
-    <t>${pr.Outward.section}</t>
-  </si>
-  <si>
-    <t>Outward</t>
-  </si>
-  <si>
-    <t>verify Balnace in table list header</t>
-  </si>
-  <si>
-    <t>${pr.Balance.section}</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
     <t>rowcount</t>
   </si>
   <si>
@@ -2582,7 +2483,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>12</t>
+    <t>7</t>
   </si>
   <si>
     <t>-1</t>
@@ -2627,28 +2528,13 @@
     <t>${pr.table.row.xpath}[${counter}]${pr.balance.values}</t>
   </si>
   <si>
-    <t>${date}</t>
-  </si>
-  <si>
-    <t>${particulars}</t>
-  </si>
-  <si>
-    <t>${inward}</t>
-  </si>
-  <si>
-    <t>${outward}</t>
-  </si>
-  <si>
-    <t>${balance}</t>
-  </si>
-  <si>
     <t>click on the Invoice hyper link in Product listing page</t>
   </si>
   <si>
     <t>${pr.Invoice.hyperlink}</t>
   </si>
   <si>
-    <t>3000</t>
+    <t>5000</t>
   </si>
   <si>
     <t>verify the Invoice Number</t>
@@ -2667,7 +2553,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2725,14 +2611,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <strike/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <charset val="134"/>
@@ -2741,6 +2626,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.0499893185216834"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -3262,14 +3154,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3278,119 +3167,122 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3492,23 +3384,20 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3553,15 +3442,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3576,11 +3465,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3592,6 +3481,10 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3605,7 +3498,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6694,14 +6587,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="40"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -6715,12 +6608,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -6732,7 +6625,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="43"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -6767,10 +6660,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="45" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -6785,84 +6678,84 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="52" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="32" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="53" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="56"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="48"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="32"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="48"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="48"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
@@ -6874,7 +6767,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="50"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -6891,7 +6784,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="50"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -6908,7 +6801,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -6925,7 +6818,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -6942,7 +6835,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="50"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -6959,7 +6852,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="50"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -6976,7 +6869,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -6985,7 +6878,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="61"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -6993,7 +6886,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="50"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -7010,7 +6903,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="50"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -7027,7 +6920,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="50"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -7044,7 +6937,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="50"/>
+      <c r="J19" s="51"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -7061,7 +6954,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="50"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -7078,7 +6971,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="50"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -7095,7 +6988,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -7112,7 +7005,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="50"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -7129,7 +7022,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="50"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -7146,7 +7039,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="50"/>
+      <c r="J25" s="51"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -7163,7 +7056,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="50"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -7180,7 +7073,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="50"/>
+      <c r="J27" s="51"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -7197,7 +7090,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="50"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -7214,7 +7107,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="50"/>
+      <c r="J29" s="51"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -7231,7 +7124,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="50"/>
+      <c r="J30" s="51"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -7248,7 +7141,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="50"/>
+      <c r="J31" s="51"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7265,7 +7158,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="50"/>
+      <c r="J32" s="51"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7282,7 +7175,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="50"/>
+      <c r="J33" s="51"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7299,7 +7192,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="51"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7316,7 +7209,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="51"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7333,7 +7226,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="50"/>
+      <c r="J36" s="51"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7350,7 +7243,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="51"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7367,7 +7260,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="50"/>
+      <c r="J38" s="51"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7384,7 +7277,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="50"/>
+      <c r="J39" s="51"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7401,7 +7294,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="50"/>
+      <c r="J40" s="51"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7418,7 +7311,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="50"/>
+      <c r="J41" s="51"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7435,7 +7328,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="50"/>
+      <c r="J42" s="51"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7452,7 +7345,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="50"/>
+      <c r="J43" s="51"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7469,7 +7362,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="50"/>
+      <c r="J44" s="51"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7486,7 +7379,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="50"/>
+      <c r="J45" s="51"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7503,7 +7396,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="50"/>
+      <c r="J46" s="51"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7520,7 +7413,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="50"/>
+      <c r="J47" s="51"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7537,7 +7430,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="50"/>
+      <c r="J48" s="51"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7554,7 +7447,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="50"/>
+      <c r="J49" s="51"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7571,7 +7464,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="50"/>
+      <c r="J50" s="51"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7588,7 +7481,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="50"/>
+      <c r="J51" s="51"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7605,7 +7498,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="50"/>
+      <c r="J52" s="51"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7622,7 +7515,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="50"/>
+      <c r="J53" s="51"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7639,7 +7532,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="50"/>
+      <c r="J54" s="51"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -7656,7 +7549,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="50"/>
+      <c r="J55" s="51"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -7673,7 +7566,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="50"/>
+      <c r="J56" s="51"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -7690,7 +7583,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="50"/>
+      <c r="J57" s="51"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -7707,7 +7600,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="50"/>
+      <c r="J58" s="51"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -7724,7 +7617,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="50"/>
+      <c r="J59" s="51"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -7741,7 +7634,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="50"/>
+      <c r="J60" s="51"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -7758,7 +7651,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="50"/>
+      <c r="J61" s="51"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -7775,7 +7668,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="50"/>
+      <c r="J62" s="51"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -7792,7 +7685,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="50"/>
+      <c r="J63" s="51"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -7809,7 +7702,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="50"/>
+      <c r="J64" s="51"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -7826,7 +7719,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="50"/>
+      <c r="J65" s="51"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -7843,7 +7736,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="50"/>
+      <c r="J66" s="51"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -7860,7 +7753,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="50"/>
+      <c r="J67" s="51"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -7877,7 +7770,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="50"/>
+      <c r="J68" s="51"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -7894,7 +7787,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="50"/>
+      <c r="J69" s="51"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -7911,7 +7804,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="50"/>
+      <c r="J70" s="51"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -7928,7 +7821,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="50"/>
+      <c r="J71" s="51"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -7945,7 +7838,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="50"/>
+      <c r="J72" s="51"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -7962,7 +7855,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="50"/>
+      <c r="J73" s="51"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -7979,7 +7872,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="50"/>
+      <c r="J74" s="51"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -7996,7 +7889,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="50"/>
+      <c r="J75" s="51"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -8013,7 +7906,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="50"/>
+      <c r="J76" s="51"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -8030,7 +7923,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="50"/>
+      <c r="J77" s="51"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -8047,7 +7940,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="50"/>
+      <c r="J78" s="51"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -8064,7 +7957,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="50"/>
+      <c r="J79" s="51"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -8081,7 +7974,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="50"/>
+      <c r="J80" s="51"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -8098,7 +7991,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="50"/>
+      <c r="J81" s="51"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -8115,7 +8008,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="50"/>
+      <c r="J82" s="51"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -8132,7 +8025,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="50"/>
+      <c r="J83" s="51"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -8149,7 +8042,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="50"/>
+      <c r="J84" s="51"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -8166,7 +8059,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="50"/>
+      <c r="J85" s="51"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -8183,7 +8076,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="50"/>
+      <c r="J86" s="51"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -8200,7 +8093,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="50"/>
+      <c r="J87" s="51"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -8217,7 +8110,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="50"/>
+      <c r="J88" s="51"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -8234,7 +8127,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="50"/>
+      <c r="J89" s="51"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8251,7 +8144,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="50"/>
+      <c r="J90" s="51"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8268,7 +8161,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="50"/>
+      <c r="J91" s="51"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8285,7 +8178,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="50"/>
+      <c r="J92" s="51"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8302,7 +8195,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="50"/>
+      <c r="J93" s="51"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8319,7 +8212,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="50"/>
+      <c r="J94" s="51"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8336,7 +8229,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="50"/>
+      <c r="J95" s="51"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8353,7 +8246,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="50"/>
+      <c r="J96" s="51"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8370,7 +8263,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="50"/>
+      <c r="J97" s="51"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8387,7 +8280,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="50"/>
+      <c r="J98" s="51"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8404,7 +8297,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="50"/>
+      <c r="J99" s="51"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8421,7 +8314,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="50"/>
+      <c r="J100" s="51"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8438,7 +8331,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="50"/>
+      <c r="J101" s="51"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8455,7 +8348,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="50"/>
+      <c r="J102" s="51"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8472,7 +8365,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="50"/>
+      <c r="J103" s="51"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8489,7 +8382,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="50"/>
+      <c r="J104" s="51"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8506,7 +8399,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="50"/>
+      <c r="J105" s="51"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8523,7 +8416,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="50"/>
+      <c r="J106" s="51"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8540,7 +8433,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="50"/>
+      <c r="J107" s="51"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8557,7 +8450,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="50"/>
+      <c r="J108" s="51"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8574,7 +8467,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="50"/>
+      <c r="J109" s="51"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8591,7 +8484,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="50"/>
+      <c r="J110" s="51"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8608,7 +8501,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="50"/>
+      <c r="J111" s="51"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8625,7 +8518,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="50"/>
+      <c r="J112" s="51"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8642,7 +8535,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="50"/>
+      <c r="J113" s="51"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -8659,7 +8552,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="50"/>
+      <c r="J114" s="51"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -8676,7 +8569,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="50"/>
+      <c r="J115" s="51"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -8693,7 +8586,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="50"/>
+      <c r="J116" s="51"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -8710,7 +8603,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="50"/>
+      <c r="J117" s="51"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -8727,7 +8620,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="50"/>
+      <c r="J118" s="51"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -8744,7 +8637,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="50"/>
+      <c r="J119" s="51"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -8761,7 +8654,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="50"/>
+      <c r="J120" s="51"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -8778,7 +8671,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="50"/>
+      <c r="J121" s="51"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -8795,7 +8688,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="50"/>
+      <c r="J122" s="51"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -8812,7 +8705,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="50"/>
+      <c r="J123" s="51"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -8829,7 +8722,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="50"/>
+      <c r="J124" s="51"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -8846,7 +8739,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="50"/>
+      <c r="J125" s="51"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -8863,7 +8756,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="50"/>
+      <c r="J126" s="51"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -8880,7 +8773,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="50"/>
+      <c r="J127" s="51"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -8897,7 +8790,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="50"/>
+      <c r="J128" s="51"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -8914,7 +8807,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="50"/>
+      <c r="J129" s="51"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -8931,7 +8824,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="50"/>
+      <c r="J130" s="51"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -8948,7 +8841,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="50"/>
+      <c r="J131" s="51"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -8965,7 +8858,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="50"/>
+      <c r="J132" s="51"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -8982,7 +8875,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="50"/>
+      <c r="J133" s="51"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -8999,7 +8892,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="50"/>
+      <c r="J134" s="51"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -9016,7 +8909,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="50"/>
+      <c r="J135" s="51"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -9033,7 +8926,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="50"/>
+      <c r="J136" s="51"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -9050,7 +8943,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="50"/>
+      <c r="J137" s="51"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -9067,7 +8960,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="50"/>
+      <c r="J138" s="51"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -9084,7 +8977,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="50"/>
+      <c r="J139" s="51"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -9101,7 +8994,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="50"/>
+      <c r="J140" s="51"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -9118,7 +9011,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="50"/>
+      <c r="J141" s="51"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -9135,7 +9028,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="50"/>
+      <c r="J142" s="51"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -9152,7 +9045,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="50"/>
+      <c r="J143" s="51"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -9169,7 +9062,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="50"/>
+      <c r="J144" s="51"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -9186,7 +9079,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="50"/>
+      <c r="J145" s="51"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -9203,7 +9096,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="50"/>
+      <c r="J146" s="51"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -9220,7 +9113,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="50"/>
+      <c r="J147" s="51"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -9237,7 +9130,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="50"/>
+      <c r="J148" s="51"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9254,7 +9147,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="50"/>
+      <c r="J149" s="51"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9271,7 +9164,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="50"/>
+      <c r="J150" s="51"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9288,7 +9181,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="50"/>
+      <c r="J151" s="51"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9305,7 +9198,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="50"/>
+      <c r="J152" s="51"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9322,7 +9215,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="50"/>
+      <c r="J153" s="51"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9339,7 +9232,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="50"/>
+      <c r="J154" s="51"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9356,7 +9249,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="50"/>
+      <c r="J155" s="51"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9373,7 +9266,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="50"/>
+      <c r="J156" s="51"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9390,7 +9283,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="50"/>
+      <c r="J157" s="51"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9407,7 +9300,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="50"/>
+      <c r="J158" s="51"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9424,7 +9317,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="50"/>
+      <c r="J159" s="51"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9441,7 +9334,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="50"/>
+      <c r="J160" s="51"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9458,7 +9351,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="50"/>
+      <c r="J161" s="51"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9475,7 +9368,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="50"/>
+      <c r="J162" s="51"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9492,7 +9385,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="50"/>
+      <c r="J163" s="51"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9509,7 +9402,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="50"/>
+      <c r="J164" s="51"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9526,7 +9419,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="50"/>
+      <c r="J165" s="51"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9543,7 +9436,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="50"/>
+      <c r="J166" s="51"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9560,7 +9453,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="50"/>
+      <c r="J167" s="51"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9577,7 +9470,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="50"/>
+      <c r="J168" s="51"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -9594,7 +9487,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="50"/>
+      <c r="J169" s="51"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -9611,7 +9504,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="50"/>
+      <c r="J170" s="51"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -9628,7 +9521,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="50"/>
+      <c r="J171" s="51"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -9645,7 +9538,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="50"/>
+      <c r="J172" s="51"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -9662,7 +9555,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="50"/>
+      <c r="J173" s="51"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -9679,7 +9572,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="50"/>
+      <c r="J174" s="51"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -9696,7 +9589,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="50"/>
+      <c r="J175" s="51"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -9713,7 +9606,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="50"/>
+      <c r="J176" s="51"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -9730,7 +9623,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="50"/>
+      <c r="J177" s="51"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -9747,7 +9640,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="50"/>
+      <c r="J178" s="51"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -9764,7 +9657,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="50"/>
+      <c r="J179" s="51"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -9781,7 +9674,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="50"/>
+      <c r="J180" s="51"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -9798,7 +9691,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="50"/>
+      <c r="J181" s="51"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -9815,7 +9708,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="50"/>
+      <c r="J182" s="51"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -9832,7 +9725,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="50"/>
+      <c r="J183" s="51"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -9849,7 +9742,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="50"/>
+      <c r="J184" s="51"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -9866,7 +9759,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="50"/>
+      <c r="J185" s="51"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -9883,7 +9776,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="50"/>
+      <c r="J186" s="51"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -9900,7 +9793,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="50"/>
+      <c r="J187" s="51"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -9917,7 +9810,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="50"/>
+      <c r="J188" s="51"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -9980,10 +9873,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O206"/>
+  <dimension ref="A1:O192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10027,14 +9920,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="40"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -10048,12 +9941,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -10065,7 +9958,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="43"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -10100,10 +9993,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="45" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -10139,12 +10032,12 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -10166,12 +10059,12 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="48"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
@@ -10191,7 +10084,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="50"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -10216,7 +10109,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="50"/>
+      <c r="J8" s="51"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -10243,7 +10136,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="50"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -10259,18 +10152,16 @@
         <v>30</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>530</v>
+        <v>363</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>766</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>767</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="50"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -10280,22 +10171,24 @@
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="30" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>769</v>
-      </c>
-      <c r="F11" s="28"/>
+        <v>766</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>768</v>
+      </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10304,22 +10197,23 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19"/>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>769</v>
+      </c>
+      <c r="F12" s="34" t="s">
         <v>770</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>769</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -10338,15 +10232,15 @@
         <v>707</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="50"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -10355,23 +10249,25 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
-      <c r="B14" s="30"/>
+      <c r="B14" s="30" t="s">
+        <v>774</v>
+      </c>
       <c r="C14" s="26" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>656</v>
+        <v>707</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="50"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10379,26 +10275,26 @@
       <c r="O14" s="22"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A15" s="19"/>
+      <c r="A15" s="19" t="s">
+        <v>777</v>
+      </c>
       <c r="B15" s="30" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>776</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>777</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="F15" s="28"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10407,25 +10303,21 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="30" t="s">
-        <v>778</v>
-      </c>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>779</v>
-      </c>
-      <c r="F16" s="28" t="s">
+      <c r="D16" s="32" t="s">
+        <v>715</v>
+      </c>
+      <c r="E16" s="32" t="s">
         <v>780</v>
       </c>
+      <c r="F16" s="35"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="50"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -10434,25 +10326,21 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>781</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>782</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>783</v>
-      </c>
+      <c r="F17" s="35"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="50"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10462,24 +10350,19 @@
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
       <c r="B18" s="30" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>785</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>786</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="E18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="50"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10487,26 +10370,26 @@
       <c r="O18" s="22"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="19"/>
+      <c r="A19" s="19" t="s">
+        <v>783</v>
+      </c>
       <c r="B19" s="30" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>530</v>
+        <v>363</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>788</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>789</v>
-      </c>
+        <v>766</v>
+      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="50"/>
+      <c r="J19" s="51"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10516,22 +10399,24 @@
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="19"/>
       <c r="B20" s="30" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>791</v>
-      </c>
-      <c r="F20" s="28"/>
+        <v>766</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>784</v>
+      </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="50"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10540,25 +10425,23 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
-      <c r="B21" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>791</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>793</v>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>769</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>770</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="50"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -10567,23 +10450,25 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19"/>
-      <c r="B22" s="30"/>
+      <c r="B22" s="30" t="s">
+        <v>771</v>
+      </c>
       <c r="C22" s="26" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>656</v>
+        <v>707</v>
       </c>
       <c r="E22" s="27" t="s">
+        <v>772</v>
+      </c>
+      <c r="F22" s="28" t="s">
         <v>773</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>774</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10593,22 +10478,24 @@
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
       <c r="B23" s="30" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>795</v>
-      </c>
-      <c r="F23" s="28"/>
+        <v>775</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>776</v>
+      </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="50"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10618,22 +10505,22 @@
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
       <c r="B24" s="30" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>363</v>
+        <v>600</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="50"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10643,22 +10530,22 @@
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
       <c r="B25" s="30" t="s">
-        <v>797</v>
-      </c>
-      <c r="C25" s="26" t="s">
+        <v>785</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="F25" s="28"/>
+      <c r="D25" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>786</v>
+      </c>
+      <c r="F25" s="33"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="50"/>
+      <c r="J25" s="51"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -10667,25 +10554,25 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="50"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -10695,7 +10582,7 @@
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="30" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>30</v>
@@ -10704,13 +10591,13 @@
         <v>363</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="50"/>
+      <c r="J27" s="51"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -10720,22 +10607,22 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="30" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="50"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -10743,9 +10630,11 @@
       <c r="O28" s="22"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A29" s="19"/>
+      <c r="A29" s="19" t="s">
+        <v>793</v>
+      </c>
       <c r="B29" s="30" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>30</v>
@@ -10754,13 +10643,13 @@
         <v>253</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="50"/>
+      <c r="J29" s="51"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -10770,22 +10659,22 @@
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="30" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="50"/>
+      <c r="J30" s="51"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -10794,23 +10683,23 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
-      <c r="B31" s="30" t="s">
-        <v>809</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>810</v>
-      </c>
-      <c r="F31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>769</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>770</v>
+      </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="50"/>
+      <c r="J31" s="51"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -10818,24 +10707,26 @@
       <c r="O31" s="22"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A32" s="19"/>
+      <c r="A32" s="19" t="s">
+        <v>797</v>
+      </c>
       <c r="B32" s="30" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="50"/>
+      <c r="J32" s="51"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -10845,22 +10736,24 @@
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
       <c r="B33" s="30" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>363</v>
+        <v>707</v>
       </c>
       <c r="E33" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="F33" s="28" t="s">
         <v>801</v>
       </c>
-      <c r="F33" s="28"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="50"/>
+      <c r="J33" s="51"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -10868,26 +10761,24 @@
       <c r="O33" s="22"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A34" s="19" t="s">
-        <v>813</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>814</v>
-      </c>
+      <c r="A34" s="19"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>253</v>
+        <v>483</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>815</v>
-      </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
+        <v>802</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>803</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="51"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -10896,23 +10787,23 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
-      <c r="B35" s="31" t="s">
-        <v>816</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>815</v>
-      </c>
-      <c r="F35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>804</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>805</v>
+      </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="51"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -10920,26 +10811,24 @@
       <c r="O35" s="22"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A36" s="19" t="s">
-        <v>817</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>797</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="F36" s="28"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>806</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>807</v>
+      </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="50"/>
+      <c r="J36" s="51"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -10948,25 +10837,23 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
-      <c r="B37" s="30" t="s">
-        <v>818</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>819</v>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>809</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="51"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -10975,25 +10862,23 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
-      <c r="B38" s="30" t="s">
-        <v>820</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>821</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>822</v>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>804</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>810</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="50"/>
+      <c r="J38" s="51"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -11002,25 +10887,23 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="30" t="s">
-        <v>823</v>
-      </c>
+      <c r="B39" s="30"/>
       <c r="C39" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>530</v>
+        <v>493</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="50"/>
+      <c r="J39" s="51"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -11029,25 +10912,23 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="C40" s="26" t="s">
+      <c r="B40" s="30"/>
+      <c r="C40" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>827</v>
+        <v>493</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>813</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>828</v>
-      </c>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
+        <v>814</v>
+      </c>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="50"/>
+      <c r="J40" s="51"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -11056,25 +10937,23 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
-      <c r="B41" s="30" t="s">
-        <v>829</v>
-      </c>
-      <c r="C41" s="26" t="s">
+      <c r="B41" s="30"/>
+      <c r="C41" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>830</v>
+        <v>493</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>815</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>831</v>
-      </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
+        <v>816</v>
+      </c>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="50"/>
+      <c r="J41" s="51"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -11083,25 +10962,23 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
-      <c r="B42" s="30" t="s">
-        <v>832</v>
-      </c>
-      <c r="C42" s="26" t="s">
+      <c r="B42" s="30"/>
+      <c r="C42" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>833</v>
+        <v>493</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>817</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>834</v>
-      </c>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
+        <v>818</v>
+      </c>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="50"/>
+      <c r="J42" s="51"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -11111,22 +10988,22 @@
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
       <c r="B43" s="30"/>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>835</v>
+        <v>493</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>819</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>836</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+        <v>820</v>
+      </c>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="50"/>
+      <c r="J43" s="51"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -11135,23 +11012,25 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>471</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>838</v>
+      <c r="B44" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>822</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>823</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="50"/>
+      <c r="J44" s="51"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -11160,23 +11039,23 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="19"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>840</v>
-      </c>
+      <c r="B45" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="F45" s="28"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="50"/>
+      <c r="J45" s="51"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -11186,22 +11065,18 @@
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
       <c r="B46" s="30"/>
-      <c r="C46" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>841</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>842</v>
-      </c>
+      <c r="C46" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="E46" s="27"/>
+      <c r="F46" s="28"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="50"/>
+      <c r="J46" s="51"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -11211,22 +11086,14 @@
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
       <c r="B47" s="30"/>
-      <c r="C47" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="F47" s="36" t="s">
-        <v>843</v>
-      </c>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="50"/>
+      <c r="J47" s="51"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -11236,22 +11103,14 @@
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
       <c r="B48" s="30"/>
-      <c r="C48" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>844</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>845</v>
-      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="50"/>
+      <c r="J48" s="51"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -11261,22 +11120,14 @@
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
       <c r="B49" s="30"/>
-      <c r="C49" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>846</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>847</v>
-      </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="50"/>
+      <c r="J49" s="51"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -11286,22 +11137,14 @@
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
       <c r="B50" s="30"/>
-      <c r="C50" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>848</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>849</v>
-      </c>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="50"/>
+      <c r="J50" s="51"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -11311,22 +11154,14 @@
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
       <c r="B51" s="30"/>
-      <c r="C51" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>850</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>851</v>
-      </c>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="50"/>
+      <c r="J51" s="51"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -11336,22 +11171,14 @@
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
       <c r="B52" s="30"/>
-      <c r="C52" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E52" s="38" t="s">
-        <v>852</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>853</v>
-      </c>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="50"/>
+      <c r="J52" s="51"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -11361,22 +11188,14 @@
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
       <c r="B53" s="30"/>
-      <c r="C53" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>845</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>854</v>
-      </c>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="50"/>
+      <c r="J53" s="51"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -11386,22 +11205,14 @@
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
       <c r="B54" s="30"/>
-      <c r="C54" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>847</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>855</v>
-      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="28"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="50"/>
+      <c r="J54" s="51"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -11411,22 +11222,14 @@
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
       <c r="B55" s="30"/>
-      <c r="C55" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>849</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>856</v>
-      </c>
+      <c r="C55" s="26"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="28"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="50"/>
+      <c r="J55" s="51"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -11436,22 +11239,14 @@
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
       <c r="B56" s="30"/>
-      <c r="C56" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>851</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>857</v>
-      </c>
+      <c r="C56" s="26"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="28"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="50"/>
+      <c r="J56" s="51"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -11461,22 +11256,14 @@
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
       <c r="B57" s="30"/>
-      <c r="C57" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>853</v>
-      </c>
-      <c r="F57" s="28" t="s">
-        <v>858</v>
-      </c>
+      <c r="C57" s="26"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="28"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="50"/>
+      <c r="J57" s="51"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -11485,25 +11272,15 @@
     </row>
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
-      <c r="B58" s="30" t="s">
-        <v>859</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>602</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>860</v>
-      </c>
-      <c r="F58" s="36" t="s">
-        <v>861</v>
-      </c>
+      <c r="B58" s="30"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="28"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="50"/>
+      <c r="J58" s="51"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -11512,23 +11289,15 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
-      <c r="B59" s="30" t="s">
-        <v>862</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>863</v>
-      </c>
-      <c r="F59" s="28"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="50"/>
+      <c r="J59" s="51"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -11537,19 +11306,15 @@
     </row>
     <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A60" s="19"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>620</v>
-      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="27"/>
       <c r="E60" s="27"/>
-      <c r="F60" s="28"/>
+      <c r="F60" s="27"/>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="50"/>
+      <c r="J60" s="51"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -11558,15 +11323,15 @@
     </row>
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="19"/>
-      <c r="B61" s="30"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="26"/>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
-      <c r="F61" s="28"/>
+      <c r="F61" s="27"/>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="50"/>
+      <c r="J61" s="51"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -11575,15 +11340,15 @@
     </row>
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="19"/>
-      <c r="B62" s="30"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="26"/>
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
-      <c r="F62" s="28"/>
+      <c r="F62" s="27"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="50"/>
+      <c r="J62" s="51"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -11592,15 +11357,15 @@
     </row>
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="19"/>
-      <c r="B63" s="30"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="26"/>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
-      <c r="F63" s="28"/>
+      <c r="F63" s="27"/>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="50"/>
+      <c r="J63" s="51"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -11609,15 +11374,15 @@
     </row>
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="19"/>
-      <c r="B64" s="30"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="26"/>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
-      <c r="F64" s="28"/>
+      <c r="F64" s="27"/>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="50"/>
+      <c r="J64" s="51"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -11626,15 +11391,15 @@
     </row>
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="19"/>
-      <c r="B65" s="30"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="26"/>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
-      <c r="F65" s="28"/>
+      <c r="F65" s="27"/>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="50"/>
+      <c r="J65" s="51"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -11643,15 +11408,15 @@
     </row>
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
-      <c r="B66" s="30"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="26"/>
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
-      <c r="F66" s="28"/>
+      <c r="F66" s="27"/>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="50"/>
+      <c r="J66" s="51"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -11660,15 +11425,15 @@
     </row>
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="19"/>
-      <c r="B67" s="30"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="26"/>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
-      <c r="F67" s="28"/>
+      <c r="F67" s="27"/>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="50"/>
+      <c r="J67" s="51"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -11677,15 +11442,15 @@
     </row>
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="19"/>
-      <c r="B68" s="30"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="26"/>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
-      <c r="F68" s="28"/>
+      <c r="F68" s="27"/>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="50"/>
+      <c r="J68" s="51"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -11694,15 +11459,15 @@
     </row>
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="19"/>
-      <c r="B69" s="30"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="26"/>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
-      <c r="F69" s="28"/>
+      <c r="F69" s="27"/>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="50"/>
+      <c r="J69" s="51"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -11711,15 +11476,15 @@
     </row>
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="19"/>
-      <c r="B70" s="30"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="26"/>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
-      <c r="F70" s="28"/>
+      <c r="F70" s="27"/>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="50"/>
+      <c r="J70" s="51"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -11728,15 +11493,15 @@
     </row>
     <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="19"/>
-      <c r="B71" s="30"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="26"/>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
-      <c r="F71" s="28"/>
+      <c r="F71" s="27"/>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="50"/>
+      <c r="J71" s="51"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -11745,15 +11510,15 @@
     </row>
     <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="19"/>
-      <c r="B72" s="30"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="26"/>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
-      <c r="F72" s="28"/>
+      <c r="F72" s="27"/>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="50"/>
+      <c r="J72" s="51"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -11770,7 +11535,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="50"/>
+      <c r="J73" s="51"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -11787,7 +11552,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="50"/>
+      <c r="J74" s="51"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -11804,7 +11569,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="50"/>
+      <c r="J75" s="51"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -11821,7 +11586,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="50"/>
+      <c r="J76" s="51"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -11838,7 +11603,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="50"/>
+      <c r="J77" s="51"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -11855,7 +11620,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="50"/>
+      <c r="J78" s="51"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -11872,7 +11637,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="50"/>
+      <c r="J79" s="51"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -11889,7 +11654,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="50"/>
+      <c r="J80" s="51"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -11906,7 +11671,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="50"/>
+      <c r="J81" s="51"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -11923,7 +11688,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="50"/>
+      <c r="J82" s="51"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -11940,7 +11705,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="50"/>
+      <c r="J83" s="51"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -11957,7 +11722,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="50"/>
+      <c r="J84" s="51"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -11974,7 +11739,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="50"/>
+      <c r="J85" s="51"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -11991,7 +11756,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="50"/>
+      <c r="J86" s="51"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -12008,7 +11773,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="50"/>
+      <c r="J87" s="51"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -12025,7 +11790,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="50"/>
+      <c r="J88" s="51"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -12042,7 +11807,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="50"/>
+      <c r="J89" s="51"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -12059,7 +11824,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="50"/>
+      <c r="J90" s="51"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -12076,7 +11841,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="50"/>
+      <c r="J91" s="51"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -12093,7 +11858,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="50"/>
+      <c r="J92" s="51"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -12110,7 +11875,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="50"/>
+      <c r="J93" s="51"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -12127,7 +11892,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="50"/>
+      <c r="J94" s="51"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -12144,7 +11909,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="50"/>
+      <c r="J95" s="51"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -12161,7 +11926,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="50"/>
+      <c r="J96" s="51"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -12178,7 +11943,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="50"/>
+      <c r="J97" s="51"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -12195,7 +11960,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="50"/>
+      <c r="J98" s="51"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -12212,7 +11977,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="50"/>
+      <c r="J99" s="51"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -12229,7 +11994,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="50"/>
+      <c r="J100" s="51"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -12246,7 +12011,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="50"/>
+      <c r="J101" s="51"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -12263,7 +12028,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="50"/>
+      <c r="J102" s="51"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -12280,7 +12045,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="50"/>
+      <c r="J103" s="51"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -12297,7 +12062,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="50"/>
+      <c r="J104" s="51"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -12314,7 +12079,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="50"/>
+      <c r="J105" s="51"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -12331,7 +12096,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="50"/>
+      <c r="J106" s="51"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -12348,7 +12113,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="50"/>
+      <c r="J107" s="51"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -12365,7 +12130,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="50"/>
+      <c r="J108" s="51"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -12382,7 +12147,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="50"/>
+      <c r="J109" s="51"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -12399,7 +12164,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="50"/>
+      <c r="J110" s="51"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -12416,7 +12181,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="50"/>
+      <c r="J111" s="51"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -12433,7 +12198,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="50"/>
+      <c r="J112" s="51"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -12450,7 +12215,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="50"/>
+      <c r="J113" s="51"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -12467,7 +12232,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="50"/>
+      <c r="J114" s="51"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -12484,7 +12249,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="50"/>
+      <c r="J115" s="51"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -12501,7 +12266,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="50"/>
+      <c r="J116" s="51"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -12518,7 +12283,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="50"/>
+      <c r="J117" s="51"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -12535,7 +12300,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="50"/>
+      <c r="J118" s="51"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -12552,7 +12317,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="50"/>
+      <c r="J119" s="51"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -12569,7 +12334,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="50"/>
+      <c r="J120" s="51"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -12586,7 +12351,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="50"/>
+      <c r="J121" s="51"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -12603,7 +12368,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="50"/>
+      <c r="J122" s="51"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -12620,7 +12385,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="50"/>
+      <c r="J123" s="51"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -12637,7 +12402,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="50"/>
+      <c r="J124" s="51"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -12654,7 +12419,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="50"/>
+      <c r="J125" s="51"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -12671,7 +12436,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="50"/>
+      <c r="J126" s="51"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -12688,7 +12453,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="50"/>
+      <c r="J127" s="51"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -12705,7 +12470,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="50"/>
+      <c r="J128" s="51"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -12722,7 +12487,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="50"/>
+      <c r="J129" s="51"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -12739,7 +12504,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="50"/>
+      <c r="J130" s="51"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -12756,7 +12521,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="50"/>
+      <c r="J131" s="51"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -12773,7 +12538,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="50"/>
+      <c r="J132" s="51"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -12790,7 +12555,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="50"/>
+      <c r="J133" s="51"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -12807,7 +12572,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="50"/>
+      <c r="J134" s="51"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -12824,7 +12589,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="50"/>
+      <c r="J135" s="51"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -12841,7 +12606,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="50"/>
+      <c r="J136" s="51"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -12858,7 +12623,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="50"/>
+      <c r="J137" s="51"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -12875,7 +12640,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="50"/>
+      <c r="J138" s="51"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -12892,7 +12657,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="50"/>
+      <c r="J139" s="51"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -12909,7 +12674,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="50"/>
+      <c r="J140" s="51"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -12926,7 +12691,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="50"/>
+      <c r="J141" s="51"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -12943,7 +12708,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="50"/>
+      <c r="J142" s="51"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -12960,7 +12725,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="50"/>
+      <c r="J143" s="51"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -12977,7 +12742,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="50"/>
+      <c r="J144" s="51"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -12994,7 +12759,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="50"/>
+      <c r="J145" s="51"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -13011,7 +12776,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="50"/>
+      <c r="J146" s="51"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -13028,7 +12793,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="50"/>
+      <c r="J147" s="51"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -13045,7 +12810,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="50"/>
+      <c r="J148" s="51"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -13062,7 +12827,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="50"/>
+      <c r="J149" s="51"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -13079,7 +12844,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="50"/>
+      <c r="J150" s="51"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -13096,7 +12861,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="50"/>
+      <c r="J151" s="51"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -13113,7 +12878,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="50"/>
+      <c r="J152" s="51"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -13130,7 +12895,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="50"/>
+      <c r="J153" s="51"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -13147,7 +12912,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="50"/>
+      <c r="J154" s="51"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -13164,7 +12929,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="50"/>
+      <c r="J155" s="51"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -13181,7 +12946,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="50"/>
+      <c r="J156" s="51"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -13198,7 +12963,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="50"/>
+      <c r="J157" s="51"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -13215,7 +12980,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="50"/>
+      <c r="J158" s="51"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -13232,7 +12997,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="50"/>
+      <c r="J159" s="51"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -13249,7 +13014,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="50"/>
+      <c r="J160" s="51"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -13266,7 +13031,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="50"/>
+      <c r="J161" s="51"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -13283,7 +13048,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="50"/>
+      <c r="J162" s="51"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -13300,7 +13065,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="50"/>
+      <c r="J163" s="51"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -13317,7 +13082,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="50"/>
+      <c r="J164" s="51"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -13334,7 +13099,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="50"/>
+      <c r="J165" s="51"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -13351,7 +13116,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="50"/>
+      <c r="J166" s="51"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -13368,7 +13133,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="50"/>
+      <c r="J167" s="51"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -13385,7 +13150,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="50"/>
+      <c r="J168" s="51"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -13402,7 +13167,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="50"/>
+      <c r="J169" s="51"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -13419,7 +13184,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="50"/>
+      <c r="J170" s="51"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -13436,7 +13201,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="50"/>
+      <c r="J171" s="51"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -13453,7 +13218,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="50"/>
+      <c r="J172" s="51"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -13470,7 +13235,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="50"/>
+      <c r="J173" s="51"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -13487,7 +13252,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="50"/>
+      <c r="J174" s="51"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -13504,7 +13269,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="50"/>
+      <c r="J175" s="51"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -13521,7 +13286,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="50"/>
+      <c r="J176" s="51"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -13538,7 +13303,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="50"/>
+      <c r="J177" s="51"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -13555,7 +13320,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="50"/>
+      <c r="J178" s="51"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -13572,7 +13337,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="50"/>
+      <c r="J179" s="51"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -13589,7 +13354,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="50"/>
+      <c r="J180" s="51"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -13606,7 +13371,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="50"/>
+      <c r="J181" s="51"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -13623,7 +13388,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="50"/>
+      <c r="J182" s="51"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -13640,7 +13405,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="50"/>
+      <c r="J183" s="51"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -13657,7 +13422,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="50"/>
+      <c r="J184" s="51"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -13674,7 +13439,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="50"/>
+      <c r="J185" s="51"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -13691,7 +13456,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="50"/>
+      <c r="J186" s="51"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -13708,7 +13473,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="50"/>
+      <c r="J187" s="51"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -13725,7 +13490,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="50"/>
+      <c r="J188" s="51"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -13742,7 +13507,7 @@
       <c r="G189" s="27"/>
       <c r="H189" s="27"/>
       <c r="I189" s="27"/>
-      <c r="J189" s="50"/>
+      <c r="J189" s="51"/>
       <c r="K189" s="22"/>
       <c r="L189" s="23"/>
       <c r="M189" s="21"/>
@@ -13759,7 +13524,7 @@
       <c r="G190" s="27"/>
       <c r="H190" s="27"/>
       <c r="I190" s="27"/>
-      <c r="J190" s="50"/>
+      <c r="J190" s="51"/>
       <c r="K190" s="22"/>
       <c r="L190" s="23"/>
       <c r="M190" s="21"/>
@@ -13776,253 +13541,15 @@
       <c r="G191" s="27"/>
       <c r="H191" s="27"/>
       <c r="I191" s="27"/>
-      <c r="J191" s="50"/>
+      <c r="J191" s="51"/>
       <c r="K191" s="22"/>
       <c r="L191" s="23"/>
       <c r="M191" s="21"/>
       <c r="N191" s="23"/>
       <c r="O191" s="22"/>
     </row>
-    <row r="192" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A192" s="19"/>
-      <c r="B192" s="20"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="27"/>
-      <c r="E192" s="27"/>
+    <row r="192" spans="6:6">
       <c r="F192" s="27"/>
-      <c r="G192" s="27"/>
-      <c r="H192" s="27"/>
-      <c r="I192" s="27"/>
-      <c r="J192" s="50"/>
-      <c r="K192" s="22"/>
-      <c r="L192" s="23"/>
-      <c r="M192" s="21"/>
-      <c r="N192" s="23"/>
-      <c r="O192" s="22"/>
-    </row>
-    <row r="193" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A193" s="19"/>
-      <c r="B193" s="20"/>
-      <c r="C193" s="26"/>
-      <c r="D193" s="27"/>
-      <c r="E193" s="27"/>
-      <c r="F193" s="27"/>
-      <c r="G193" s="27"/>
-      <c r="H193" s="27"/>
-      <c r="I193" s="27"/>
-      <c r="J193" s="50"/>
-      <c r="K193" s="22"/>
-      <c r="L193" s="23"/>
-      <c r="M193" s="21"/>
-      <c r="N193" s="23"/>
-      <c r="O193" s="22"/>
-    </row>
-    <row r="194" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A194" s="19"/>
-      <c r="B194" s="20"/>
-      <c r="C194" s="26"/>
-      <c r="D194" s="27"/>
-      <c r="E194" s="27"/>
-      <c r="F194" s="27"/>
-      <c r="G194" s="27"/>
-      <c r="H194" s="27"/>
-      <c r="I194" s="27"/>
-      <c r="J194" s="50"/>
-      <c r="K194" s="22"/>
-      <c r="L194" s="23"/>
-      <c r="M194" s="21"/>
-      <c r="N194" s="23"/>
-      <c r="O194" s="22"/>
-    </row>
-    <row r="195" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A195" s="19"/>
-      <c r="B195" s="20"/>
-      <c r="C195" s="26"/>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="27"/>
-      <c r="G195" s="27"/>
-      <c r="H195" s="27"/>
-      <c r="I195" s="27"/>
-      <c r="J195" s="50"/>
-      <c r="K195" s="22"/>
-      <c r="L195" s="23"/>
-      <c r="M195" s="21"/>
-      <c r="N195" s="23"/>
-      <c r="O195" s="22"/>
-    </row>
-    <row r="196" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A196" s="19"/>
-      <c r="B196" s="20"/>
-      <c r="C196" s="26"/>
-      <c r="D196" s="27"/>
-      <c r="E196" s="27"/>
-      <c r="F196" s="27"/>
-      <c r="G196" s="27"/>
-      <c r="H196" s="27"/>
-      <c r="I196" s="27"/>
-      <c r="J196" s="50"/>
-      <c r="K196" s="22"/>
-      <c r="L196" s="23"/>
-      <c r="M196" s="21"/>
-      <c r="N196" s="23"/>
-      <c r="O196" s="22"/>
-    </row>
-    <row r="197" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A197" s="19"/>
-      <c r="B197" s="20"/>
-      <c r="C197" s="26"/>
-      <c r="D197" s="27"/>
-      <c r="E197" s="27"/>
-      <c r="F197" s="27"/>
-      <c r="G197" s="27"/>
-      <c r="H197" s="27"/>
-      <c r="I197" s="27"/>
-      <c r="J197" s="50"/>
-      <c r="K197" s="22"/>
-      <c r="L197" s="23"/>
-      <c r="M197" s="21"/>
-      <c r="N197" s="23"/>
-      <c r="O197" s="22"/>
-    </row>
-    <row r="198" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A198" s="19"/>
-      <c r="B198" s="20"/>
-      <c r="C198" s="26"/>
-      <c r="D198" s="27"/>
-      <c r="E198" s="27"/>
-      <c r="F198" s="27"/>
-      <c r="G198" s="27"/>
-      <c r="H198" s="27"/>
-      <c r="I198" s="27"/>
-      <c r="J198" s="50"/>
-      <c r="K198" s="22"/>
-      <c r="L198" s="23"/>
-      <c r="M198" s="21"/>
-      <c r="N198" s="23"/>
-      <c r="O198" s="22"/>
-    </row>
-    <row r="199" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A199" s="19"/>
-      <c r="B199" s="20"/>
-      <c r="C199" s="26"/>
-      <c r="D199" s="27"/>
-      <c r="E199" s="27"/>
-      <c r="F199" s="27"/>
-      <c r="G199" s="27"/>
-      <c r="H199" s="27"/>
-      <c r="I199" s="27"/>
-      <c r="J199" s="50"/>
-      <c r="K199" s="22"/>
-      <c r="L199" s="23"/>
-      <c r="M199" s="21"/>
-      <c r="N199" s="23"/>
-      <c r="O199" s="22"/>
-    </row>
-    <row r="200" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A200" s="19"/>
-      <c r="B200" s="20"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="27"/>
-      <c r="E200" s="27"/>
-      <c r="F200" s="27"/>
-      <c r="G200" s="27"/>
-      <c r="H200" s="27"/>
-      <c r="I200" s="27"/>
-      <c r="J200" s="50"/>
-      <c r="K200" s="22"/>
-      <c r="L200" s="23"/>
-      <c r="M200" s="21"/>
-      <c r="N200" s="23"/>
-      <c r="O200" s="22"/>
-    </row>
-    <row r="201" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A201" s="19"/>
-      <c r="B201" s="20"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="27"/>
-      <c r="E201" s="27"/>
-      <c r="F201" s="27"/>
-      <c r="G201" s="27"/>
-      <c r="H201" s="27"/>
-      <c r="I201" s="27"/>
-      <c r="J201" s="50"/>
-      <c r="K201" s="22"/>
-      <c r="L201" s="23"/>
-      <c r="M201" s="21"/>
-      <c r="N201" s="23"/>
-      <c r="O201" s="22"/>
-    </row>
-    <row r="202" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A202" s="19"/>
-      <c r="B202" s="20"/>
-      <c r="C202" s="26"/>
-      <c r="D202" s="27"/>
-      <c r="E202" s="27"/>
-      <c r="F202" s="27"/>
-      <c r="G202" s="27"/>
-      <c r="H202" s="27"/>
-      <c r="I202" s="27"/>
-      <c r="J202" s="50"/>
-      <c r="K202" s="22"/>
-      <c r="L202" s="23"/>
-      <c r="M202" s="21"/>
-      <c r="N202" s="23"/>
-      <c r="O202" s="22"/>
-    </row>
-    <row r="203" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A203" s="19"/>
-      <c r="B203" s="20"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="27"/>
-      <c r="E203" s="27"/>
-      <c r="F203" s="27"/>
-      <c r="G203" s="27"/>
-      <c r="H203" s="27"/>
-      <c r="I203" s="27"/>
-      <c r="J203" s="50"/>
-      <c r="K203" s="22"/>
-      <c r="L203" s="23"/>
-      <c r="M203" s="21"/>
-      <c r="N203" s="23"/>
-      <c r="O203" s="22"/>
-    </row>
-    <row r="204" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A204" s="19"/>
-      <c r="B204" s="20"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="27"/>
-      <c r="E204" s="27"/>
-      <c r="F204" s="27"/>
-      <c r="G204" s="27"/>
-      <c r="H204" s="27"/>
-      <c r="I204" s="27"/>
-      <c r="J204" s="50"/>
-      <c r="K204" s="22"/>
-      <c r="L204" s="23"/>
-      <c r="M204" s="21"/>
-      <c r="N204" s="23"/>
-      <c r="O204" s="22"/>
-    </row>
-    <row r="205" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A205" s="19"/>
-      <c r="B205" s="20"/>
-      <c r="C205" s="26"/>
-      <c r="D205" s="27"/>
-      <c r="E205" s="27"/>
-      <c r="F205" s="27"/>
-      <c r="G205" s="27"/>
-      <c r="H205" s="27"/>
-      <c r="I205" s="27"/>
-      <c r="J205" s="50"/>
-      <c r="K205" s="22"/>
-      <c r="L205" s="23"/>
-      <c r="M205" s="21"/>
-      <c r="N205" s="23"/>
-      <c r="O205" s="22"/>
-    </row>
-    <row r="206" spans="6:6">
-      <c r="F206" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14031,18 +13558,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N106:N205">
+  <conditionalFormatting sqref="N92:N191">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N106,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N92,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N106,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N92,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N106,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N92,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N105">
+  <conditionalFormatting sqref="N1 N3:N91">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -14054,10 +13581,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C13 C14 C22 C25 C38 C41 C42 C43 C44 C47 C48 C49 C53 C54 C10:C12 C15:C18 C19:C21 C23:C24 C26:C28 C29:C31 C32:C33 C34:C35 C36:C37 C39:C40 C45:C46 C50:C52 C55:C57 C58:C62 C63:C72 C73:C205">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C31 C34 C35 C38 C39 C40 C27:C28 C29:C30 C32:C33 C36:C37 C41:C43 C44:C48 C49:C58 C59:C191">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D13 D14 D22 D25 D38 D41 D42 D43 D44 D47 D48 D49 D53 D54 D10:D12 D15:D18 D19:D21 D23:D24 D26:D27 D28:D31 D32:D33 D34:D35 D36:D37 D39:D40 D45:D46 D50:D52 D55:D57 D58:D62 D63:D72 D73:D205">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D31 D34 D35 D38 D39 D40 D27:D28 D29:D30 D32:D33 D36:D37 D41:D43 D44:D48 D49:D58 D59:D191">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-ProductRegister.xlsx
+++ b/tests/artifact/script/UI-ProductRegister.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="849">
   <si>
     <t>target</t>
   </si>
@@ -2360,16 +2360,13 @@
     <t>${heading.productRegister}</t>
   </si>
   <si>
-    <t>click the Product field and select the Product</t>
+    <t>Type the product in select Field</t>
   </si>
   <si>
     <t>${ProductSelect.Field}</t>
   </si>
   <si>
-    <t>Type the product in select Field</t>
-  </si>
-  <si>
-    <t>Butter_Milk</t>
+    <t>Fermented</t>
   </si>
   <si>
     <t>Windows</t>
@@ -2396,36 +2393,90 @@
     <t>${To.Date}</t>
   </si>
   <si>
-    <t>Clear selection in Godown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on godown </t>
-  </si>
-  <si>
-    <t>${GodownField.Value}</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>${Godown.ClearValues}</t>
-  </si>
-  <si>
-    <t>Refresh the page</t>
-  </si>
-  <si>
-    <t>getting Product list</t>
-  </si>
-  <si>
-    <t>Fermented</t>
-  </si>
-  <si>
     <t>click on view button</t>
   </si>
   <si>
     <t>${view.button}</t>
   </si>
   <si>
+    <t>Search Functionality</t>
+  </si>
+  <si>
+    <t>Type Invoice name or Buyer details in search field</t>
+  </si>
+  <si>
+    <t>${search.Field}</t>
+  </si>
+  <si>
+    <t>1/SL-23</t>
+  </si>
+  <si>
+    <t>Saving the row count</t>
+  </si>
+  <si>
+    <t>rowcount</t>
+  </si>
+  <si>
+    <t>${pr.table.row.xpath}</t>
+  </si>
+  <si>
+    <t>Assign the rew count as 0</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>${counter}</t>
+  </si>
+  <si>
+    <t>${rowcount}</t>
+  </si>
+  <si>
+    <t>Increase the count</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Save the particulars names in variable</t>
+  </si>
+  <si>
+    <t>particulars</t>
+  </si>
+  <si>
+    <t>${pr.table.row.xpath}[${counter}]${pr.particular.values}</t>
+  </si>
+  <si>
+    <t>Verifying the particulars names after Searching</t>
+  </si>
+  <si>
+    <t>${particulars}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on search field </t>
+  </si>
+  <si>
+    <t>type the Empty values in search</t>
+  </si>
+  <si>
+    <t>(empty)</t>
+  </si>
+  <si>
+    <t>remove the Searched values in search field</t>
+  </si>
+  <si>
+    <t>{BACKSPACE}</t>
+  </si>
+  <si>
     <t>Filter Functionality</t>
   </si>
   <si>
@@ -2435,13 +2486,118 @@
     <t>${pr.Filter.Icon}</t>
   </si>
   <si>
-    <t xml:space="preserve">Click on Invoice Filter </t>
+    <t>Verify the Filter table</t>
+  </si>
+  <si>
+    <t>${filter.Table}</t>
+  </si>
+  <si>
+    <t>Verify the Filter Heading</t>
+  </si>
+  <si>
+    <t>${filter.Table.heading}</t>
+  </si>
+  <si>
+    <t>close the Filter Field</t>
+  </si>
+  <si>
+    <t>To check The Filter table present or not after closing the Filters</t>
+  </si>
+  <si>
+    <t>To check the Invoice using Filters</t>
+  </si>
+  <si>
+    <t>click on Invoice checkbox button</t>
   </si>
   <si>
     <t>${Filter.Invoice}</t>
   </si>
   <si>
-    <t>close the Filter Field</t>
+    <t>click on filter Icon to close the filters menu</t>
+  </si>
+  <si>
+    <t>invrowcount</t>
+  </si>
+  <si>
+    <t>invoicecounter</t>
+  </si>
+  <si>
+    <t>${invoicecounter}</t>
+  </si>
+  <si>
+    <t>${invrowcount}</t>
+  </si>
+  <si>
+    <t>invoicenames</t>
+  </si>
+  <si>
+    <t>${pr.table.row.xpath}[${invoicecounter}]${pr.particular.values}</t>
+  </si>
+  <si>
+    <t>${invoicenames}</t>
+  </si>
+  <si>
+    <t>Re-direct to Invoice page</t>
+  </si>
+  <si>
+    <t>click on Invoice link</t>
+  </si>
+  <si>
+    <t>${pr.Invoice.hyperlink}</t>
+  </si>
+  <si>
+    <t>verify the Invoice Name</t>
+  </si>
+  <si>
+    <t>${Invoice.name.heading}</t>
+  </si>
+  <si>
+    <t>verify the Buyer address</t>
+  </si>
+  <si>
+    <t>${Invoice.buyer.address}</t>
+  </si>
+  <si>
+    <t>go back to the previous page</t>
+  </si>
+  <si>
+    <t>To check the Rejection Note using Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on Filter Icon </t>
+  </si>
+  <si>
+    <t>Click on Rejection note check box in filter</t>
+  </si>
+  <si>
+    <t>${Filter.RejectionNote}</t>
+  </si>
+  <si>
+    <t>verify the Pop up message if the data's are not available</t>
+  </si>
+  <si>
+    <t>${filter.Popup.Message}</t>
+  </si>
+  <si>
+    <t>click on Filter Icon to close the filters menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un-select the Rejection note </t>
+  </si>
+  <si>
+    <t>click on Debit note check box in filter</t>
+  </si>
+  <si>
+    <t>${Filter.DebitNote}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un-select the Debit note </t>
+  </si>
+  <si>
+    <t>click on Credit note in check box in filter</t>
+  </si>
+  <si>
+    <t>${Filter.CreditNote}</t>
   </si>
   <si>
     <t>Download Functionality</t>
@@ -2454,93 +2610,6 @@
   </si>
   <si>
     <t>click on Download Icon</t>
-  </si>
-  <si>
-    <t>Search Functionality</t>
-  </si>
-  <si>
-    <t>Verify Search Invoice Text Box</t>
-  </si>
-  <si>
-    <t>${search.Field}</t>
-  </si>
-  <si>
-    <t>Type Invoice in search field</t>
-  </si>
-  <si>
-    <t>Vegan</t>
-  </si>
-  <si>
-    <t>rowcount</t>
-  </si>
-  <si>
-    <t>${pr.table.row.xpath}</t>
-  </si>
-  <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>${counter}</t>
-  </si>
-  <si>
-    <t>${rowcount}</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>${pr.table.row.xpath}[${counter}]${pr.date.values}</t>
-  </si>
-  <si>
-    <t>particulars</t>
-  </si>
-  <si>
-    <t>${pr.table.row.xpath}[${counter}]${pr.particular.values}</t>
-  </si>
-  <si>
-    <t>inward</t>
-  </si>
-  <si>
-    <t>${pr.table.row.xpath}[${counter}]${pr.Inward.values}</t>
-  </si>
-  <si>
-    <t>outward</t>
-  </si>
-  <si>
-    <t>${pr.table.row.xpath}[${counter}]${pr.outward.values}</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>${pr.table.row.xpath}[${counter}]${pr.balance.values}</t>
-  </si>
-  <si>
-    <t>click on the Invoice hyper link in Product listing page</t>
-  </si>
-  <si>
-    <t>${pr.Invoice.hyperlink}</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>verify the Invoice Number</t>
-  </si>
-  <si>
-    <t>${Invoice.number.heading}</t>
   </si>
 </sst>
 </file>
@@ -2553,7 +2622,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2625,6 +2694,41 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0" tint="-0.0499893185216834"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -2641,11 +2745,6 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -3154,135 +3253,135 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3394,23 +3493,73 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3434,7 +3583,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3442,15 +3591,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3465,11 +3614,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3498,7 +3647,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6587,14 +6736,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="40"/>
+      <c r="J1" s="52"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="41"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -6608,12 +6757,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="40"/>
+      <c r="J2" s="52"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -6625,7 +6774,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="44"/>
+      <c r="J3" s="56"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -6660,10 +6809,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="57" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -6678,7 +6827,7 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="64" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -6693,69 +6842,69 @@
       <c r="E5" s="32" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="65" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="48"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="60"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="54"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="57"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="48"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="60"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="59"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="48"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="60"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="48"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="60"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
@@ -6767,7 +6916,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="51"/>
+      <c r="J9" s="63"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -6784,7 +6933,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="51"/>
+      <c r="J10" s="63"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -6801,7 +6950,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="51"/>
+      <c r="J11" s="63"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -6818,7 +6967,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="51"/>
+      <c r="J12" s="63"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -6835,7 +6984,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="51"/>
+      <c r="J13" s="63"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -6852,7 +7001,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="51"/>
+      <c r="J14" s="63"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -6869,7 +7018,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="51"/>
+      <c r="J15" s="63"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -6878,7 +7027,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="63"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -6886,7 +7035,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="51"/>
+      <c r="J16" s="63"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -6903,7 +7052,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="51"/>
+      <c r="J17" s="63"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -6920,7 +7069,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="51"/>
+      <c r="J18" s="63"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -6937,7 +7086,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="51"/>
+      <c r="J19" s="63"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -6954,7 +7103,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="51"/>
+      <c r="J20" s="63"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -6971,7 +7120,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="51"/>
+      <c r="J21" s="63"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -6988,7 +7137,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="51"/>
+      <c r="J22" s="63"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -7005,7 +7154,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="51"/>
+      <c r="J23" s="63"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -7022,7 +7171,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="51"/>
+      <c r="J24" s="63"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -7039,7 +7188,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="51"/>
+      <c r="J25" s="63"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -7056,7 +7205,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="51"/>
+      <c r="J26" s="63"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -7073,7 +7222,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="51"/>
+      <c r="J27" s="63"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -7090,7 +7239,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="51"/>
+      <c r="J28" s="63"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -7107,7 +7256,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="51"/>
+      <c r="J29" s="63"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -7124,7 +7273,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="51"/>
+      <c r="J30" s="63"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -7141,7 +7290,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="51"/>
+      <c r="J31" s="63"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7158,7 +7307,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="51"/>
+      <c r="J32" s="63"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7175,7 +7324,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="51"/>
+      <c r="J33" s="63"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7192,7 +7341,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="51"/>
+      <c r="J34" s="63"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7209,7 +7358,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="51"/>
+      <c r="J35" s="63"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7226,7 +7375,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="51"/>
+      <c r="J36" s="63"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7243,7 +7392,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="51"/>
+      <c r="J37" s="63"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7260,7 +7409,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="51"/>
+      <c r="J38" s="63"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7277,7 +7426,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="51"/>
+      <c r="J39" s="63"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7294,7 +7443,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="51"/>
+      <c r="J40" s="63"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7311,7 +7460,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="51"/>
+      <c r="J41" s="63"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7328,7 +7477,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="51"/>
+      <c r="J42" s="63"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7345,7 +7494,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="51"/>
+      <c r="J43" s="63"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7362,7 +7511,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="51"/>
+      <c r="J44" s="63"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7379,7 +7528,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="51"/>
+      <c r="J45" s="63"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7396,7 +7545,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="51"/>
+      <c r="J46" s="63"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7413,7 +7562,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="51"/>
+      <c r="J47" s="63"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7430,7 +7579,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="51"/>
+      <c r="J48" s="63"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7447,7 +7596,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="51"/>
+      <c r="J49" s="63"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7464,7 +7613,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="51"/>
+      <c r="J50" s="63"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7481,7 +7630,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="51"/>
+      <c r="J51" s="63"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7498,7 +7647,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="51"/>
+      <c r="J52" s="63"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7515,7 +7664,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="51"/>
+      <c r="J53" s="63"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7532,7 +7681,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="51"/>
+      <c r="J54" s="63"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -7549,7 +7698,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="51"/>
+      <c r="J55" s="63"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -7566,7 +7715,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="51"/>
+      <c r="J56" s="63"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -7583,7 +7732,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="51"/>
+      <c r="J57" s="63"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -7600,7 +7749,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="51"/>
+      <c r="J58" s="63"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -7617,7 +7766,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="51"/>
+      <c r="J59" s="63"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -7634,7 +7783,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="51"/>
+      <c r="J60" s="63"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -7651,7 +7800,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="51"/>
+      <c r="J61" s="63"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -7668,7 +7817,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="51"/>
+      <c r="J62" s="63"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -7685,7 +7834,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="51"/>
+      <c r="J63" s="63"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -7702,7 +7851,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="51"/>
+      <c r="J64" s="63"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -7719,7 +7868,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="51"/>
+      <c r="J65" s="63"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -7736,7 +7885,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="51"/>
+      <c r="J66" s="63"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -7753,7 +7902,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="51"/>
+      <c r="J67" s="63"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -7770,7 +7919,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="51"/>
+      <c r="J68" s="63"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -7787,7 +7936,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="51"/>
+      <c r="J69" s="63"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -7804,7 +7953,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="51"/>
+      <c r="J70" s="63"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -7821,7 +7970,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="51"/>
+      <c r="J71" s="63"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -7838,7 +7987,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="51"/>
+      <c r="J72" s="63"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -7855,7 +8004,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="51"/>
+      <c r="J73" s="63"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -7872,7 +8021,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="51"/>
+      <c r="J74" s="63"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -7889,7 +8038,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="51"/>
+      <c r="J75" s="63"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -7906,7 +8055,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="51"/>
+      <c r="J76" s="63"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -7923,7 +8072,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="51"/>
+      <c r="J77" s="63"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -7940,7 +8089,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="51"/>
+      <c r="J78" s="63"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -7957,7 +8106,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="51"/>
+      <c r="J79" s="63"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -7974,7 +8123,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="51"/>
+      <c r="J80" s="63"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -7991,7 +8140,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="51"/>
+      <c r="J81" s="63"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -8008,7 +8157,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="51"/>
+      <c r="J82" s="63"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -8025,7 +8174,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="51"/>
+      <c r="J83" s="63"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -8042,7 +8191,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="51"/>
+      <c r="J84" s="63"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -8059,7 +8208,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="51"/>
+      <c r="J85" s="63"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -8076,7 +8225,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="51"/>
+      <c r="J86" s="63"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -8093,7 +8242,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="51"/>
+      <c r="J87" s="63"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -8110,7 +8259,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="51"/>
+      <c r="J88" s="63"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -8127,7 +8276,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="51"/>
+      <c r="J89" s="63"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8144,7 +8293,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="51"/>
+      <c r="J90" s="63"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8161,7 +8310,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="51"/>
+      <c r="J91" s="63"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8178,7 +8327,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="51"/>
+      <c r="J92" s="63"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8195,7 +8344,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="51"/>
+      <c r="J93" s="63"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8212,7 +8361,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="51"/>
+      <c r="J94" s="63"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8229,7 +8378,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="51"/>
+      <c r="J95" s="63"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8246,7 +8395,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="51"/>
+      <c r="J96" s="63"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8263,7 +8412,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="51"/>
+      <c r="J97" s="63"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8280,7 +8429,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="51"/>
+      <c r="J98" s="63"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8297,7 +8446,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="51"/>
+      <c r="J99" s="63"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8314,7 +8463,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="51"/>
+      <c r="J100" s="63"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8331,7 +8480,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="51"/>
+      <c r="J101" s="63"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8348,7 +8497,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="51"/>
+      <c r="J102" s="63"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8365,7 +8514,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="51"/>
+      <c r="J103" s="63"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8382,7 +8531,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="51"/>
+      <c r="J104" s="63"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8399,7 +8548,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="51"/>
+      <c r="J105" s="63"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8416,7 +8565,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="51"/>
+      <c r="J106" s="63"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8433,7 +8582,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="51"/>
+      <c r="J107" s="63"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8450,7 +8599,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="51"/>
+      <c r="J108" s="63"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8467,7 +8616,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="51"/>
+      <c r="J109" s="63"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8484,7 +8633,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="51"/>
+      <c r="J110" s="63"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8501,7 +8650,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="51"/>
+      <c r="J111" s="63"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8518,7 +8667,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="51"/>
+      <c r="J112" s="63"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8535,7 +8684,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="51"/>
+      <c r="J113" s="63"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -8552,7 +8701,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="51"/>
+      <c r="J114" s="63"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -8569,7 +8718,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="51"/>
+      <c r="J115" s="63"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -8586,7 +8735,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="51"/>
+      <c r="J116" s="63"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -8603,7 +8752,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="51"/>
+      <c r="J117" s="63"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -8620,7 +8769,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="51"/>
+      <c r="J118" s="63"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -8637,7 +8786,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="51"/>
+      <c r="J119" s="63"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -8654,7 +8803,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="51"/>
+      <c r="J120" s="63"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -8671,7 +8820,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="51"/>
+      <c r="J121" s="63"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -8688,7 +8837,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="51"/>
+      <c r="J122" s="63"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -8705,7 +8854,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="51"/>
+      <c r="J123" s="63"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -8722,7 +8871,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="51"/>
+      <c r="J124" s="63"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -8739,7 +8888,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="51"/>
+      <c r="J125" s="63"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -8756,7 +8905,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="51"/>
+      <c r="J126" s="63"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -8773,7 +8922,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="51"/>
+      <c r="J127" s="63"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -8790,7 +8939,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="51"/>
+      <c r="J128" s="63"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -8807,7 +8956,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="51"/>
+      <c r="J129" s="63"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -8824,7 +8973,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="51"/>
+      <c r="J130" s="63"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -8841,7 +8990,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="51"/>
+      <c r="J131" s="63"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -8858,7 +9007,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="51"/>
+      <c r="J132" s="63"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -8875,7 +9024,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="51"/>
+      <c r="J133" s="63"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -8892,7 +9041,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="51"/>
+      <c r="J134" s="63"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -8909,7 +9058,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="51"/>
+      <c r="J135" s="63"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -8926,7 +9075,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="51"/>
+      <c r="J136" s="63"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -8943,7 +9092,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="51"/>
+      <c r="J137" s="63"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -8960,7 +9109,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="51"/>
+      <c r="J138" s="63"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -8977,7 +9126,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="51"/>
+      <c r="J139" s="63"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -8994,7 +9143,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="51"/>
+      <c r="J140" s="63"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -9011,7 +9160,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="51"/>
+      <c r="J141" s="63"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -9028,7 +9177,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="51"/>
+      <c r="J142" s="63"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -9045,7 +9194,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="51"/>
+      <c r="J143" s="63"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -9062,7 +9211,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="51"/>
+      <c r="J144" s="63"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -9079,7 +9228,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="51"/>
+      <c r="J145" s="63"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -9096,7 +9245,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="51"/>
+      <c r="J146" s="63"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -9113,7 +9262,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="51"/>
+      <c r="J147" s="63"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -9130,7 +9279,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="51"/>
+      <c r="J148" s="63"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9147,7 +9296,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="51"/>
+      <c r="J149" s="63"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9164,7 +9313,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="51"/>
+      <c r="J150" s="63"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9181,7 +9330,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="51"/>
+      <c r="J151" s="63"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9198,7 +9347,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="51"/>
+      <c r="J152" s="63"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9215,7 +9364,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="51"/>
+      <c r="J153" s="63"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9232,7 +9381,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="51"/>
+      <c r="J154" s="63"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9249,7 +9398,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="51"/>
+      <c r="J155" s="63"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9266,7 +9415,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="51"/>
+      <c r="J156" s="63"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9283,7 +9432,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="51"/>
+      <c r="J157" s="63"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9300,7 +9449,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="51"/>
+      <c r="J158" s="63"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9317,7 +9466,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="51"/>
+      <c r="J159" s="63"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9334,7 +9483,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="51"/>
+      <c r="J160" s="63"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9351,7 +9500,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="51"/>
+      <c r="J161" s="63"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9368,7 +9517,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="51"/>
+      <c r="J162" s="63"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9385,7 +9534,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="51"/>
+      <c r="J163" s="63"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9402,7 +9551,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="51"/>
+      <c r="J164" s="63"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9419,7 +9568,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="51"/>
+      <c r="J165" s="63"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9436,7 +9585,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="51"/>
+      <c r="J166" s="63"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9453,7 +9602,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="51"/>
+      <c r="J167" s="63"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9470,7 +9619,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="51"/>
+      <c r="J168" s="63"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -9487,7 +9636,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="51"/>
+      <c r="J169" s="63"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -9504,7 +9653,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="51"/>
+      <c r="J170" s="63"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -9521,7 +9670,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="51"/>
+      <c r="J171" s="63"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -9538,7 +9687,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="51"/>
+      <c r="J172" s="63"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -9555,7 +9704,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="51"/>
+      <c r="J173" s="63"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -9572,7 +9721,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="51"/>
+      <c r="J174" s="63"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -9589,7 +9738,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="51"/>
+      <c r="J175" s="63"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -9606,7 +9755,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="51"/>
+      <c r="J176" s="63"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -9623,7 +9772,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="51"/>
+      <c r="J177" s="63"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -9640,7 +9789,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="51"/>
+      <c r="J178" s="63"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -9657,7 +9806,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="51"/>
+      <c r="J179" s="63"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -9674,7 +9823,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="51"/>
+      <c r="J180" s="63"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -9691,7 +9840,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="51"/>
+      <c r="J181" s="63"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -9708,7 +9857,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="51"/>
+      <c r="J182" s="63"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -9725,7 +9874,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="51"/>
+      <c r="J183" s="63"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -9742,7 +9891,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="51"/>
+      <c r="J184" s="63"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -9759,7 +9908,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="51"/>
+      <c r="J185" s="63"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -9776,7 +9925,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="51"/>
+      <c r="J186" s="63"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -9793,7 +9942,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="51"/>
+      <c r="J187" s="63"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -9810,7 +9959,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="51"/>
+      <c r="J188" s="63"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -9873,10 +10022,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O192"/>
+  <dimension ref="A1:O205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9920,14 +10069,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="40"/>
+      <c r="J1" s="52"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="41"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -9941,12 +10090,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="40"/>
+      <c r="J2" s="52"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -9958,7 +10107,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="44"/>
+      <c r="J3" s="56"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -9993,10 +10142,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="57" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -10032,12 +10181,12 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="48"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="60"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -10059,12 +10208,12 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="48"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="60"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
@@ -10084,7 +10233,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="51"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -10109,7 +10258,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="51"/>
+      <c r="J8" s="63"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -10136,7 +10285,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="51"/>
+      <c r="J9" s="63"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -10152,16 +10301,18 @@
         <v>30</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>363</v>
+        <v>707</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>766</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="28" t="s">
+        <v>767</v>
+      </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="51"/>
+      <c r="J10" s="63"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -10170,25 +10321,23 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
-      <c r="B11" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="F11" s="28" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="E11" s="33" t="s">
         <v>768</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>769</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="51"/>
+      <c r="J11" s="63"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10197,23 +10346,25 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>769</v>
-      </c>
-      <c r="F12" s="34" t="s">
+      <c r="B12" s="30" t="s">
         <v>770</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>772</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="51"/>
+      <c r="J12" s="63"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -10223,7 +10374,7 @@
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
       <c r="B13" s="30" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>30</v>
@@ -10232,15 +10383,15 @@
         <v>707</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="51"/>
+      <c r="J13" s="63"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -10250,24 +10401,22 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="30" t="s">
-        <v>774</v>
-      </c>
-      <c r="C14" s="26" t="s">
+        <v>776</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>776</v>
-      </c>
+      <c r="D14" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>777</v>
+      </c>
+      <c r="F14" s="36"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="51"/>
+      <c r="J14" s="63"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10275,26 +10424,28 @@
       <c r="O14" s="22"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A15" s="19" t="s">
-        <v>777</v>
-      </c>
-      <c r="B15" s="30" t="s">
+      <c r="A15" s="37" t="s">
         <v>778</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="38" t="s">
+        <v>779</v>
+      </c>
+      <c r="C15" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>600</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>779</v>
-      </c>
-      <c r="F15" s="28"/>
+      <c r="D15" s="40" t="s">
+        <v>707</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>780</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>781</v>
+      </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="51"/>
+      <c r="J15" s="63"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10302,22 +10453,26 @@
       <c r="O15" s="22"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="38" t="s">
+        <v>782</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>715</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>780</v>
-      </c>
-      <c r="F16" s="35"/>
+      <c r="D16" s="40" t="s">
+        <v>483</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>783</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>784</v>
+      </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="51"/>
+      <c r="J16" s="63"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -10325,22 +10480,26 @@
       <c r="O16" s="22"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>781</v>
-      </c>
-      <c r="F17" s="35"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="38" t="s">
+        <v>785</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>786</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>787</v>
+      </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="51"/>
+      <c r="J17" s="63"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10348,21 +10507,24 @@
       <c r="O17" s="22"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="30" t="s">
-        <v>782</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>640</v>
-      </c>
-      <c r="E18" s="27"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>465</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>788</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>789</v>
+      </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="51"/>
+      <c r="J18" s="63"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10370,26 +10532,24 @@
       <c r="O18" s="22"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="19" t="s">
-        <v>783</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>765</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="F19" s="1"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>790</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>791</v>
+      </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="51"/>
+      <c r="J19" s="63"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10397,26 +10557,26 @@
       <c r="O19" s="22"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>784</v>
+      <c r="A20" s="42"/>
+      <c r="B20" s="38" t="s">
+        <v>792</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>786</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>793</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="51"/>
+      <c r="J20" s="63"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10424,24 +10584,26 @@
       <c r="O20" s="22"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="19"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>769</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>770</v>
+      <c r="A21" s="42"/>
+      <c r="B21" s="38" t="s">
+        <v>794</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>795</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>796</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="51"/>
+      <c r="J21" s="63"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -10449,26 +10611,26 @@
       <c r="O21" s="22"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="C22" s="26" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="38" t="s">
+        <v>797</v>
+      </c>
+      <c r="C22" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>773</v>
+      <c r="D22" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>796</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>798</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="51"/>
+      <c r="J22" s="63"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10478,24 +10640,22 @@
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
       <c r="B23" s="30" t="s">
-        <v>774</v>
+        <v>799</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>776</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>780</v>
+      </c>
+      <c r="F23" s="28"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="51"/>
+      <c r="J23" s="63"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10505,22 +10665,24 @@
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
       <c r="B24" s="30" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>600</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>779</v>
-      </c>
-      <c r="F24" s="28"/>
+        <v>707</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>780</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>801</v>
+      </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="51"/>
+      <c r="J24" s="63"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10530,22 +10692,24 @@
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
       <c r="B25" s="30" t="s">
-        <v>785</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>786</v>
-      </c>
-      <c r="F25" s="33"/>
+        <v>802</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>768</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>803</v>
+      </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="51"/>
+      <c r="J25" s="63"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -10554,10 +10718,10 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19" t="s">
-        <v>787</v>
+        <v>804</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>30</v>
@@ -10566,13 +10730,13 @@
         <v>363</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="51"/>
+      <c r="J26" s="63"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -10582,22 +10746,22 @@
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="30" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="51"/>
+      <c r="J27" s="63"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -10607,22 +10771,22 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="30" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>789</v>
+        <v>810</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="51"/>
+      <c r="J28" s="63"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -10630,51 +10794,51 @@
       <c r="O28" s="22"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A29" s="19" t="s">
-        <v>793</v>
-      </c>
+      <c r="A29" s="19"/>
       <c r="B29" s="30" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="51"/>
+      <c r="J29" s="63"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
       <c r="N29" s="23"/>
       <c r="O29" s="22"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="30" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="30" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>795</v>
-      </c>
-      <c r="F30" s="28"/>
+        <v>808</v>
+      </c>
+      <c r="F30" s="28">
+        <v>3000</v>
+      </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="51"/>
+      <c r="J30" s="63"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -10682,24 +10846,26 @@
       <c r="O30" s="22"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A31" s="19"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>769</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>770</v>
-      </c>
+      <c r="A31" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>806</v>
+      </c>
+      <c r="F31" s="28"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="51"/>
+      <c r="J31" s="63"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -10707,26 +10873,24 @@
       <c r="O31" s="22"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A32" s="19" t="s">
-        <v>797</v>
-      </c>
+      <c r="A32" s="19"/>
       <c r="B32" s="30" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="51"/>
+      <c r="J32" s="63"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -10736,24 +10900,22 @@
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
       <c r="B33" s="30" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>707</v>
+        <v>363</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>801</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="F33" s="28"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="51"/>
+      <c r="J33" s="63"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -10762,23 +10924,25 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="26" t="s">
+      <c r="B34" s="38" t="s">
+        <v>782</v>
+      </c>
+      <c r="C34" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="40" t="s">
         <v>483</v>
       </c>
-      <c r="E34" s="27" t="s">
-        <v>802</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>803</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="E34" s="40" t="s">
+        <v>817</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>784</v>
+      </c>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="51"/>
+      <c r="J34" s="63"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -10787,23 +10951,25 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31" t="s">
+      <c r="B35" s="38" t="s">
+        <v>785</v>
+      </c>
+      <c r="C35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="E35" s="32" t="s">
-        <v>804</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>805</v>
+      <c r="E35" s="44" t="s">
+        <v>818</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>787</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="51"/>
+      <c r="J35" s="63"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -10812,23 +10978,23 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31" t="s">
+      <c r="B36" s="38"/>
+      <c r="C36" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="44" t="s">
         <v>465</v>
       </c>
-      <c r="E36" s="32" t="s">
-        <v>806</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>807</v>
+      <c r="E36" s="44" t="s">
+        <v>788</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>789</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="51"/>
+      <c r="J36" s="63"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -10837,23 +11003,23 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="32" t="s">
-        <v>808</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>809</v>
+      <c r="E37" s="44" t="s">
+        <v>819</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>820</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="51"/>
+      <c r="J37" s="63"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -10862,23 +11028,25 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31" t="s">
+      <c r="B38" s="38" t="s">
+        <v>792</v>
+      </c>
+      <c r="C38" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="E38" s="32" t="s">
-        <v>804</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>810</v>
+      <c r="E38" s="44" t="s">
+        <v>818</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>793</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="51"/>
+      <c r="J38" s="63"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -10887,23 +11055,25 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="26" t="s">
+      <c r="B39" s="38" t="s">
+        <v>794</v>
+      </c>
+      <c r="C39" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="40" t="s">
         <v>493</v>
       </c>
-      <c r="E39" s="27" t="s">
-        <v>811</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>812</v>
+      <c r="E39" s="40" t="s">
+        <v>821</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>822</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="51"/>
+      <c r="J39" s="63"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -10912,23 +11082,25 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31" t="s">
+      <c r="B40" s="38" t="s">
+        <v>797</v>
+      </c>
+      <c r="C40" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>813</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>814</v>
-      </c>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
+      <c r="D40" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>822</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>823</v>
+      </c>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="51"/>
+      <c r="J40" s="63"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -10936,24 +11108,26 @@
       <c r="O40" s="22"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A41" s="19"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31" t="s">
+      <c r="A41" s="19" t="s">
+        <v>824</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="C41" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>815</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>816</v>
-      </c>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
+        <v>600</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>826</v>
+      </c>
+      <c r="F41" s="28"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="51"/>
+      <c r="J41" s="63"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -10962,23 +11136,23 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="31" t="s">
+      <c r="B42" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="C42" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E42" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
+        <v>253</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>828</v>
+      </c>
+      <c r="F42" s="28"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="51"/>
+      <c r="J42" s="63"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -10987,23 +11161,23 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="31" t="s">
+      <c r="B43" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="C43" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>819</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>820</v>
-      </c>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
+        <v>253</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>830</v>
+      </c>
+      <c r="F43" s="28"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="51"/>
+      <c r="J43" s="63"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -11013,49 +11187,47 @@
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
       <c r="B44" s="30" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>602</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>822</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>823</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="51"/>
+      <c r="J44" s="63"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
       <c r="N44" s="23"/>
       <c r="O44" s="22"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A45" s="19"/>
+    <row r="45" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
+      <c r="A45" s="19" t="s">
+        <v>832</v>
+      </c>
       <c r="B45" s="30" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="51"/>
+      <c r="J45" s="63"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -11064,19 +11236,23 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
-      <c r="B46" s="30"/>
+      <c r="B46" s="30" t="s">
+        <v>834</v>
+      </c>
       <c r="C46" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="E46" s="27"/>
+        <v>363</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>835</v>
+      </c>
       <c r="F46" s="28"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="51"/>
+      <c r="J46" s="63"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -11085,15 +11261,23 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
+      <c r="B47" s="30" t="s">
+        <v>836</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>837</v>
+      </c>
       <c r="F47" s="28"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="51"/>
+      <c r="J47" s="63"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -11102,15 +11286,23 @@
     </row>
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
+      <c r="B48" s="30" t="s">
+        <v>838</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>806</v>
+      </c>
       <c r="F48" s="28"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="51"/>
+      <c r="J48" s="63"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -11119,15 +11311,23 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
+      <c r="B49" s="47" t="s">
+        <v>833</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="E49" s="49" t="s">
+        <v>806</v>
+      </c>
       <c r="F49" s="28"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="51"/>
+      <c r="J49" s="63"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -11136,15 +11336,23 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
+      <c r="B50" s="47" t="s">
+        <v>839</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="E50" s="49" t="s">
+        <v>835</v>
+      </c>
       <c r="F50" s="28"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="51"/>
+      <c r="J50" s="63"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -11153,15 +11361,23 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
+      <c r="B51" s="47" t="s">
+        <v>840</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>841</v>
+      </c>
       <c r="F51" s="28"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="51"/>
+      <c r="J51" s="63"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -11170,15 +11386,23 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
+      <c r="B52" s="47" t="s">
+        <v>836</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52" s="49" t="s">
+        <v>837</v>
+      </c>
       <c r="F52" s="28"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="51"/>
+      <c r="J52" s="63"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -11187,15 +11411,23 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
+      <c r="B53" s="47" t="s">
+        <v>838</v>
+      </c>
+      <c r="C53" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="E53" s="49" t="s">
+        <v>806</v>
+      </c>
       <c r="F53" s="28"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="51"/>
+      <c r="J53" s="63"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -11204,15 +11436,23 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
+      <c r="B54" s="47" t="s">
+        <v>833</v>
+      </c>
+      <c r="C54" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="E54" s="49" t="s">
+        <v>806</v>
+      </c>
       <c r="F54" s="28"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="51"/>
+      <c r="J54" s="63"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -11221,15 +11461,23 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
+      <c r="B55" s="47" t="s">
+        <v>842</v>
+      </c>
+      <c r="C55" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="E55" s="49" t="s">
+        <v>841</v>
+      </c>
       <c r="F55" s="28"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="51"/>
+      <c r="J55" s="63"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -11238,15 +11486,23 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
+      <c r="B56" s="47" t="s">
+        <v>843</v>
+      </c>
+      <c r="C56" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="E56" s="49" t="s">
+        <v>844</v>
+      </c>
       <c r="F56" s="28"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="51"/>
+      <c r="J56" s="63"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -11255,15 +11511,23 @@
     </row>
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
+      <c r="B57" s="47" t="s">
+        <v>836</v>
+      </c>
+      <c r="C57" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="E57" s="49" t="s">
+        <v>837</v>
+      </c>
       <c r="F57" s="28"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="51"/>
+      <c r="J57" s="63"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -11272,15 +11536,23 @@
     </row>
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
+      <c r="B58" s="47" t="s">
+        <v>838</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="E58" s="49" t="s">
+        <v>806</v>
+      </c>
       <c r="F58" s="28"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="51"/>
+      <c r="J58" s="63"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -11289,15 +11561,19 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="49" t="s">
+        <v>640</v>
+      </c>
+      <c r="E59" s="49"/>
+      <c r="F59" s="28"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="51"/>
+      <c r="J59" s="63"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -11305,16 +11581,26 @@
       <c r="O59" s="22"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
+      <c r="A60" s="19" t="s">
+        <v>845</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>846</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>847</v>
+      </c>
+      <c r="F60" s="28"/>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="51"/>
+      <c r="J60" s="63"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -11323,15 +11609,23 @@
     </row>
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
+      <c r="B61" s="30" t="s">
+        <v>848</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>847</v>
+      </c>
+      <c r="F61" s="28"/>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="51"/>
+      <c r="J61" s="63"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -11340,15 +11634,23 @@
     </row>
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>768</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>769</v>
+      </c>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="51"/>
+      <c r="J62" s="63"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -11357,15 +11659,15 @@
     </row>
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="26"/>
       <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="51"/>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="51"/>
+      <c r="J63" s="63"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -11374,15 +11676,15 @@
     </row>
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="26"/>
       <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="51"/>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="51"/>
+      <c r="J64" s="63"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -11391,15 +11693,15 @@
     </row>
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="26"/>
       <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="51"/>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="51"/>
+      <c r="J65" s="63"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -11408,15 +11710,15 @@
     </row>
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="26"/>
       <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="51"/>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="51"/>
+      <c r="J66" s="63"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -11425,15 +11727,15 @@
     </row>
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="26"/>
       <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="51"/>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="51"/>
+      <c r="J67" s="63"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -11442,15 +11744,15 @@
     </row>
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="26"/>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
+      <c r="F68" s="28"/>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="51"/>
+      <c r="J68" s="63"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -11459,15 +11761,15 @@
     </row>
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="26"/>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
+      <c r="F69" s="28"/>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="51"/>
+      <c r="J69" s="63"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -11476,15 +11778,15 @@
     </row>
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="19"/>
-      <c r="B70" s="20"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="26"/>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
+      <c r="F70" s="28"/>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="51"/>
+      <c r="J70" s="63"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -11493,15 +11795,15 @@
     </row>
     <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="19"/>
-      <c r="B71" s="20"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="26"/>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
+      <c r="F71" s="28"/>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="51"/>
+      <c r="J71" s="63"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -11518,7 +11820,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="51"/>
+      <c r="J72" s="63"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -11535,7 +11837,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="51"/>
+      <c r="J73" s="63"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -11552,7 +11854,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="51"/>
+      <c r="J74" s="63"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -11569,7 +11871,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="51"/>
+      <c r="J75" s="63"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -11586,7 +11888,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="51"/>
+      <c r="J76" s="63"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -11603,7 +11905,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="51"/>
+      <c r="J77" s="63"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -11620,7 +11922,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="51"/>
+      <c r="J78" s="63"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -11637,7 +11939,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="51"/>
+      <c r="J79" s="63"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -11654,7 +11956,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="51"/>
+      <c r="J80" s="63"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -11671,7 +11973,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="51"/>
+      <c r="J81" s="63"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -11688,7 +11990,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="51"/>
+      <c r="J82" s="63"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -11705,7 +12007,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="51"/>
+      <c r="J83" s="63"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -11722,7 +12024,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="51"/>
+      <c r="J84" s="63"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -11739,7 +12041,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="51"/>
+      <c r="J85" s="63"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -11756,7 +12058,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="51"/>
+      <c r="J86" s="63"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -11773,7 +12075,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="51"/>
+      <c r="J87" s="63"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -11790,7 +12092,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="51"/>
+      <c r="J88" s="63"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -11807,7 +12109,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="51"/>
+      <c r="J89" s="63"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -11824,7 +12126,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="51"/>
+      <c r="J90" s="63"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -11841,7 +12143,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="51"/>
+      <c r="J91" s="63"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -11858,7 +12160,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="51"/>
+      <c r="J92" s="63"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -11875,7 +12177,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="51"/>
+      <c r="J93" s="63"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -11892,7 +12194,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="51"/>
+      <c r="J94" s="63"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -11909,7 +12211,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="51"/>
+      <c r="J95" s="63"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -11926,7 +12228,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="51"/>
+      <c r="J96" s="63"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -11943,7 +12245,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="51"/>
+      <c r="J97" s="63"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -11960,7 +12262,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="51"/>
+      <c r="J98" s="63"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -11977,7 +12279,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="51"/>
+      <c r="J99" s="63"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -11994,7 +12296,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="51"/>
+      <c r="J100" s="63"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -12011,7 +12313,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="51"/>
+      <c r="J101" s="63"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -12028,7 +12330,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="51"/>
+      <c r="J102" s="63"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -12045,7 +12347,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="51"/>
+      <c r="J103" s="63"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -12062,7 +12364,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="51"/>
+      <c r="J104" s="63"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -12079,7 +12381,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="51"/>
+      <c r="J105" s="63"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -12096,7 +12398,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="51"/>
+      <c r="J106" s="63"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -12113,7 +12415,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="51"/>
+      <c r="J107" s="63"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -12130,7 +12432,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="51"/>
+      <c r="J108" s="63"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -12147,7 +12449,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="51"/>
+      <c r="J109" s="63"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -12164,7 +12466,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="51"/>
+      <c r="J110" s="63"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -12181,7 +12483,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="51"/>
+      <c r="J111" s="63"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -12198,7 +12500,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="51"/>
+      <c r="J112" s="63"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -12215,7 +12517,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="51"/>
+      <c r="J113" s="63"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -12232,7 +12534,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="51"/>
+      <c r="J114" s="63"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -12249,7 +12551,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="51"/>
+      <c r="J115" s="63"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -12266,7 +12568,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="51"/>
+      <c r="J116" s="63"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -12283,7 +12585,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="51"/>
+      <c r="J117" s="63"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -12300,7 +12602,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="51"/>
+      <c r="J118" s="63"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -12317,7 +12619,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="51"/>
+      <c r="J119" s="63"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -12334,7 +12636,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="51"/>
+      <c r="J120" s="63"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -12351,7 +12653,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="51"/>
+      <c r="J121" s="63"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -12368,7 +12670,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="51"/>
+      <c r="J122" s="63"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -12385,7 +12687,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="51"/>
+      <c r="J123" s="63"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -12402,7 +12704,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="51"/>
+      <c r="J124" s="63"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -12419,7 +12721,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="51"/>
+      <c r="J125" s="63"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -12436,7 +12738,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="51"/>
+      <c r="J126" s="63"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -12453,7 +12755,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="51"/>
+      <c r="J127" s="63"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -12470,7 +12772,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="51"/>
+      <c r="J128" s="63"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -12487,7 +12789,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="51"/>
+      <c r="J129" s="63"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -12504,7 +12806,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="51"/>
+      <c r="J130" s="63"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -12521,7 +12823,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="51"/>
+      <c r="J131" s="63"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -12538,7 +12840,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="51"/>
+      <c r="J132" s="63"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -12555,7 +12857,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="51"/>
+      <c r="J133" s="63"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -12572,7 +12874,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="51"/>
+      <c r="J134" s="63"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -12589,7 +12891,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="51"/>
+      <c r="J135" s="63"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -12606,7 +12908,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="51"/>
+      <c r="J136" s="63"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -12623,7 +12925,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="51"/>
+      <c r="J137" s="63"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -12640,7 +12942,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="51"/>
+      <c r="J138" s="63"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -12657,7 +12959,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="51"/>
+      <c r="J139" s="63"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -12674,7 +12976,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="51"/>
+      <c r="J140" s="63"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -12691,7 +12993,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="51"/>
+      <c r="J141" s="63"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -12708,7 +13010,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="51"/>
+      <c r="J142" s="63"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -12725,7 +13027,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="51"/>
+      <c r="J143" s="63"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -12742,7 +13044,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="51"/>
+      <c r="J144" s="63"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -12759,7 +13061,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="51"/>
+      <c r="J145" s="63"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -12776,7 +13078,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="51"/>
+      <c r="J146" s="63"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -12793,7 +13095,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="51"/>
+      <c r="J147" s="63"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -12810,7 +13112,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="51"/>
+      <c r="J148" s="63"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -12827,7 +13129,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="51"/>
+      <c r="J149" s="63"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -12844,7 +13146,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="51"/>
+      <c r="J150" s="63"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -12861,7 +13163,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="51"/>
+      <c r="J151" s="63"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -12878,7 +13180,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="51"/>
+      <c r="J152" s="63"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -12895,7 +13197,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="51"/>
+      <c r="J153" s="63"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -12912,7 +13214,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="51"/>
+      <c r="J154" s="63"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -12929,7 +13231,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="51"/>
+      <c r="J155" s="63"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -12946,7 +13248,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="51"/>
+      <c r="J156" s="63"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -12963,7 +13265,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="51"/>
+      <c r="J157" s="63"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -12980,7 +13282,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="51"/>
+      <c r="J158" s="63"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -12997,7 +13299,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="51"/>
+      <c r="J159" s="63"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -13014,7 +13316,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="51"/>
+      <c r="J160" s="63"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -13031,7 +13333,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="51"/>
+      <c r="J161" s="63"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -13048,7 +13350,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="51"/>
+      <c r="J162" s="63"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -13065,7 +13367,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="51"/>
+      <c r="J163" s="63"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -13082,7 +13384,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="51"/>
+      <c r="J164" s="63"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -13099,7 +13401,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="51"/>
+      <c r="J165" s="63"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -13116,7 +13418,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="51"/>
+      <c r="J166" s="63"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -13133,7 +13435,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="51"/>
+      <c r="J167" s="63"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -13150,7 +13452,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="51"/>
+      <c r="J168" s="63"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -13167,7 +13469,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="51"/>
+      <c r="J169" s="63"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -13184,7 +13486,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="51"/>
+      <c r="J170" s="63"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -13201,7 +13503,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="51"/>
+      <c r="J171" s="63"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -13218,7 +13520,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="51"/>
+      <c r="J172" s="63"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -13235,7 +13537,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="51"/>
+      <c r="J173" s="63"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -13252,7 +13554,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="51"/>
+      <c r="J174" s="63"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -13269,7 +13571,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="51"/>
+      <c r="J175" s="63"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -13286,7 +13588,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="51"/>
+      <c r="J176" s="63"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -13303,7 +13605,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="51"/>
+      <c r="J177" s="63"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -13320,7 +13622,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="51"/>
+      <c r="J178" s="63"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -13337,7 +13639,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="51"/>
+      <c r="J179" s="63"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -13354,7 +13656,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="51"/>
+      <c r="J180" s="63"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -13371,7 +13673,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="51"/>
+      <c r="J181" s="63"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -13388,7 +13690,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="51"/>
+      <c r="J182" s="63"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -13405,7 +13707,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="51"/>
+      <c r="J183" s="63"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -13422,7 +13724,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="51"/>
+      <c r="J184" s="63"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -13439,7 +13741,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="51"/>
+      <c r="J185" s="63"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -13456,7 +13758,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="51"/>
+      <c r="J186" s="63"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -13473,7 +13775,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="51"/>
+      <c r="J187" s="63"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -13490,7 +13792,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="51"/>
+      <c r="J188" s="63"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -13507,7 +13809,7 @@
       <c r="G189" s="27"/>
       <c r="H189" s="27"/>
       <c r="I189" s="27"/>
-      <c r="J189" s="51"/>
+      <c r="J189" s="63"/>
       <c r="K189" s="22"/>
       <c r="L189" s="23"/>
       <c r="M189" s="21"/>
@@ -13524,7 +13826,7 @@
       <c r="G190" s="27"/>
       <c r="H190" s="27"/>
       <c r="I190" s="27"/>
-      <c r="J190" s="51"/>
+      <c r="J190" s="63"/>
       <c r="K190" s="22"/>
       <c r="L190" s="23"/>
       <c r="M190" s="21"/>
@@ -13541,15 +13843,236 @@
       <c r="G191" s="27"/>
       <c r="H191" s="27"/>
       <c r="I191" s="27"/>
-      <c r="J191" s="51"/>
+      <c r="J191" s="63"/>
       <c r="K191" s="22"/>
       <c r="L191" s="23"/>
       <c r="M191" s="21"/>
       <c r="N191" s="23"/>
       <c r="O191" s="22"/>
     </row>
-    <row r="192" spans="6:6">
+    <row r="192" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A192" s="19"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="26"/>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
       <c r="F192" s="27"/>
+      <c r="G192" s="27"/>
+      <c r="H192" s="27"/>
+      <c r="I192" s="27"/>
+      <c r="J192" s="63"/>
+      <c r="K192" s="22"/>
+      <c r="L192" s="23"/>
+      <c r="M192" s="21"/>
+      <c r="N192" s="23"/>
+      <c r="O192" s="22"/>
+    </row>
+    <row r="193" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A193" s="19"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="26"/>
+      <c r="D193" s="27"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="27"/>
+      <c r="G193" s="27"/>
+      <c r="H193" s="27"/>
+      <c r="I193" s="27"/>
+      <c r="J193" s="63"/>
+      <c r="K193" s="22"/>
+      <c r="L193" s="23"/>
+      <c r="M193" s="21"/>
+      <c r="N193" s="23"/>
+      <c r="O193" s="22"/>
+    </row>
+    <row r="194" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A194" s="19"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="26"/>
+      <c r="D194" s="27"/>
+      <c r="E194" s="27"/>
+      <c r="F194" s="27"/>
+      <c r="G194" s="27"/>
+      <c r="H194" s="27"/>
+      <c r="I194" s="27"/>
+      <c r="J194" s="63"/>
+      <c r="K194" s="22"/>
+      <c r="L194" s="23"/>
+      <c r="M194" s="21"/>
+      <c r="N194" s="23"/>
+      <c r="O194" s="22"/>
+    </row>
+    <row r="195" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A195" s="19"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="26"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="27"/>
+      <c r="G195" s="27"/>
+      <c r="H195" s="27"/>
+      <c r="I195" s="27"/>
+      <c r="J195" s="63"/>
+      <c r="K195" s="22"/>
+      <c r="L195" s="23"/>
+      <c r="M195" s="21"/>
+      <c r="N195" s="23"/>
+      <c r="O195" s="22"/>
+    </row>
+    <row r="196" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A196" s="19"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="27"/>
+      <c r="E196" s="27"/>
+      <c r="F196" s="27"/>
+      <c r="G196" s="27"/>
+      <c r="H196" s="27"/>
+      <c r="I196" s="27"/>
+      <c r="J196" s="63"/>
+      <c r="K196" s="22"/>
+      <c r="L196" s="23"/>
+      <c r="M196" s="21"/>
+      <c r="N196" s="23"/>
+      <c r="O196" s="22"/>
+    </row>
+    <row r="197" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A197" s="19"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="26"/>
+      <c r="D197" s="27"/>
+      <c r="E197" s="27"/>
+      <c r="F197" s="27"/>
+      <c r="G197" s="27"/>
+      <c r="H197" s="27"/>
+      <c r="I197" s="27"/>
+      <c r="J197" s="63"/>
+      <c r="K197" s="22"/>
+      <c r="L197" s="23"/>
+      <c r="M197" s="21"/>
+      <c r="N197" s="23"/>
+      <c r="O197" s="22"/>
+    </row>
+    <row r="198" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A198" s="19"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="26"/>
+      <c r="D198" s="27"/>
+      <c r="E198" s="27"/>
+      <c r="F198" s="27"/>
+      <c r="G198" s="27"/>
+      <c r="H198" s="27"/>
+      <c r="I198" s="27"/>
+      <c r="J198" s="63"/>
+      <c r="K198" s="22"/>
+      <c r="L198" s="23"/>
+      <c r="M198" s="21"/>
+      <c r="N198" s="23"/>
+      <c r="O198" s="22"/>
+    </row>
+    <row r="199" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A199" s="19"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="26"/>
+      <c r="D199" s="27"/>
+      <c r="E199" s="27"/>
+      <c r="F199" s="27"/>
+      <c r="G199" s="27"/>
+      <c r="H199" s="27"/>
+      <c r="I199" s="27"/>
+      <c r="J199" s="63"/>
+      <c r="K199" s="22"/>
+      <c r="L199" s="23"/>
+      <c r="M199" s="21"/>
+      <c r="N199" s="23"/>
+      <c r="O199" s="22"/>
+    </row>
+    <row r="200" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A200" s="19"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="26"/>
+      <c r="D200" s="27"/>
+      <c r="E200" s="27"/>
+      <c r="F200" s="27"/>
+      <c r="G200" s="27"/>
+      <c r="H200" s="27"/>
+      <c r="I200" s="27"/>
+      <c r="J200" s="63"/>
+      <c r="K200" s="22"/>
+      <c r="L200" s="23"/>
+      <c r="M200" s="21"/>
+      <c r="N200" s="23"/>
+      <c r="O200" s="22"/>
+    </row>
+    <row r="201" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A201" s="19"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="26"/>
+      <c r="D201" s="27"/>
+      <c r="E201" s="27"/>
+      <c r="F201" s="27"/>
+      <c r="G201" s="27"/>
+      <c r="H201" s="27"/>
+      <c r="I201" s="27"/>
+      <c r="J201" s="63"/>
+      <c r="K201" s="22"/>
+      <c r="L201" s="23"/>
+      <c r="M201" s="21"/>
+      <c r="N201" s="23"/>
+      <c r="O201" s="22"/>
+    </row>
+    <row r="202" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A202" s="19"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="26"/>
+      <c r="D202" s="27"/>
+      <c r="E202" s="27"/>
+      <c r="F202" s="27"/>
+      <c r="G202" s="27"/>
+      <c r="H202" s="27"/>
+      <c r="I202" s="27"/>
+      <c r="J202" s="63"/>
+      <c r="K202" s="22"/>
+      <c r="L202" s="23"/>
+      <c r="M202" s="21"/>
+      <c r="N202" s="23"/>
+      <c r="O202" s="22"/>
+    </row>
+    <row r="203" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A203" s="19"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="27"/>
+      <c r="E203" s="27"/>
+      <c r="F203" s="27"/>
+      <c r="G203" s="27"/>
+      <c r="H203" s="27"/>
+      <c r="I203" s="27"/>
+      <c r="J203" s="63"/>
+      <c r="K203" s="22"/>
+      <c r="L203" s="23"/>
+      <c r="M203" s="21"/>
+      <c r="N203" s="23"/>
+      <c r="O203" s="22"/>
+    </row>
+    <row r="204" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A204" s="19"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="26"/>
+      <c r="D204" s="27"/>
+      <c r="E204" s="27"/>
+      <c r="F204" s="27"/>
+      <c r="G204" s="27"/>
+      <c r="H204" s="27"/>
+      <c r="I204" s="27"/>
+      <c r="J204" s="63"/>
+      <c r="K204" s="22"/>
+      <c r="L204" s="23"/>
+      <c r="M204" s="21"/>
+      <c r="N204" s="23"/>
+      <c r="O204" s="22"/>
+    </row>
+    <row r="205" spans="6:6">
+      <c r="F205" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13558,18 +14081,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N92:N191">
+  <conditionalFormatting sqref="N105:N204">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N92,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N105,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N92,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N105,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N92,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N105,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N91">
+  <conditionalFormatting sqref="N1 N3:N104">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -13581,10 +14104,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C31 C34 C35 C38 C39 C40 C27:C28 C29:C30 C32:C33 C36:C37 C41:C43 C44:C48 C49:C58 C59:C191">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C20 C21 C22 C23 C24 C25 C26 C29 C30 C31 C34 C35 C38 C39 C40 C41 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C62 C18:C19 C27:C28 C32:C33 C36:C37 C42:C45 C46:C47 C60:C61 C63:C67 C68:C71 C72:C204">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D31 D34 D35 D38 D39 D40 D27:D28 D29:D30 D32:D33 D36:D37 D41:D43 D44:D48 D49:D58 D59:D191">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D20 D21 D22 D23 D24 D25 D26 D29 D30 D31 D34 D35 D38 D39 D40 D41 D45 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D62 D18:D19 D27:D28 D32:D33 D36:D37 D42:D44 D46:D47 D60:D61 D63:D67 D68:D71 D72:D204">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-ProductRegister.xlsx
+++ b/tests/artifact/script/UI-ProductRegister.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="848">
   <si>
     <t>target</t>
   </si>
@@ -2603,13 +2603,10 @@
     <t>Download Functionality</t>
   </si>
   <si>
-    <t>verify Download Icon</t>
+    <t>click on Download Icon</t>
   </si>
   <si>
     <t>${pr.Download.Icon}</t>
-  </si>
-  <si>
-    <t>click on Download Icon</t>
   </si>
 </sst>
 </file>
@@ -2681,6 +2678,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <charset val="134"/>
@@ -2712,18 +2721,6 @@
       <strike/>
       <sz val="11"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3381,7 +3378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3483,6 +3480,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -3491,8 +3504,8 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3501,56 +3514,44 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -3647,7 +3648,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6736,14 +6737,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="52"/>
+      <c r="J1" s="53"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="53"/>
+      <c r="O1" s="54"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -6757,12 +6758,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="52"/>
+      <c r="J2" s="53"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -6774,7 +6775,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="56"/>
+      <c r="J3" s="57"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -6809,10 +6810,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="58" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="58"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -6827,84 +6828,84 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="36" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="66" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="61"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="69"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="70"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="61"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="71"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="61"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="61"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
@@ -6916,7 +6917,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="63"/>
+      <c r="J9" s="64"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -6933,7 +6934,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="63"/>
+      <c r="J10" s="64"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -6950,7 +6951,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="63"/>
+      <c r="J11" s="64"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -6967,7 +6968,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="63"/>
+      <c r="J12" s="64"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -6984,7 +6985,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="63"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -7001,7 +7002,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="63"/>
+      <c r="J14" s="64"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -7018,7 +7019,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="63"/>
+      <c r="J15" s="64"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -7027,7 +7028,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="75"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -7035,7 +7036,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="63"/>
+      <c r="J16" s="64"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -7052,7 +7053,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="63"/>
+      <c r="J17" s="64"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -7069,7 +7070,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="63"/>
+      <c r="J18" s="64"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -7086,7 +7087,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="63"/>
+      <c r="J19" s="64"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -7103,7 +7104,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="63"/>
+      <c r="J20" s="64"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -7120,7 +7121,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="63"/>
+      <c r="J21" s="64"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -7137,7 +7138,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="63"/>
+      <c r="J22" s="64"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -7154,7 +7155,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="63"/>
+      <c r="J23" s="64"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -7171,7 +7172,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="63"/>
+      <c r="J24" s="64"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -7188,7 +7189,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="63"/>
+      <c r="J25" s="64"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -7205,7 +7206,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="63"/>
+      <c r="J26" s="64"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -7222,7 +7223,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="63"/>
+      <c r="J27" s="64"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -7239,7 +7240,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="63"/>
+      <c r="J28" s="64"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -7256,7 +7257,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="63"/>
+      <c r="J29" s="64"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -7273,7 +7274,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="63"/>
+      <c r="J30" s="64"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -7290,7 +7291,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="63"/>
+      <c r="J31" s="64"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7307,7 +7308,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="63"/>
+      <c r="J32" s="64"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7324,7 +7325,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="63"/>
+      <c r="J33" s="64"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7341,7 +7342,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="63"/>
+      <c r="J34" s="64"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7358,7 +7359,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="63"/>
+      <c r="J35" s="64"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7375,7 +7376,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="63"/>
+      <c r="J36" s="64"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7392,7 +7393,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="63"/>
+      <c r="J37" s="64"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7409,7 +7410,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="63"/>
+      <c r="J38" s="64"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7426,7 +7427,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="63"/>
+      <c r="J39" s="64"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7443,7 +7444,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="63"/>
+      <c r="J40" s="64"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7460,7 +7461,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="63"/>
+      <c r="J41" s="64"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7477,7 +7478,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="63"/>
+      <c r="J42" s="64"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7494,7 +7495,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="63"/>
+      <c r="J43" s="64"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7511,7 +7512,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="63"/>
+      <c r="J44" s="64"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7528,7 +7529,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="63"/>
+      <c r="J45" s="64"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7545,7 +7546,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="63"/>
+      <c r="J46" s="64"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7562,7 +7563,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="63"/>
+      <c r="J47" s="64"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7579,7 +7580,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="63"/>
+      <c r="J48" s="64"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7596,7 +7597,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="63"/>
+      <c r="J49" s="64"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7613,7 +7614,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="63"/>
+      <c r="J50" s="64"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7630,7 +7631,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="63"/>
+      <c r="J51" s="64"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7647,7 +7648,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="63"/>
+      <c r="J52" s="64"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7664,7 +7665,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="63"/>
+      <c r="J53" s="64"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7681,7 +7682,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="63"/>
+      <c r="J54" s="64"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -7698,7 +7699,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="63"/>
+      <c r="J55" s="64"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -7715,7 +7716,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="63"/>
+      <c r="J56" s="64"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -7732,7 +7733,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="63"/>
+      <c r="J57" s="64"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -7749,7 +7750,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="63"/>
+      <c r="J58" s="64"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -7766,7 +7767,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="63"/>
+      <c r="J59" s="64"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -7783,7 +7784,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="63"/>
+      <c r="J60" s="64"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -7800,7 +7801,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="63"/>
+      <c r="J61" s="64"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -7817,7 +7818,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="63"/>
+      <c r="J62" s="64"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -7834,7 +7835,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="63"/>
+      <c r="J63" s="64"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -7851,7 +7852,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="63"/>
+      <c r="J64" s="64"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -7868,7 +7869,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="63"/>
+      <c r="J65" s="64"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -7885,7 +7886,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="63"/>
+      <c r="J66" s="64"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -7902,7 +7903,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="63"/>
+      <c r="J67" s="64"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -7919,7 +7920,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="63"/>
+      <c r="J68" s="64"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -7936,7 +7937,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="63"/>
+      <c r="J69" s="64"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -7953,7 +7954,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="63"/>
+      <c r="J70" s="64"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -7970,7 +7971,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="63"/>
+      <c r="J71" s="64"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -7987,7 +7988,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="63"/>
+      <c r="J72" s="64"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -8004,7 +8005,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="63"/>
+      <c r="J73" s="64"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -8021,7 +8022,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="63"/>
+      <c r="J74" s="64"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -8038,7 +8039,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="63"/>
+      <c r="J75" s="64"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -8055,7 +8056,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="63"/>
+      <c r="J76" s="64"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -8072,7 +8073,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="63"/>
+      <c r="J77" s="64"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -8089,7 +8090,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="63"/>
+      <c r="J78" s="64"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -8106,7 +8107,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="63"/>
+      <c r="J79" s="64"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -8123,7 +8124,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="63"/>
+      <c r="J80" s="64"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -8140,7 +8141,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="63"/>
+      <c r="J81" s="64"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -8157,7 +8158,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="63"/>
+      <c r="J82" s="64"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -8174,7 +8175,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="63"/>
+      <c r="J83" s="64"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -8191,7 +8192,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="63"/>
+      <c r="J84" s="64"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -8208,7 +8209,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="63"/>
+      <c r="J85" s="64"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -8225,7 +8226,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="63"/>
+      <c r="J86" s="64"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -8242,7 +8243,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="63"/>
+      <c r="J87" s="64"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -8259,7 +8260,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="63"/>
+      <c r="J88" s="64"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -8276,7 +8277,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="63"/>
+      <c r="J89" s="64"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8293,7 +8294,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="63"/>
+      <c r="J90" s="64"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8310,7 +8311,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="63"/>
+      <c r="J91" s="64"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8327,7 +8328,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="63"/>
+      <c r="J92" s="64"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8344,7 +8345,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="63"/>
+      <c r="J93" s="64"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8361,7 +8362,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="63"/>
+      <c r="J94" s="64"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8378,7 +8379,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="63"/>
+      <c r="J95" s="64"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8395,7 +8396,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="63"/>
+      <c r="J96" s="64"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8412,7 +8413,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="63"/>
+      <c r="J97" s="64"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8429,7 +8430,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="63"/>
+      <c r="J98" s="64"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8446,7 +8447,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="63"/>
+      <c r="J99" s="64"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8463,7 +8464,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="63"/>
+      <c r="J100" s="64"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8480,7 +8481,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="63"/>
+      <c r="J101" s="64"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8497,7 +8498,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="63"/>
+      <c r="J102" s="64"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8514,7 +8515,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="63"/>
+      <c r="J103" s="64"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8531,7 +8532,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="63"/>
+      <c r="J104" s="64"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8548,7 +8549,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="63"/>
+      <c r="J105" s="64"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8565,7 +8566,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="63"/>
+      <c r="J106" s="64"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8582,7 +8583,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="63"/>
+      <c r="J107" s="64"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8599,7 +8600,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="63"/>
+      <c r="J108" s="64"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8616,7 +8617,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="63"/>
+      <c r="J109" s="64"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8633,7 +8634,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="63"/>
+      <c r="J110" s="64"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8650,7 +8651,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="63"/>
+      <c r="J111" s="64"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8667,7 +8668,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="63"/>
+      <c r="J112" s="64"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8684,7 +8685,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="63"/>
+      <c r="J113" s="64"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -8701,7 +8702,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="63"/>
+      <c r="J114" s="64"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -8718,7 +8719,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="63"/>
+      <c r="J115" s="64"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -8735,7 +8736,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="63"/>
+      <c r="J116" s="64"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -8752,7 +8753,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="63"/>
+      <c r="J117" s="64"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -8769,7 +8770,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="63"/>
+      <c r="J118" s="64"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -8786,7 +8787,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="63"/>
+      <c r="J119" s="64"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -8803,7 +8804,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="63"/>
+      <c r="J120" s="64"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -8820,7 +8821,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="63"/>
+      <c r="J121" s="64"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -8837,7 +8838,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="63"/>
+      <c r="J122" s="64"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -8854,7 +8855,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="63"/>
+      <c r="J123" s="64"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -8871,7 +8872,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="63"/>
+      <c r="J124" s="64"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -8888,7 +8889,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="63"/>
+      <c r="J125" s="64"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -8905,7 +8906,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="63"/>
+      <c r="J126" s="64"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -8922,7 +8923,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="63"/>
+      <c r="J127" s="64"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -8939,7 +8940,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="63"/>
+      <c r="J128" s="64"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -8956,7 +8957,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="63"/>
+      <c r="J129" s="64"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -8973,7 +8974,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="63"/>
+      <c r="J130" s="64"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -8990,7 +8991,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="63"/>
+      <c r="J131" s="64"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -9007,7 +9008,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="63"/>
+      <c r="J132" s="64"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -9024,7 +9025,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="63"/>
+      <c r="J133" s="64"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -9041,7 +9042,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="63"/>
+      <c r="J134" s="64"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -9058,7 +9059,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="63"/>
+      <c r="J135" s="64"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -9075,7 +9076,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="63"/>
+      <c r="J136" s="64"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -9092,7 +9093,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="63"/>
+      <c r="J137" s="64"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -9109,7 +9110,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="63"/>
+      <c r="J138" s="64"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -9126,7 +9127,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="63"/>
+      <c r="J139" s="64"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -9143,7 +9144,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="63"/>
+      <c r="J140" s="64"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -9160,7 +9161,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="63"/>
+      <c r="J141" s="64"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -9177,7 +9178,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="63"/>
+      <c r="J142" s="64"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -9194,7 +9195,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="63"/>
+      <c r="J143" s="64"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -9211,7 +9212,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="63"/>
+      <c r="J144" s="64"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -9228,7 +9229,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="63"/>
+      <c r="J145" s="64"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -9245,7 +9246,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="63"/>
+      <c r="J146" s="64"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -9262,7 +9263,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="63"/>
+      <c r="J147" s="64"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -9279,7 +9280,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="63"/>
+      <c r="J148" s="64"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9296,7 +9297,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="63"/>
+      <c r="J149" s="64"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9313,7 +9314,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="63"/>
+      <c r="J150" s="64"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9330,7 +9331,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="63"/>
+      <c r="J151" s="64"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9347,7 +9348,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="63"/>
+      <c r="J152" s="64"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9364,7 +9365,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="63"/>
+      <c r="J153" s="64"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9381,7 +9382,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="63"/>
+      <c r="J154" s="64"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9398,7 +9399,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="63"/>
+      <c r="J155" s="64"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9415,7 +9416,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="63"/>
+      <c r="J156" s="64"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9432,7 +9433,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="63"/>
+      <c r="J157" s="64"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9449,7 +9450,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="63"/>
+      <c r="J158" s="64"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9466,7 +9467,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="63"/>
+      <c r="J159" s="64"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9483,7 +9484,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="63"/>
+      <c r="J160" s="64"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9500,7 +9501,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="63"/>
+      <c r="J161" s="64"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9517,7 +9518,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="63"/>
+      <c r="J162" s="64"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9534,7 +9535,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="63"/>
+      <c r="J163" s="64"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9551,7 +9552,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="63"/>
+      <c r="J164" s="64"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9568,7 +9569,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="63"/>
+      <c r="J165" s="64"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9585,7 +9586,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="63"/>
+      <c r="J166" s="64"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9602,7 +9603,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="63"/>
+      <c r="J167" s="64"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9619,7 +9620,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="63"/>
+      <c r="J168" s="64"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -9636,7 +9637,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="63"/>
+      <c r="J169" s="64"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -9653,7 +9654,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="63"/>
+      <c r="J170" s="64"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -9670,7 +9671,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="63"/>
+      <c r="J171" s="64"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -9687,7 +9688,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="63"/>
+      <c r="J172" s="64"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -9704,7 +9705,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="63"/>
+      <c r="J173" s="64"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -9721,7 +9722,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="63"/>
+      <c r="J174" s="64"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -9738,7 +9739,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="63"/>
+      <c r="J175" s="64"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -9755,7 +9756,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="63"/>
+      <c r="J176" s="64"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -9772,7 +9773,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="63"/>
+      <c r="J177" s="64"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -9789,7 +9790,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="63"/>
+      <c r="J178" s="64"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -9806,7 +9807,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="63"/>
+      <c r="J179" s="64"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -9823,7 +9824,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="63"/>
+      <c r="J180" s="64"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -9840,7 +9841,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="63"/>
+      <c r="J181" s="64"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -9857,7 +9858,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="63"/>
+      <c r="J182" s="64"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -9874,7 +9875,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="63"/>
+      <c r="J183" s="64"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -9891,7 +9892,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="63"/>
+      <c r="J184" s="64"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -9908,7 +9909,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="63"/>
+      <c r="J185" s="64"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -9925,7 +9926,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="63"/>
+      <c r="J186" s="64"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -9942,7 +9943,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="63"/>
+      <c r="J187" s="64"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -9959,7 +9960,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="63"/>
+      <c r="J188" s="64"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -10022,10 +10023,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O205"/>
+  <dimension ref="A1:O204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10069,14 +10070,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="52"/>
+      <c r="J1" s="53"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="53"/>
+      <c r="O1" s="54"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -10090,12 +10091,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="52"/>
+      <c r="J2" s="53"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -10107,7 +10108,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="56"/>
+      <c r="J3" s="57"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -10142,10 +10143,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="58" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="58"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -10181,12 +10182,12 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="61"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -10208,12 +10209,12 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="61"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
@@ -10233,7 +10234,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="63"/>
+      <c r="J7" s="64"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -10258,7 +10259,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="63"/>
+      <c r="J8" s="64"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -10285,7 +10286,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="63"/>
+      <c r="J9" s="64"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -10294,25 +10295,25 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="19"/>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>765</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="33" t="s">
         <v>766</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="34" t="s">
         <v>767</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="63"/>
+      <c r="J10" s="64"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -10322,22 +10323,22 @@
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="30"/>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="36" t="s">
         <v>656</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="37" t="s">
         <v>768</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="38" t="s">
         <v>769</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="63"/>
+      <c r="J11" s="64"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10364,7 +10365,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="63"/>
+      <c r="J12" s="64"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -10391,7 +10392,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="63"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -10403,20 +10404,20 @@
       <c r="B14" s="30" t="s">
         <v>776</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="39" t="s">
         <v>777</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="63"/>
+      <c r="J14" s="64"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10424,28 +10425,28 @@
       <c r="O14" s="22"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="41" t="s">
         <v>778</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="42" t="s">
         <v>779</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="44" t="s">
         <v>707</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="44" t="s">
         <v>780</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="45" t="s">
         <v>781</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="63"/>
+      <c r="J15" s="64"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10453,26 +10454,26 @@
       <c r="O15" s="22"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A16" s="42"/>
-      <c r="B16" s="38" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="42" t="s">
         <v>782</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="44" t="s">
         <v>483</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="44" t="s">
         <v>783</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="45" t="s">
         <v>784</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="63"/>
+      <c r="J16" s="64"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -10480,26 +10481,26 @@
       <c r="O16" s="22"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A17" s="42"/>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="42" t="s">
         <v>785</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="48" t="s">
         <v>471</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="48" t="s">
         <v>786</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="49" t="s">
         <v>787</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="63"/>
+      <c r="J17" s="64"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10507,24 +10508,24 @@
       <c r="O17" s="22"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="42"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="43" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="48" t="s">
         <v>465</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="48" t="s">
         <v>788</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="49" t="s">
         <v>789</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="63"/>
+      <c r="J18" s="64"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10532,24 +10533,24 @@
       <c r="O18" s="22"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="42"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="43" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="48" t="s">
         <v>790</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="44" t="s">
         <v>791</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="63"/>
+      <c r="J19" s="64"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10557,26 +10558,26 @@
       <c r="O19" s="22"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="42"/>
-      <c r="B20" s="38" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="42" t="s">
         <v>792</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="48" t="s">
         <v>786</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="49" t="s">
         <v>793</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="63"/>
+      <c r="J20" s="64"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10584,26 +10585,26 @@
       <c r="O20" s="22"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="42"/>
-      <c r="B21" s="38" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="42" t="s">
         <v>794</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="44" t="s">
         <v>493</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="44" t="s">
         <v>795</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="45" t="s">
         <v>796</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="63"/>
+      <c r="J21" s="64"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -10611,26 +10612,26 @@
       <c r="O21" s="22"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="42"/>
-      <c r="B22" s="38" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="42" t="s">
         <v>797</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="45" t="s">
         <v>796</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="45" t="s">
         <v>798</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="63"/>
+      <c r="J22" s="64"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10648,14 +10649,14 @@
       <c r="D23" s="27" t="s">
         <v>574</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="44" t="s">
         <v>780</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="63"/>
+      <c r="J23" s="64"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10673,7 +10674,7 @@
       <c r="D24" s="27" t="s">
         <v>707</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="44" t="s">
         <v>780</v>
       </c>
       <c r="F24" s="28" t="s">
@@ -10682,7 +10683,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="63"/>
+      <c r="J24" s="64"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10709,7 +10710,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="63"/>
+      <c r="J25" s="64"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -10736,7 +10737,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="63"/>
+      <c r="J26" s="64"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -10761,7 +10762,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="63"/>
+      <c r="J27" s="64"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -10786,7 +10787,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="63"/>
+      <c r="J28" s="64"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -10811,7 +10812,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="63"/>
+      <c r="J29" s="64"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -10838,7 +10839,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="63"/>
+      <c r="J30" s="64"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -10865,7 +10866,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="63"/>
+      <c r="J31" s="64"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -10890,7 +10891,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="63"/>
+      <c r="J32" s="64"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -10915,7 +10916,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="63"/>
+      <c r="J33" s="64"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -10924,25 +10925,25 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="42" t="s">
         <v>782</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="44" t="s">
         <v>483</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="44" t="s">
         <v>817</v>
       </c>
-      <c r="F34" s="41" t="s">
+      <c r="F34" s="45" t="s">
         <v>784</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="63"/>
+      <c r="J34" s="64"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -10951,25 +10952,25 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="42" t="s">
         <v>785</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="48" t="s">
         <v>471</v>
       </c>
-      <c r="E35" s="44" t="s">
+      <c r="E35" s="48" t="s">
         <v>818</v>
       </c>
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="49" t="s">
         <v>787</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="63"/>
+      <c r="J35" s="64"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -10978,23 +10979,23 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="43" t="s">
+      <c r="B36" s="42"/>
+      <c r="C36" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="48" t="s">
         <v>465</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="48" t="s">
         <v>788</v>
       </c>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="49" t="s">
         <v>789</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="63"/>
+      <c r="J36" s="64"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -11003,23 +11004,23 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="43" t="s">
+      <c r="B37" s="42"/>
+      <c r="C37" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="48" t="s">
         <v>819</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="44" t="s">
         <v>820</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="63"/>
+      <c r="J37" s="64"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -11028,25 +11029,25 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="42" t="s">
         <v>792</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="48" t="s">
         <v>818</v>
       </c>
-      <c r="F38" s="45" t="s">
+      <c r="F38" s="49" t="s">
         <v>793</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="63"/>
+      <c r="J38" s="64"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -11055,25 +11056,25 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="42" t="s">
         <v>794</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="D39" s="44" t="s">
         <v>493</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="44" t="s">
         <v>821</v>
       </c>
-      <c r="F39" s="41" t="s">
+      <c r="F39" s="45" t="s">
         <v>822</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="63"/>
+      <c r="J39" s="64"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -11082,25 +11083,25 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="42" t="s">
         <v>797</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="45" t="s">
         <v>822</v>
       </c>
-      <c r="F40" s="41" t="s">
+      <c r="F40" s="45" t="s">
         <v>823</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="63"/>
+      <c r="J40" s="64"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -11118,7 +11119,7 @@
         <v>30</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>600</v>
+        <v>363</v>
       </c>
       <c r="E41" s="27" t="s">
         <v>826</v>
@@ -11127,7 +11128,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="63"/>
+      <c r="J41" s="64"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -11152,7 +11153,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="63"/>
+      <c r="J42" s="64"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -11177,7 +11178,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="63"/>
+      <c r="J43" s="64"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -11200,7 +11201,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="63"/>
+      <c r="J44" s="64"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -11227,7 +11228,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="63"/>
+      <c r="J45" s="64"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -11252,7 +11253,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="63"/>
+      <c r="J46" s="64"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -11277,7 +11278,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="63"/>
+      <c r="J47" s="64"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -11302,7 +11303,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="63"/>
+      <c r="J48" s="64"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -11311,23 +11312,23 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="31" t="s">
         <v>833</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="E49" s="49" t="s">
+      <c r="E49" s="33" t="s">
         <v>806</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="63"/>
+      <c r="J49" s="64"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -11336,23 +11337,23 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="31" t="s">
         <v>839</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="E50" s="49" t="s">
+      <c r="E50" s="33" t="s">
         <v>835</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="63"/>
+      <c r="J50" s="64"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -11361,23 +11362,23 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="31" t="s">
         <v>840</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C51" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D51" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="E51" s="49" t="s">
+      <c r="E51" s="33" t="s">
         <v>841</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="63"/>
+      <c r="J51" s="64"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -11386,23 +11387,23 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="31" t="s">
         <v>836</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="E52" s="49" t="s">
+      <c r="E52" s="33" t="s">
         <v>837</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="63"/>
+      <c r="J52" s="64"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -11411,23 +11412,23 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="31" t="s">
         <v>838</v>
       </c>
-      <c r="C53" s="48" t="s">
+      <c r="C53" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="33" t="s">
         <v>806</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="63"/>
+      <c r="J53" s="64"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -11436,23 +11437,23 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="31" t="s">
         <v>833</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="E54" s="49" t="s">
+      <c r="E54" s="33" t="s">
         <v>806</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="63"/>
+      <c r="J54" s="64"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -11461,23 +11462,23 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="31" t="s">
         <v>842</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="E55" s="49" t="s">
+      <c r="E55" s="33" t="s">
         <v>841</v>
       </c>
       <c r="F55" s="28"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="63"/>
+      <c r="J55" s="64"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -11486,23 +11487,23 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="31" t="s">
         <v>843</v>
       </c>
-      <c r="C56" s="48" t="s">
+      <c r="C56" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="E56" s="49" t="s">
+      <c r="E56" s="33" t="s">
         <v>844</v>
       </c>
       <c r="F56" s="28"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="63"/>
+      <c r="J56" s="64"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -11511,23 +11512,23 @@
     </row>
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="31" t="s">
         <v>836</v>
       </c>
-      <c r="C57" s="48" t="s">
+      <c r="C57" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="E57" s="49" t="s">
+      <c r="E57" s="33" t="s">
         <v>837</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="63"/>
+      <c r="J57" s="64"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -11536,23 +11537,23 @@
     </row>
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
-      <c r="B58" s="47" t="s">
+      <c r="B58" s="31" t="s">
         <v>838</v>
       </c>
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="49" t="s">
+      <c r="D58" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="E58" s="49" t="s">
+      <c r="E58" s="33" t="s">
         <v>806</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="63"/>
+      <c r="J58" s="64"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -11561,19 +11562,19 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="48" t="s">
+      <c r="B59" s="31"/>
+      <c r="C59" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="49" t="s">
+      <c r="D59" s="33" t="s">
         <v>640</v>
       </c>
-      <c r="E59" s="49"/>
+      <c r="E59" s="33"/>
       <c r="F59" s="28"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="63"/>
+      <c r="J59" s="64"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -11591,7 +11592,7 @@
         <v>30</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E60" s="27" t="s">
         <v>847</v>
@@ -11600,7 +11601,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="63"/>
+      <c r="J60" s="64"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -11609,23 +11610,23 @@
     </row>
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="19"/>
-      <c r="B61" s="30" t="s">
-        <v>848</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>847</v>
-      </c>
-      <c r="F61" s="28"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>768</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>769</v>
+      </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="63"/>
+      <c r="J61" s="64"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -11635,22 +11636,14 @@
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="19"/>
       <c r="B62" s="30"/>
-      <c r="C62" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>768</v>
-      </c>
-      <c r="F62" s="34" t="s">
-        <v>769</v>
-      </c>
+      <c r="C62" s="26"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="52"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="63"/>
+      <c r="J62" s="64"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -11662,12 +11655,12 @@
       <c r="B63" s="30"/>
       <c r="C63" s="26"/>
       <c r="D63" s="27"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="52"/>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="63"/>
+      <c r="J63" s="64"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -11679,12 +11672,12 @@
       <c r="B64" s="30"/>
       <c r="C64" s="26"/>
       <c r="D64" s="27"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="52"/>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="63"/>
+      <c r="J64" s="64"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -11696,12 +11689,12 @@
       <c r="B65" s="30"/>
       <c r="C65" s="26"/>
       <c r="D65" s="27"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="52"/>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="63"/>
+      <c r="J65" s="64"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -11713,12 +11706,12 @@
       <c r="B66" s="30"/>
       <c r="C66" s="26"/>
       <c r="D66" s="27"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="52"/>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="63"/>
+      <c r="J66" s="64"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -11730,12 +11723,12 @@
       <c r="B67" s="30"/>
       <c r="C67" s="26"/>
       <c r="D67" s="27"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="51"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="28"/>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="63"/>
+      <c r="J67" s="64"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -11752,7 +11745,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="63"/>
+      <c r="J68" s="64"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -11769,7 +11762,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="63"/>
+      <c r="J69" s="64"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -11786,7 +11779,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="63"/>
+      <c r="J70" s="64"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -11795,15 +11788,15 @@
     </row>
     <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="19"/>
-      <c r="B71" s="30"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="26"/>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
-      <c r="F71" s="28"/>
+      <c r="F71" s="27"/>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="63"/>
+      <c r="J71" s="64"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -11820,7 +11813,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="63"/>
+      <c r="J72" s="64"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -11837,7 +11830,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="63"/>
+      <c r="J73" s="64"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -11854,7 +11847,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="63"/>
+      <c r="J74" s="64"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -11871,7 +11864,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="63"/>
+      <c r="J75" s="64"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -11888,7 +11881,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="63"/>
+      <c r="J76" s="64"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -11905,7 +11898,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="63"/>
+      <c r="J77" s="64"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -11922,7 +11915,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="63"/>
+      <c r="J78" s="64"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -11939,7 +11932,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="63"/>
+      <c r="J79" s="64"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -11956,7 +11949,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="63"/>
+      <c r="J80" s="64"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -11973,7 +11966,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="63"/>
+      <c r="J81" s="64"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -11990,7 +11983,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="63"/>
+      <c r="J82" s="64"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -12007,7 +12000,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="63"/>
+      <c r="J83" s="64"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -12024,7 +12017,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="63"/>
+      <c r="J84" s="64"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -12041,7 +12034,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="63"/>
+      <c r="J85" s="64"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -12058,7 +12051,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="63"/>
+      <c r="J86" s="64"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -12075,7 +12068,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="63"/>
+      <c r="J87" s="64"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -12092,7 +12085,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="63"/>
+      <c r="J88" s="64"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -12109,7 +12102,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="63"/>
+      <c r="J89" s="64"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -12126,7 +12119,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="63"/>
+      <c r="J90" s="64"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -12143,7 +12136,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="63"/>
+      <c r="J91" s="64"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -12160,7 +12153,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="63"/>
+      <c r="J92" s="64"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -12177,7 +12170,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="63"/>
+      <c r="J93" s="64"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -12194,7 +12187,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="63"/>
+      <c r="J94" s="64"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -12211,7 +12204,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="63"/>
+      <c r="J95" s="64"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -12228,7 +12221,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="63"/>
+      <c r="J96" s="64"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -12245,7 +12238,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="63"/>
+      <c r="J97" s="64"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -12262,7 +12255,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="63"/>
+      <c r="J98" s="64"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -12279,7 +12272,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="63"/>
+      <c r="J99" s="64"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -12296,7 +12289,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="63"/>
+      <c r="J100" s="64"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -12313,7 +12306,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="63"/>
+      <c r="J101" s="64"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -12330,7 +12323,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="63"/>
+      <c r="J102" s="64"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -12347,7 +12340,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="63"/>
+      <c r="J103" s="64"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -12364,7 +12357,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="63"/>
+      <c r="J104" s="64"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -12381,7 +12374,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="63"/>
+      <c r="J105" s="64"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -12398,7 +12391,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="63"/>
+      <c r="J106" s="64"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -12415,7 +12408,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="63"/>
+      <c r="J107" s="64"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -12432,7 +12425,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="63"/>
+      <c r="J108" s="64"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -12449,7 +12442,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="63"/>
+      <c r="J109" s="64"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -12466,7 +12459,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="63"/>
+      <c r="J110" s="64"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -12483,7 +12476,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="63"/>
+      <c r="J111" s="64"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -12500,7 +12493,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="63"/>
+      <c r="J112" s="64"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -12517,7 +12510,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="63"/>
+      <c r="J113" s="64"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -12534,7 +12527,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="63"/>
+      <c r="J114" s="64"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -12551,7 +12544,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="63"/>
+      <c r="J115" s="64"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -12568,7 +12561,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="63"/>
+      <c r="J116" s="64"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -12585,7 +12578,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="63"/>
+      <c r="J117" s="64"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -12602,7 +12595,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="63"/>
+      <c r="J118" s="64"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -12619,7 +12612,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="63"/>
+      <c r="J119" s="64"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -12636,7 +12629,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="63"/>
+      <c r="J120" s="64"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -12653,7 +12646,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="63"/>
+      <c r="J121" s="64"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -12670,7 +12663,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="63"/>
+      <c r="J122" s="64"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -12687,7 +12680,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="63"/>
+      <c r="J123" s="64"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -12704,7 +12697,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="63"/>
+      <c r="J124" s="64"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -12721,7 +12714,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="63"/>
+      <c r="J125" s="64"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -12738,7 +12731,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="63"/>
+      <c r="J126" s="64"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -12755,7 +12748,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="63"/>
+      <c r="J127" s="64"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -12772,7 +12765,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="63"/>
+      <c r="J128" s="64"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -12789,7 +12782,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="63"/>
+      <c r="J129" s="64"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -12806,7 +12799,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="63"/>
+      <c r="J130" s="64"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -12823,7 +12816,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="63"/>
+      <c r="J131" s="64"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -12840,7 +12833,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="63"/>
+      <c r="J132" s="64"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -12857,7 +12850,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="63"/>
+      <c r="J133" s="64"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -12874,7 +12867,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="63"/>
+      <c r="J134" s="64"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -12891,7 +12884,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="63"/>
+      <c r="J135" s="64"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -12908,7 +12901,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="63"/>
+      <c r="J136" s="64"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -12925,7 +12918,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="63"/>
+      <c r="J137" s="64"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -12942,7 +12935,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="63"/>
+      <c r="J138" s="64"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -12959,7 +12952,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="63"/>
+      <c r="J139" s="64"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -12976,7 +12969,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="63"/>
+      <c r="J140" s="64"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -12993,7 +12986,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="63"/>
+      <c r="J141" s="64"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -13010,7 +13003,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="63"/>
+      <c r="J142" s="64"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -13027,7 +13020,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="63"/>
+      <c r="J143" s="64"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -13044,7 +13037,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="63"/>
+      <c r="J144" s="64"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -13061,7 +13054,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="63"/>
+      <c r="J145" s="64"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -13078,7 +13071,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="63"/>
+      <c r="J146" s="64"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -13095,7 +13088,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="63"/>
+      <c r="J147" s="64"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -13112,7 +13105,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="63"/>
+      <c r="J148" s="64"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -13129,7 +13122,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="63"/>
+      <c r="J149" s="64"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -13146,7 +13139,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="63"/>
+      <c r="J150" s="64"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -13163,7 +13156,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="63"/>
+      <c r="J151" s="64"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -13180,7 +13173,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="63"/>
+      <c r="J152" s="64"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -13197,7 +13190,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="63"/>
+      <c r="J153" s="64"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -13214,7 +13207,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="63"/>
+      <c r="J154" s="64"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -13231,7 +13224,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="63"/>
+      <c r="J155" s="64"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -13248,7 +13241,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="63"/>
+      <c r="J156" s="64"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -13265,7 +13258,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="63"/>
+      <c r="J157" s="64"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -13282,7 +13275,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="63"/>
+      <c r="J158" s="64"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -13299,7 +13292,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="63"/>
+      <c r="J159" s="64"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -13316,7 +13309,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="63"/>
+      <c r="J160" s="64"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -13333,7 +13326,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="63"/>
+      <c r="J161" s="64"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -13350,7 +13343,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="63"/>
+      <c r="J162" s="64"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -13367,7 +13360,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="63"/>
+      <c r="J163" s="64"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -13384,7 +13377,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="63"/>
+      <c r="J164" s="64"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -13401,7 +13394,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="63"/>
+      <c r="J165" s="64"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -13418,7 +13411,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="63"/>
+      <c r="J166" s="64"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -13435,7 +13428,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="63"/>
+      <c r="J167" s="64"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -13452,7 +13445,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="63"/>
+      <c r="J168" s="64"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -13469,7 +13462,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="63"/>
+      <c r="J169" s="64"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -13486,7 +13479,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="63"/>
+      <c r="J170" s="64"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -13503,7 +13496,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="63"/>
+      <c r="J171" s="64"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -13520,7 +13513,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="63"/>
+      <c r="J172" s="64"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -13537,7 +13530,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="63"/>
+      <c r="J173" s="64"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -13554,7 +13547,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="63"/>
+      <c r="J174" s="64"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -13571,7 +13564,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="63"/>
+      <c r="J175" s="64"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -13588,7 +13581,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="63"/>
+      <c r="J176" s="64"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -13605,7 +13598,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="63"/>
+      <c r="J177" s="64"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -13622,7 +13615,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="63"/>
+      <c r="J178" s="64"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -13639,7 +13632,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="63"/>
+      <c r="J179" s="64"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -13656,7 +13649,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="63"/>
+      <c r="J180" s="64"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -13673,7 +13666,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="63"/>
+      <c r="J181" s="64"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -13690,7 +13683,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="63"/>
+      <c r="J182" s="64"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -13707,7 +13700,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="63"/>
+      <c r="J183" s="64"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -13724,7 +13717,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="63"/>
+      <c r="J184" s="64"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -13741,7 +13734,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="63"/>
+      <c r="J185" s="64"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -13758,7 +13751,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="63"/>
+      <c r="J186" s="64"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -13775,7 +13768,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="63"/>
+      <c r="J187" s="64"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -13792,7 +13785,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="63"/>
+      <c r="J188" s="64"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -13809,7 +13802,7 @@
       <c r="G189" s="27"/>
       <c r="H189" s="27"/>
       <c r="I189" s="27"/>
-      <c r="J189" s="63"/>
+      <c r="J189" s="64"/>
       <c r="K189" s="22"/>
       <c r="L189" s="23"/>
       <c r="M189" s="21"/>
@@ -13826,7 +13819,7 @@
       <c r="G190" s="27"/>
       <c r="H190" s="27"/>
       <c r="I190" s="27"/>
-      <c r="J190" s="63"/>
+      <c r="J190" s="64"/>
       <c r="K190" s="22"/>
       <c r="L190" s="23"/>
       <c r="M190" s="21"/>
@@ -13843,7 +13836,7 @@
       <c r="G191" s="27"/>
       <c r="H191" s="27"/>
       <c r="I191" s="27"/>
-      <c r="J191" s="63"/>
+      <c r="J191" s="64"/>
       <c r="K191" s="22"/>
       <c r="L191" s="23"/>
       <c r="M191" s="21"/>
@@ -13860,7 +13853,7 @@
       <c r="G192" s="27"/>
       <c r="H192" s="27"/>
       <c r="I192" s="27"/>
-      <c r="J192" s="63"/>
+      <c r="J192" s="64"/>
       <c r="K192" s="22"/>
       <c r="L192" s="23"/>
       <c r="M192" s="21"/>
@@ -13877,7 +13870,7 @@
       <c r="G193" s="27"/>
       <c r="H193" s="27"/>
       <c r="I193" s="27"/>
-      <c r="J193" s="63"/>
+      <c r="J193" s="64"/>
       <c r="K193" s="22"/>
       <c r="L193" s="23"/>
       <c r="M193" s="21"/>
@@ -13894,7 +13887,7 @@
       <c r="G194" s="27"/>
       <c r="H194" s="27"/>
       <c r="I194" s="27"/>
-      <c r="J194" s="63"/>
+      <c r="J194" s="64"/>
       <c r="K194" s="22"/>
       <c r="L194" s="23"/>
       <c r="M194" s="21"/>
@@ -13911,7 +13904,7 @@
       <c r="G195" s="27"/>
       <c r="H195" s="27"/>
       <c r="I195" s="27"/>
-      <c r="J195" s="63"/>
+      <c r="J195" s="64"/>
       <c r="K195" s="22"/>
       <c r="L195" s="23"/>
       <c r="M195" s="21"/>
@@ -13928,7 +13921,7 @@
       <c r="G196" s="27"/>
       <c r="H196" s="27"/>
       <c r="I196" s="27"/>
-      <c r="J196" s="63"/>
+      <c r="J196" s="64"/>
       <c r="K196" s="22"/>
       <c r="L196" s="23"/>
       <c r="M196" s="21"/>
@@ -13945,7 +13938,7 @@
       <c r="G197" s="27"/>
       <c r="H197" s="27"/>
       <c r="I197" s="27"/>
-      <c r="J197" s="63"/>
+      <c r="J197" s="64"/>
       <c r="K197" s="22"/>
       <c r="L197" s="23"/>
       <c r="M197" s="21"/>
@@ -13962,7 +13955,7 @@
       <c r="G198" s="27"/>
       <c r="H198" s="27"/>
       <c r="I198" s="27"/>
-      <c r="J198" s="63"/>
+      <c r="J198" s="64"/>
       <c r="K198" s="22"/>
       <c r="L198" s="23"/>
       <c r="M198" s="21"/>
@@ -13979,7 +13972,7 @@
       <c r="G199" s="27"/>
       <c r="H199" s="27"/>
       <c r="I199" s="27"/>
-      <c r="J199" s="63"/>
+      <c r="J199" s="64"/>
       <c r="K199" s="22"/>
       <c r="L199" s="23"/>
       <c r="M199" s="21"/>
@@ -13996,7 +13989,7 @@
       <c r="G200" s="27"/>
       <c r="H200" s="27"/>
       <c r="I200" s="27"/>
-      <c r="J200" s="63"/>
+      <c r="J200" s="64"/>
       <c r="K200" s="22"/>
       <c r="L200" s="23"/>
       <c r="M200" s="21"/>
@@ -14013,7 +14006,7 @@
       <c r="G201" s="27"/>
       <c r="H201" s="27"/>
       <c r="I201" s="27"/>
-      <c r="J201" s="63"/>
+      <c r="J201" s="64"/>
       <c r="K201" s="22"/>
       <c r="L201" s="23"/>
       <c r="M201" s="21"/>
@@ -14030,7 +14023,7 @@
       <c r="G202" s="27"/>
       <c r="H202" s="27"/>
       <c r="I202" s="27"/>
-      <c r="J202" s="63"/>
+      <c r="J202" s="64"/>
       <c r="K202" s="22"/>
       <c r="L202" s="23"/>
       <c r="M202" s="21"/>
@@ -14047,32 +14040,15 @@
       <c r="G203" s="27"/>
       <c r="H203" s="27"/>
       <c r="I203" s="27"/>
-      <c r="J203" s="63"/>
+      <c r="J203" s="64"/>
       <c r="K203" s="22"/>
       <c r="L203" s="23"/>
       <c r="M203" s="21"/>
       <c r="N203" s="23"/>
       <c r="O203" s="22"/>
     </row>
-    <row r="204" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A204" s="19"/>
-      <c r="B204" s="20"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="27"/>
-      <c r="E204" s="27"/>
+    <row r="204" spans="6:6">
       <c r="F204" s="27"/>
-      <c r="G204" s="27"/>
-      <c r="H204" s="27"/>
-      <c r="I204" s="27"/>
-      <c r="J204" s="63"/>
-      <c r="K204" s="22"/>
-      <c r="L204" s="23"/>
-      <c r="M204" s="21"/>
-      <c r="N204" s="23"/>
-      <c r="O204" s="22"/>
-    </row>
-    <row r="205" spans="6:6">
-      <c r="F205" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14081,18 +14057,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N105:N204">
+  <conditionalFormatting sqref="N104:N203">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N105,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N104,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N105,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N104,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N105,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N104,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N104">
+  <conditionalFormatting sqref="N1 N3:N103">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -14104,10 +14080,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C20 C21 C22 C23 C24 C25 C26 C29 C30 C31 C34 C35 C38 C39 C40 C41 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C62 C18:C19 C27:C28 C32:C33 C36:C37 C42:C45 C46:C47 C60:C61 C63:C67 C68:C71 C72:C204">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C20 C21 C22 C23 C24 C25 C26 C29 C30 C31 C34 C35 C38 C39 C40 C41 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C18:C19 C27:C28 C32:C33 C36:C37 C42:C45 C46:C47 C62:C66 C67:C70 C71:C203">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D20 D21 D22 D23 D24 D25 D26 D29 D30 D31 D34 D35 D38 D39 D40 D41 D45 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D62 D18:D19 D27:D28 D32:D33 D36:D37 D42:D44 D46:D47 D60:D61 D63:D67 D68:D71 D72:D204">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D20 D21 D22 D23 D24 D25 D26 D29 D30 D31 D34 D35 D38 D39 D40 D41 D45 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D18:D19 D27:D28 D32:D33 D36:D37 D42:D44 D46:D47 D62:D66 D67:D70 D71:D203">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-ProductRegister.xlsx
+++ b/tests/artifact/script/UI-ProductRegister.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="850">
   <si>
     <t>target</t>
   </si>
@@ -2360,6 +2360,9 @@
     <t>${heading.productRegister}</t>
   </si>
   <si>
+    <t>(Select command to be used)</t>
+  </si>
+  <si>
     <t>Type the product in select Field</t>
   </si>
   <si>
@@ -2565,6 +2568,9 @@
   </si>
   <si>
     <t xml:space="preserve">click on Filter Icon </t>
+  </si>
+  <si>
+    <t>Version upgrade needs to be done #392</t>
   </si>
   <si>
     <t>Click on Rejection note check box in filter</t>
@@ -2619,7 +2625,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2674,6 +2680,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3250,14 +3263,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3266,119 +3276,122 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3480,19 +3493,23 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3504,8 +3521,8 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3514,43 +3531,43 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -3584,7 +3601,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3592,15 +3609,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3615,11 +3632,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3648,7 +3665,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6737,14 +6754,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="53"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="54"/>
+      <c r="O1" s="55"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -6758,12 +6775,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="53"/>
+      <c r="J2" s="54"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -6775,7 +6792,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="57"/>
+      <c r="J3" s="58"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -6810,10 +6827,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="59" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -6828,84 +6845,84 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="37" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="67" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="62"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="70"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="71"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="62"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="72"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="62"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="75"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="62"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
@@ -6917,7 +6934,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="64"/>
+      <c r="J9" s="65"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -6934,7 +6951,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="64"/>
+      <c r="J10" s="65"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -6951,7 +6968,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="64"/>
+      <c r="J11" s="65"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -6968,7 +6985,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="64"/>
+      <c r="J12" s="65"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -6985,7 +7002,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="64"/>
+      <c r="J13" s="65"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -7002,7 +7019,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="64"/>
+      <c r="J14" s="65"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -7019,7 +7036,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="64"/>
+      <c r="J15" s="65"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -7028,7 +7045,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="76"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -7036,7 +7053,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="64"/>
+      <c r="J16" s="65"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -7053,7 +7070,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="64"/>
+      <c r="J17" s="65"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -7070,7 +7087,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="64"/>
+      <c r="J18" s="65"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -7087,7 +7104,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="64"/>
+      <c r="J19" s="65"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -7104,7 +7121,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="64"/>
+      <c r="J20" s="65"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -7121,7 +7138,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="64"/>
+      <c r="J21" s="65"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -7138,7 +7155,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="64"/>
+      <c r="J22" s="65"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -7155,7 +7172,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="64"/>
+      <c r="J23" s="65"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -7172,7 +7189,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="64"/>
+      <c r="J24" s="65"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -7189,7 +7206,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="64"/>
+      <c r="J25" s="65"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -7206,7 +7223,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="64"/>
+      <c r="J26" s="65"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -7223,7 +7240,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="64"/>
+      <c r="J27" s="65"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -7240,7 +7257,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="64"/>
+      <c r="J28" s="65"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -7257,7 +7274,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="64"/>
+      <c r="J29" s="65"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -7274,7 +7291,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="64"/>
+      <c r="J30" s="65"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -7291,7 +7308,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="64"/>
+      <c r="J31" s="65"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7308,7 +7325,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="64"/>
+      <c r="J32" s="65"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7325,7 +7342,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="64"/>
+      <c r="J33" s="65"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7342,7 +7359,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="64"/>
+      <c r="J34" s="65"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7359,7 +7376,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="64"/>
+      <c r="J35" s="65"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7376,7 +7393,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="64"/>
+      <c r="J36" s="65"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7393,7 +7410,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="64"/>
+      <c r="J37" s="65"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7410,7 +7427,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="64"/>
+      <c r="J38" s="65"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7427,7 +7444,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="64"/>
+      <c r="J39" s="65"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7444,7 +7461,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="64"/>
+      <c r="J40" s="65"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7461,7 +7478,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="64"/>
+      <c r="J41" s="65"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7478,7 +7495,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="64"/>
+      <c r="J42" s="65"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7495,7 +7512,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="64"/>
+      <c r="J43" s="65"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7512,7 +7529,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="64"/>
+      <c r="J44" s="65"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7529,7 +7546,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="64"/>
+      <c r="J45" s="65"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7546,7 +7563,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="64"/>
+      <c r="J46" s="65"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7563,7 +7580,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="64"/>
+      <c r="J47" s="65"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7580,7 +7597,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="64"/>
+      <c r="J48" s="65"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7597,7 +7614,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="64"/>
+      <c r="J49" s="65"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7614,7 +7631,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="64"/>
+      <c r="J50" s="65"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7631,7 +7648,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="64"/>
+      <c r="J51" s="65"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7648,7 +7665,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="64"/>
+      <c r="J52" s="65"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7665,7 +7682,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="64"/>
+      <c r="J53" s="65"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7682,7 +7699,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="64"/>
+      <c r="J54" s="65"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -7699,7 +7716,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="64"/>
+      <c r="J55" s="65"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -7716,7 +7733,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="64"/>
+      <c r="J56" s="65"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -7733,7 +7750,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="64"/>
+      <c r="J57" s="65"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -7750,7 +7767,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="64"/>
+      <c r="J58" s="65"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -7767,7 +7784,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="64"/>
+      <c r="J59" s="65"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -7784,7 +7801,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="64"/>
+      <c r="J60" s="65"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -7801,7 +7818,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="64"/>
+      <c r="J61" s="65"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -7818,7 +7835,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="64"/>
+      <c r="J62" s="65"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -7835,7 +7852,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="64"/>
+      <c r="J63" s="65"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -7852,7 +7869,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="64"/>
+      <c r="J64" s="65"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -7869,7 +7886,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="64"/>
+      <c r="J65" s="65"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -7886,7 +7903,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="64"/>
+      <c r="J66" s="65"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -7903,7 +7920,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="64"/>
+      <c r="J67" s="65"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -7920,7 +7937,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="64"/>
+      <c r="J68" s="65"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -7937,7 +7954,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="64"/>
+      <c r="J69" s="65"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -7954,7 +7971,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="64"/>
+      <c r="J70" s="65"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -7971,7 +7988,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="64"/>
+      <c r="J71" s="65"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -7988,7 +8005,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="64"/>
+      <c r="J72" s="65"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -8005,7 +8022,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="64"/>
+      <c r="J73" s="65"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -8022,7 +8039,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="64"/>
+      <c r="J74" s="65"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -8039,7 +8056,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="64"/>
+      <c r="J75" s="65"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -8056,7 +8073,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="64"/>
+      <c r="J76" s="65"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -8073,7 +8090,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="64"/>
+      <c r="J77" s="65"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -8090,7 +8107,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="64"/>
+      <c r="J78" s="65"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -8107,7 +8124,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="64"/>
+      <c r="J79" s="65"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -8124,7 +8141,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="64"/>
+      <c r="J80" s="65"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -8141,7 +8158,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="64"/>
+      <c r="J81" s="65"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -8158,7 +8175,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="64"/>
+      <c r="J82" s="65"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -8175,7 +8192,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="64"/>
+      <c r="J83" s="65"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -8192,7 +8209,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="64"/>
+      <c r="J84" s="65"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -8209,7 +8226,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="64"/>
+      <c r="J85" s="65"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -8226,7 +8243,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="64"/>
+      <c r="J86" s="65"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -8243,7 +8260,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="64"/>
+      <c r="J87" s="65"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -8260,7 +8277,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="64"/>
+      <c r="J88" s="65"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -8277,7 +8294,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="64"/>
+      <c r="J89" s="65"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8294,7 +8311,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="64"/>
+      <c r="J90" s="65"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8311,7 +8328,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="64"/>
+      <c r="J91" s="65"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8328,7 +8345,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="64"/>
+      <c r="J92" s="65"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8345,7 +8362,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="64"/>
+      <c r="J93" s="65"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8362,7 +8379,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="64"/>
+      <c r="J94" s="65"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8379,7 +8396,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="64"/>
+      <c r="J95" s="65"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8396,7 +8413,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="64"/>
+      <c r="J96" s="65"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8413,7 +8430,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="64"/>
+      <c r="J97" s="65"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8430,7 +8447,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="64"/>
+      <c r="J98" s="65"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8447,7 +8464,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="64"/>
+      <c r="J99" s="65"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8464,7 +8481,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="64"/>
+      <c r="J100" s="65"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8481,7 +8498,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="64"/>
+      <c r="J101" s="65"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8498,7 +8515,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="64"/>
+      <c r="J102" s="65"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8515,7 +8532,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="64"/>
+      <c r="J103" s="65"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8532,7 +8549,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="64"/>
+      <c r="J104" s="65"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8549,7 +8566,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="64"/>
+      <c r="J105" s="65"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8566,7 +8583,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="64"/>
+      <c r="J106" s="65"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8583,7 +8600,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="64"/>
+      <c r="J107" s="65"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8600,7 +8617,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="64"/>
+      <c r="J108" s="65"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8617,7 +8634,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="64"/>
+      <c r="J109" s="65"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8634,7 +8651,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="64"/>
+      <c r="J110" s="65"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8651,7 +8668,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="64"/>
+      <c r="J111" s="65"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8668,7 +8685,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="64"/>
+      <c r="J112" s="65"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8685,7 +8702,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="64"/>
+      <c r="J113" s="65"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -8702,7 +8719,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="64"/>
+      <c r="J114" s="65"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -8719,7 +8736,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="64"/>
+      <c r="J115" s="65"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -8736,7 +8753,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="64"/>
+      <c r="J116" s="65"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -8753,7 +8770,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="64"/>
+      <c r="J117" s="65"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -8770,7 +8787,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="64"/>
+      <c r="J118" s="65"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -8787,7 +8804,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="64"/>
+      <c r="J119" s="65"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -8804,7 +8821,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="64"/>
+      <c r="J120" s="65"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -8821,7 +8838,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="64"/>
+      <c r="J121" s="65"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -8838,7 +8855,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="64"/>
+      <c r="J122" s="65"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -8855,7 +8872,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="64"/>
+      <c r="J123" s="65"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -8872,7 +8889,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="64"/>
+      <c r="J124" s="65"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -8889,7 +8906,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="64"/>
+      <c r="J125" s="65"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -8906,7 +8923,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="64"/>
+      <c r="J126" s="65"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -8923,7 +8940,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="64"/>
+      <c r="J127" s="65"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -8940,7 +8957,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="64"/>
+      <c r="J128" s="65"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -8957,7 +8974,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="64"/>
+      <c r="J129" s="65"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -8974,7 +8991,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="64"/>
+      <c r="J130" s="65"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -8991,7 +9008,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="64"/>
+      <c r="J131" s="65"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -9008,7 +9025,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="64"/>
+      <c r="J132" s="65"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -9025,7 +9042,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="64"/>
+      <c r="J133" s="65"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -9042,7 +9059,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="64"/>
+      <c r="J134" s="65"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -9059,7 +9076,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="64"/>
+      <c r="J135" s="65"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -9076,7 +9093,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="64"/>
+      <c r="J136" s="65"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -9093,7 +9110,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="64"/>
+      <c r="J137" s="65"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -9110,7 +9127,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="64"/>
+      <c r="J138" s="65"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -9127,7 +9144,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="64"/>
+      <c r="J139" s="65"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -9144,7 +9161,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="64"/>
+      <c r="J140" s="65"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -9161,7 +9178,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="64"/>
+      <c r="J141" s="65"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -9178,7 +9195,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="64"/>
+      <c r="J142" s="65"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -9195,7 +9212,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="64"/>
+      <c r="J143" s="65"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -9212,7 +9229,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="64"/>
+      <c r="J144" s="65"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -9229,7 +9246,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="64"/>
+      <c r="J145" s="65"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -9246,7 +9263,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="64"/>
+      <c r="J146" s="65"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -9263,7 +9280,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="64"/>
+      <c r="J147" s="65"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -9280,7 +9297,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="64"/>
+      <c r="J148" s="65"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9297,7 +9314,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="64"/>
+      <c r="J149" s="65"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9314,7 +9331,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="64"/>
+      <c r="J150" s="65"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9331,7 +9348,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="64"/>
+      <c r="J151" s="65"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9348,7 +9365,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="64"/>
+      <c r="J152" s="65"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9365,7 +9382,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="64"/>
+      <c r="J153" s="65"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9382,7 +9399,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="64"/>
+      <c r="J154" s="65"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9399,7 +9416,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="64"/>
+      <c r="J155" s="65"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9416,7 +9433,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="64"/>
+      <c r="J156" s="65"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9433,7 +9450,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="64"/>
+      <c r="J157" s="65"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9450,7 +9467,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="64"/>
+      <c r="J158" s="65"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9467,7 +9484,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="64"/>
+      <c r="J159" s="65"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9484,7 +9501,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="64"/>
+      <c r="J160" s="65"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9501,7 +9518,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="64"/>
+      <c r="J161" s="65"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9518,7 +9535,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="64"/>
+      <c r="J162" s="65"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9535,7 +9552,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="64"/>
+      <c r="J163" s="65"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9552,7 +9569,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="64"/>
+      <c r="J164" s="65"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9569,7 +9586,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="64"/>
+      <c r="J165" s="65"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9586,7 +9603,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="64"/>
+      <c r="J166" s="65"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9603,7 +9620,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="64"/>
+      <c r="J167" s="65"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9620,7 +9637,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="64"/>
+      <c r="J168" s="65"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -9637,7 +9654,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="64"/>
+      <c r="J169" s="65"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -9654,7 +9671,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="64"/>
+      <c r="J170" s="65"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -9671,7 +9688,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="64"/>
+      <c r="J171" s="65"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -9688,7 +9705,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="64"/>
+      <c r="J172" s="65"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -9705,7 +9722,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="64"/>
+      <c r="J173" s="65"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -9722,7 +9739,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="64"/>
+      <c r="J174" s="65"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -9739,7 +9756,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="64"/>
+      <c r="J175" s="65"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -9756,7 +9773,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="64"/>
+      <c r="J176" s="65"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -9773,7 +9790,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="64"/>
+      <c r="J177" s="65"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -9790,7 +9807,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="64"/>
+      <c r="J178" s="65"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -9807,7 +9824,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="64"/>
+      <c r="J179" s="65"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -9824,7 +9841,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="64"/>
+      <c r="J180" s="65"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -9841,7 +9858,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="64"/>
+      <c r="J181" s="65"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -9858,7 +9875,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="64"/>
+      <c r="J182" s="65"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -9875,7 +9892,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="64"/>
+      <c r="J183" s="65"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -9892,7 +9909,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="64"/>
+      <c r="J184" s="65"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -9909,7 +9926,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="64"/>
+      <c r="J185" s="65"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -9926,7 +9943,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="64"/>
+      <c r="J186" s="65"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -9943,7 +9960,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="64"/>
+      <c r="J187" s="65"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -9960,7 +9977,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="64"/>
+      <c r="J188" s="65"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -10025,7 +10042,7 @@
   <sheetPr/>
   <dimension ref="A1:O204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A32" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -10070,14 +10087,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="53"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="54"/>
+      <c r="O1" s="55"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -10091,12 +10108,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="53"/>
+      <c r="J2" s="54"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -10108,7 +10125,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="57"/>
+      <c r="J3" s="58"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -10143,10 +10160,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="59" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -10182,12 +10199,12 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="62"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -10209,12 +10226,12 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="62"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
@@ -10234,7 +10251,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -10259,7 +10276,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="64"/>
+      <c r="J8" s="65"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -10286,7 +10303,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="64"/>
+      <c r="J9" s="65"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -10294,26 +10311,28 @@
       <c r="O9" s="22"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="31" t="s">
         <v>765</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="B10" s="32" t="s">
+        <v>766</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="34" t="s">
         <v>707</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>766</v>
-      </c>
-      <c r="F10" s="34" t="s">
+      <c r="E10" s="34" t="s">
         <v>767</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>768</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="64"/>
+      <c r="J10" s="65"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -10323,22 +10342,22 @@
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="30"/>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>656</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>768</v>
-      </c>
-      <c r="F11" s="38" t="s">
+      <c r="E11" s="38" t="s">
         <v>769</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>770</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="64"/>
+      <c r="J11" s="65"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10348,7 +10367,7 @@
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19"/>
       <c r="B12" s="30" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>30</v>
@@ -10357,15 +10376,15 @@
         <v>707</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="64"/>
+      <c r="J12" s="65"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -10375,7 +10394,7 @@
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
       <c r="B13" s="30" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>30</v>
@@ -10384,15 +10403,15 @@
         <v>707</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="64"/>
+      <c r="J13" s="65"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -10402,22 +10421,22 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="30" t="s">
-        <v>776</v>
-      </c>
-      <c r="C14" s="35" t="s">
+        <v>777</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="37" t="s">
         <v>363</v>
       </c>
-      <c r="E14" s="39" t="s">
-        <v>777</v>
-      </c>
-      <c r="F14" s="40"/>
+      <c r="E14" s="40" t="s">
+        <v>778</v>
+      </c>
+      <c r="F14" s="41"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="64"/>
+      <c r="J14" s="65"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10425,28 +10444,28 @@
       <c r="O14" s="22"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A15" s="41" t="s">
-        <v>778</v>
-      </c>
-      <c r="B15" s="42" t="s">
+      <c r="A15" s="42" t="s">
         <v>779</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="B15" s="43" t="s">
+        <v>780</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="45" t="s">
         <v>707</v>
       </c>
-      <c r="E15" s="44" t="s">
-        <v>780</v>
-      </c>
-      <c r="F15" s="45" t="s">
+      <c r="E15" s="45" t="s">
         <v>781</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>782</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="64"/>
+      <c r="J15" s="65"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10454,26 +10473,26 @@
       <c r="O15" s="22"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A16" s="46"/>
-      <c r="B16" s="42" t="s">
-        <v>782</v>
-      </c>
-      <c r="C16" s="43" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="43" t="s">
+        <v>783</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="45" t="s">
         <v>483</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>783</v>
-      </c>
-      <c r="F16" s="45" t="s">
+      <c r="E16" s="45" t="s">
         <v>784</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>785</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="64"/>
+      <c r="J16" s="65"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -10481,26 +10500,26 @@
       <c r="O16" s="22"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A17" s="46"/>
-      <c r="B17" s="42" t="s">
-        <v>785</v>
-      </c>
-      <c r="C17" s="47" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="43" t="s">
+        <v>786</v>
+      </c>
+      <c r="C17" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="49" t="s">
         <v>471</v>
       </c>
-      <c r="E17" s="48" t="s">
-        <v>786</v>
-      </c>
-      <c r="F17" s="49" t="s">
+      <c r="E17" s="49" t="s">
         <v>787</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>788</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="64"/>
+      <c r="J17" s="65"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10508,24 +10527,24 @@
       <c r="O17" s="22"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="46"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="47" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="49" t="s">
         <v>465</v>
       </c>
-      <c r="E18" s="48" t="s">
-        <v>788</v>
-      </c>
-      <c r="F18" s="49" t="s">
+      <c r="E18" s="49" t="s">
         <v>789</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>790</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="64"/>
+      <c r="J18" s="65"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10533,24 +10552,24 @@
       <c r="O18" s="22"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="46"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="47" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="48" t="s">
-        <v>790</v>
-      </c>
-      <c r="F19" s="44" t="s">
+      <c r="E19" s="49" t="s">
         <v>791</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>792</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="64"/>
+      <c r="J19" s="65"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10558,26 +10577,26 @@
       <c r="O19" s="22"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="46"/>
-      <c r="B20" s="42" t="s">
-        <v>792</v>
-      </c>
-      <c r="C20" s="47" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="43" t="s">
+        <v>793</v>
+      </c>
+      <c r="C20" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="E20" s="48" t="s">
-        <v>786</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>793</v>
+      <c r="E20" s="49" t="s">
+        <v>787</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>794</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="64"/>
+      <c r="J20" s="65"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10585,26 +10604,26 @@
       <c r="O20" s="22"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="46"/>
-      <c r="B21" s="42" t="s">
-        <v>794</v>
-      </c>
-      <c r="C21" s="43" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="43" t="s">
+        <v>795</v>
+      </c>
+      <c r="C21" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="E21" s="44" t="s">
-        <v>795</v>
-      </c>
-      <c r="F21" s="45" t="s">
+      <c r="E21" s="45" t="s">
         <v>796</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>797</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="64"/>
+      <c r="J21" s="65"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -10612,26 +10631,26 @@
       <c r="O21" s="22"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="46"/>
-      <c r="B22" s="42" t="s">
+      <c r="A22" s="47"/>
+      <c r="B22" s="43" t="s">
+        <v>798</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>530</v>
+      </c>
+      <c r="E22" s="46" t="s">
         <v>797</v>
       </c>
-      <c r="C22" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>530</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>796</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>798</v>
+      <c r="F22" s="46" t="s">
+        <v>799</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="64"/>
+      <c r="J22" s="65"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10641,7 +10660,7 @@
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
       <c r="B23" s="30" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
@@ -10649,14 +10668,14 @@
       <c r="D23" s="27" t="s">
         <v>574</v>
       </c>
-      <c r="E23" s="44" t="s">
-        <v>780</v>
+      <c r="E23" s="45" t="s">
+        <v>781</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="64"/>
+      <c r="J23" s="65"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10666,7 +10685,7 @@
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
       <c r="B24" s="30" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>30</v>
@@ -10674,16 +10693,16 @@
       <c r="D24" s="27" t="s">
         <v>707</v>
       </c>
-      <c r="E24" s="44" t="s">
-        <v>780</v>
+      <c r="E24" s="45" t="s">
+        <v>781</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="64"/>
+      <c r="J24" s="65"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10693,7 +10712,7 @@
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
       <c r="B25" s="30" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>8</v>
@@ -10702,15 +10721,15 @@
         <v>656</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="64"/>
+      <c r="J25" s="65"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -10719,10 +10738,10 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>30</v>
@@ -10731,13 +10750,13 @@
         <v>363</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="64"/>
+      <c r="J26" s="65"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -10747,7 +10766,7 @@
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="30" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>30</v>
@@ -10756,13 +10775,13 @@
         <v>253</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="64"/>
+      <c r="J27" s="65"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -10772,7 +10791,7 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="30" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>30</v>
@@ -10781,13 +10800,13 @@
         <v>253</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="64"/>
+      <c r="J28" s="65"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -10797,7 +10816,7 @@
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
       <c r="B29" s="30" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>30</v>
@@ -10806,13 +10825,13 @@
         <v>363</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="64"/>
+      <c r="J29" s="65"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -10822,7 +10841,7 @@
     <row r="30" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="30" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
@@ -10831,7 +10850,7 @@
         <v>366</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F30" s="28">
         <v>3000</v>
@@ -10839,7 +10858,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="64"/>
+      <c r="J30" s="65"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -10848,10 +10867,10 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>30</v>
@@ -10860,13 +10879,13 @@
         <v>363</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F31" s="28"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="64"/>
+      <c r="J31" s="65"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -10876,7 +10895,7 @@
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
       <c r="B32" s="30" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>30</v>
@@ -10885,13 +10904,13 @@
         <v>363</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="64"/>
+      <c r="J32" s="65"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -10901,7 +10920,7 @@
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
       <c r="B33" s="30" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>30</v>
@@ -10910,13 +10929,13 @@
         <v>363</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="64"/>
+      <c r="J33" s="65"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -10925,25 +10944,25 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
-      <c r="B34" s="42" t="s">
-        <v>782</v>
-      </c>
-      <c r="C34" s="43" t="s">
+      <c r="B34" s="43" t="s">
+        <v>783</v>
+      </c>
+      <c r="C34" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="45" t="s">
         <v>483</v>
       </c>
-      <c r="E34" s="44" t="s">
-        <v>817</v>
-      </c>
-      <c r="F34" s="45" t="s">
-        <v>784</v>
+      <c r="E34" s="45" t="s">
+        <v>818</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>785</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="64"/>
+      <c r="J34" s="65"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -10952,25 +10971,25 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
-      <c r="B35" s="42" t="s">
-        <v>785</v>
-      </c>
-      <c r="C35" s="47" t="s">
+      <c r="B35" s="43" t="s">
+        <v>786</v>
+      </c>
+      <c r="C35" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="49" t="s">
         <v>471</v>
       </c>
-      <c r="E35" s="48" t="s">
-        <v>818</v>
-      </c>
-      <c r="F35" s="49" t="s">
-        <v>787</v>
+      <c r="E35" s="49" t="s">
+        <v>819</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>788</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="64"/>
+      <c r="J35" s="65"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -10979,23 +10998,23 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="47" t="s">
+      <c r="B36" s="43"/>
+      <c r="C36" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="49" t="s">
         <v>465</v>
       </c>
-      <c r="E36" s="48" t="s">
-        <v>788</v>
-      </c>
-      <c r="F36" s="49" t="s">
+      <c r="E36" s="49" t="s">
         <v>789</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>790</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="64"/>
+      <c r="J36" s="65"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -11004,23 +11023,23 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="47" t="s">
+      <c r="B37" s="43"/>
+      <c r="C37" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="48" t="s">
-        <v>819</v>
-      </c>
-      <c r="F37" s="44" t="s">
+      <c r="E37" s="49" t="s">
         <v>820</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>821</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="64"/>
+      <c r="J37" s="65"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -11029,25 +11048,25 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
-      <c r="B38" s="42" t="s">
-        <v>792</v>
-      </c>
-      <c r="C38" s="47" t="s">
+      <c r="B38" s="43" t="s">
+        <v>793</v>
+      </c>
+      <c r="C38" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="E38" s="48" t="s">
-        <v>818</v>
-      </c>
-      <c r="F38" s="49" t="s">
-        <v>793</v>
+      <c r="E38" s="49" t="s">
+        <v>819</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>794</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="64"/>
+      <c r="J38" s="65"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -11056,25 +11075,25 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="42" t="s">
-        <v>794</v>
-      </c>
-      <c r="C39" s="43" t="s">
+      <c r="B39" s="43" t="s">
+        <v>795</v>
+      </c>
+      <c r="C39" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="E39" s="44" t="s">
-        <v>821</v>
-      </c>
-      <c r="F39" s="45" t="s">
+      <c r="E39" s="45" t="s">
         <v>822</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>823</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="64"/>
+      <c r="J39" s="65"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -11083,25 +11102,25 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="42" t="s">
-        <v>797</v>
-      </c>
-      <c r="C40" s="47" t="s">
+      <c r="B40" s="43" t="s">
+        <v>798</v>
+      </c>
+      <c r="C40" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="49" t="s">
         <v>530</v>
       </c>
-      <c r="E40" s="45" t="s">
-        <v>822</v>
-      </c>
-      <c r="F40" s="45" t="s">
+      <c r="E40" s="46" t="s">
         <v>823</v>
+      </c>
+      <c r="F40" s="46" t="s">
+        <v>824</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="64"/>
+      <c r="J40" s="65"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -11110,25 +11129,25 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>363</v>
+        <v>600</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="64"/>
+      <c r="J41" s="65"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -11138,7 +11157,7 @@
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
       <c r="B42" s="30" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>30</v>
@@ -11147,13 +11166,13 @@
         <v>253</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="64"/>
+      <c r="J42" s="65"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -11163,7 +11182,7 @@
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
       <c r="B43" s="30" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>30</v>
@@ -11172,13 +11191,13 @@
         <v>253</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="64"/>
+      <c r="J43" s="65"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -11188,7 +11207,7 @@
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
       <c r="B44" s="30" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>30</v>
@@ -11201,7 +11220,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="64"/>
+      <c r="J44" s="65"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -11210,10 +11229,10 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
       <c r="A45" s="19" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>30</v>
@@ -11222,13 +11241,13 @@
         <v>363</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="64"/>
+      <c r="J45" s="65"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -11236,9 +11255,11 @@
       <c r="O45" s="22"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A46" s="19"/>
+      <c r="A46" s="31" t="s">
+        <v>835</v>
+      </c>
       <c r="B46" s="30" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>30</v>
@@ -11247,13 +11268,13 @@
         <v>363</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="64"/>
+      <c r="J46" s="65"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -11263,7 +11284,7 @@
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
       <c r="B47" s="30" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>30</v>
@@ -11272,13 +11293,13 @@
         <v>253</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="64"/>
+      <c r="J47" s="65"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -11288,7 +11309,7 @@
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
       <c r="B48" s="30" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>30</v>
@@ -11297,13 +11318,13 @@
         <v>363</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="64"/>
+      <c r="J48" s="65"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -11312,23 +11333,23 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
-      <c r="B49" s="31" t="s">
-        <v>833</v>
-      </c>
-      <c r="C49" s="32" t="s">
+      <c r="B49" s="32" t="s">
+        <v>834</v>
+      </c>
+      <c r="C49" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="E49" s="33" t="s">
-        <v>806</v>
+      <c r="E49" s="34" t="s">
+        <v>807</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="64"/>
+      <c r="J49" s="65"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -11337,23 +11358,23 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
-      <c r="B50" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="C50" s="32" t="s">
+      <c r="B50" s="32" t="s">
+        <v>841</v>
+      </c>
+      <c r="C50" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="E50" s="33" t="s">
-        <v>835</v>
+      <c r="E50" s="34" t="s">
+        <v>837</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="64"/>
+      <c r="J50" s="65"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -11362,23 +11383,23 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
-      <c r="B51" s="31" t="s">
-        <v>840</v>
-      </c>
-      <c r="C51" s="32" t="s">
+      <c r="B51" s="32" t="s">
+        <v>842</v>
+      </c>
+      <c r="C51" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="E51" s="33" t="s">
-        <v>841</v>
+      <c r="E51" s="34" t="s">
+        <v>843</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="64"/>
+      <c r="J51" s="65"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -11387,23 +11408,23 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
-      <c r="B52" s="31" t="s">
-        <v>836</v>
-      </c>
-      <c r="C52" s="32" t="s">
+      <c r="B52" s="32" t="s">
+        <v>838</v>
+      </c>
+      <c r="C52" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="E52" s="33" t="s">
-        <v>837</v>
+      <c r="E52" s="34" t="s">
+        <v>839</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="64"/>
+      <c r="J52" s="65"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -11412,23 +11433,23 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
-      <c r="B53" s="31" t="s">
-        <v>838</v>
-      </c>
-      <c r="C53" s="32" t="s">
+      <c r="B53" s="32" t="s">
+        <v>840</v>
+      </c>
+      <c r="C53" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="33" t="s">
+      <c r="D53" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="E53" s="33" t="s">
-        <v>806</v>
+      <c r="E53" s="34" t="s">
+        <v>807</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="64"/>
+      <c r="J53" s="65"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -11437,23 +11458,23 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
-      <c r="B54" s="31" t="s">
-        <v>833</v>
-      </c>
-      <c r="C54" s="32" t="s">
+      <c r="B54" s="32" t="s">
+        <v>834</v>
+      </c>
+      <c r="C54" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="E54" s="33" t="s">
-        <v>806</v>
+      <c r="E54" s="34" t="s">
+        <v>807</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="64"/>
+      <c r="J54" s="65"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -11462,23 +11483,23 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
-      <c r="B55" s="31" t="s">
-        <v>842</v>
-      </c>
-      <c r="C55" s="32" t="s">
+      <c r="B55" s="32" t="s">
+        <v>844</v>
+      </c>
+      <c r="C55" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="E55" s="33" t="s">
-        <v>841</v>
+      <c r="E55" s="34" t="s">
+        <v>843</v>
       </c>
       <c r="F55" s="28"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="64"/>
+      <c r="J55" s="65"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -11487,23 +11508,23 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
-      <c r="B56" s="31" t="s">
-        <v>843</v>
-      </c>
-      <c r="C56" s="32" t="s">
+      <c r="B56" s="32" t="s">
+        <v>845</v>
+      </c>
+      <c r="C56" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="E56" s="33" t="s">
-        <v>844</v>
+      <c r="E56" s="34" t="s">
+        <v>846</v>
       </c>
       <c r="F56" s="28"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="64"/>
+      <c r="J56" s="65"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -11512,23 +11533,23 @@
     </row>
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
-      <c r="B57" s="31" t="s">
-        <v>836</v>
-      </c>
-      <c r="C57" s="32" t="s">
+      <c r="B57" s="32" t="s">
+        <v>838</v>
+      </c>
+      <c r="C57" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="E57" s="33" t="s">
-        <v>837</v>
+      <c r="E57" s="34" t="s">
+        <v>839</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="64"/>
+      <c r="J57" s="65"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -11537,23 +11558,23 @@
     </row>
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
-      <c r="B58" s="31" t="s">
-        <v>838</v>
-      </c>
-      <c r="C58" s="32" t="s">
+      <c r="B58" s="32" t="s">
+        <v>840</v>
+      </c>
+      <c r="C58" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D58" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="E58" s="33" t="s">
-        <v>806</v>
+      <c r="E58" s="34" t="s">
+        <v>807</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="64"/>
+      <c r="J58" s="65"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -11562,19 +11583,19 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="32" t="s">
+      <c r="B59" s="32"/>
+      <c r="C59" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="33" t="s">
+      <c r="D59" s="34" t="s">
         <v>640</v>
       </c>
-      <c r="E59" s="33"/>
+      <c r="E59" s="34"/>
       <c r="F59" s="28"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="64"/>
+      <c r="J59" s="65"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -11583,10 +11604,10 @@
     </row>
     <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A60" s="19" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>30</v>
@@ -11595,13 +11616,13 @@
         <v>363</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F60" s="28"/>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="64"/>
+      <c r="J60" s="65"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -11611,22 +11632,22 @@
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="19"/>
       <c r="B61" s="30"/>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="36" t="s">
+      <c r="D61" s="37" t="s">
         <v>656</v>
       </c>
-      <c r="E61" s="37" t="s">
-        <v>768</v>
-      </c>
-      <c r="F61" s="38" t="s">
+      <c r="E61" s="38" t="s">
         <v>769</v>
+      </c>
+      <c r="F61" s="39" t="s">
+        <v>770</v>
       </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="64"/>
+      <c r="J61" s="65"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -11638,12 +11659,12 @@
       <c r="B62" s="30"/>
       <c r="C62" s="26"/>
       <c r="D62" s="27"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="53"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="64"/>
+      <c r="J62" s="65"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -11655,12 +11676,12 @@
       <c r="B63" s="30"/>
       <c r="C63" s="26"/>
       <c r="D63" s="27"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="53"/>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="64"/>
+      <c r="J63" s="65"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -11672,12 +11693,12 @@
       <c r="B64" s="30"/>
       <c r="C64" s="26"/>
       <c r="D64" s="27"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="53"/>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="64"/>
+      <c r="J64" s="65"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -11689,12 +11710,12 @@
       <c r="B65" s="30"/>
       <c r="C65" s="26"/>
       <c r="D65" s="27"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="53"/>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="64"/>
+      <c r="J65" s="65"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -11706,12 +11727,12 @@
       <c r="B66" s="30"/>
       <c r="C66" s="26"/>
       <c r="D66" s="27"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="53"/>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="64"/>
+      <c r="J66" s="65"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -11728,7 +11749,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="64"/>
+      <c r="J67" s="65"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -11745,7 +11766,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="64"/>
+      <c r="J68" s="65"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -11762,7 +11783,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="64"/>
+      <c r="J69" s="65"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -11779,7 +11800,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="64"/>
+      <c r="J70" s="65"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -11796,7 +11817,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="64"/>
+      <c r="J71" s="65"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -11813,7 +11834,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="64"/>
+      <c r="J72" s="65"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -11830,7 +11851,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="64"/>
+      <c r="J73" s="65"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -11847,7 +11868,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="64"/>
+      <c r="J74" s="65"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -11864,7 +11885,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="64"/>
+      <c r="J75" s="65"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -11881,7 +11902,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="64"/>
+      <c r="J76" s="65"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -11898,7 +11919,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="64"/>
+      <c r="J77" s="65"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -11915,7 +11936,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="64"/>
+      <c r="J78" s="65"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -11932,7 +11953,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="64"/>
+      <c r="J79" s="65"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -11949,7 +11970,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="64"/>
+      <c r="J80" s="65"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -11966,7 +11987,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="64"/>
+      <c r="J81" s="65"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -11983,7 +12004,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="64"/>
+      <c r="J82" s="65"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -12000,7 +12021,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="64"/>
+      <c r="J83" s="65"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -12017,7 +12038,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="64"/>
+      <c r="J84" s="65"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -12034,7 +12055,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="64"/>
+      <c r="J85" s="65"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -12051,7 +12072,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="64"/>
+      <c r="J86" s="65"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -12068,7 +12089,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="64"/>
+      <c r="J87" s="65"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -12085,7 +12106,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="64"/>
+      <c r="J88" s="65"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -12102,7 +12123,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="64"/>
+      <c r="J89" s="65"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -12119,7 +12140,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="64"/>
+      <c r="J90" s="65"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -12136,7 +12157,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="64"/>
+      <c r="J91" s="65"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -12153,7 +12174,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="64"/>
+      <c r="J92" s="65"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -12170,7 +12191,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="64"/>
+      <c r="J93" s="65"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -12187,7 +12208,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="64"/>
+      <c r="J94" s="65"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -12204,7 +12225,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="64"/>
+      <c r="J95" s="65"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -12221,7 +12242,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="64"/>
+      <c r="J96" s="65"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -12238,7 +12259,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="64"/>
+      <c r="J97" s="65"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -12255,7 +12276,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="64"/>
+      <c r="J98" s="65"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -12272,7 +12293,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="64"/>
+      <c r="J99" s="65"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -12289,7 +12310,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="64"/>
+      <c r="J100" s="65"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -12306,7 +12327,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="64"/>
+      <c r="J101" s="65"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -12323,7 +12344,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="64"/>
+      <c r="J102" s="65"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -12340,7 +12361,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="64"/>
+      <c r="J103" s="65"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -12357,7 +12378,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="64"/>
+      <c r="J104" s="65"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -12374,7 +12395,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="64"/>
+      <c r="J105" s="65"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -12391,7 +12412,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="64"/>
+      <c r="J106" s="65"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -12408,7 +12429,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="64"/>
+      <c r="J107" s="65"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -12425,7 +12446,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="64"/>
+      <c r="J108" s="65"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -12442,7 +12463,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="64"/>
+      <c r="J109" s="65"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -12459,7 +12480,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="64"/>
+      <c r="J110" s="65"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -12476,7 +12497,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="64"/>
+      <c r="J111" s="65"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -12493,7 +12514,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="64"/>
+      <c r="J112" s="65"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -12510,7 +12531,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="64"/>
+      <c r="J113" s="65"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -12527,7 +12548,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="64"/>
+      <c r="J114" s="65"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -12544,7 +12565,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="64"/>
+      <c r="J115" s="65"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -12561,7 +12582,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="64"/>
+      <c r="J116" s="65"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -12578,7 +12599,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="64"/>
+      <c r="J117" s="65"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -12595,7 +12616,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="64"/>
+      <c r="J118" s="65"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -12612,7 +12633,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="64"/>
+      <c r="J119" s="65"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -12629,7 +12650,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="64"/>
+      <c r="J120" s="65"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -12646,7 +12667,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="64"/>
+      <c r="J121" s="65"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -12663,7 +12684,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="64"/>
+      <c r="J122" s="65"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -12680,7 +12701,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="64"/>
+      <c r="J123" s="65"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -12697,7 +12718,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="64"/>
+      <c r="J124" s="65"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -12714,7 +12735,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="64"/>
+      <c r="J125" s="65"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -12731,7 +12752,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="64"/>
+      <c r="J126" s="65"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -12748,7 +12769,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="64"/>
+      <c r="J127" s="65"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -12765,7 +12786,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="64"/>
+      <c r="J128" s="65"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -12782,7 +12803,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="64"/>
+      <c r="J129" s="65"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -12799,7 +12820,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="64"/>
+      <c r="J130" s="65"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -12816,7 +12837,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="64"/>
+      <c r="J131" s="65"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -12833,7 +12854,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="64"/>
+      <c r="J132" s="65"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -12850,7 +12871,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="64"/>
+      <c r="J133" s="65"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -12867,7 +12888,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="64"/>
+      <c r="J134" s="65"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -12884,7 +12905,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="64"/>
+      <c r="J135" s="65"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -12901,7 +12922,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="64"/>
+      <c r="J136" s="65"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -12918,7 +12939,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="64"/>
+      <c r="J137" s="65"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -12935,7 +12956,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="64"/>
+      <c r="J138" s="65"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -12952,7 +12973,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="64"/>
+      <c r="J139" s="65"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -12969,7 +12990,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="64"/>
+      <c r="J140" s="65"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -12986,7 +13007,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="64"/>
+      <c r="J141" s="65"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -13003,7 +13024,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="64"/>
+      <c r="J142" s="65"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -13020,7 +13041,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="64"/>
+      <c r="J143" s="65"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -13037,7 +13058,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="64"/>
+      <c r="J144" s="65"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -13054,7 +13075,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="64"/>
+      <c r="J145" s="65"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -13071,7 +13092,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="64"/>
+      <c r="J146" s="65"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -13088,7 +13109,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="64"/>
+      <c r="J147" s="65"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -13105,7 +13126,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="64"/>
+      <c r="J148" s="65"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -13122,7 +13143,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="64"/>
+      <c r="J149" s="65"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -13139,7 +13160,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="64"/>
+      <c r="J150" s="65"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -13156,7 +13177,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="64"/>
+      <c r="J151" s="65"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -13173,7 +13194,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="64"/>
+      <c r="J152" s="65"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -13190,7 +13211,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="64"/>
+      <c r="J153" s="65"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -13207,7 +13228,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="64"/>
+      <c r="J154" s="65"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -13224,7 +13245,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="64"/>
+      <c r="J155" s="65"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -13241,7 +13262,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="64"/>
+      <c r="J156" s="65"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -13258,7 +13279,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="64"/>
+      <c r="J157" s="65"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -13275,7 +13296,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="64"/>
+      <c r="J158" s="65"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -13292,7 +13313,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="64"/>
+      <c r="J159" s="65"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -13309,7 +13330,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="64"/>
+      <c r="J160" s="65"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -13326,7 +13347,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="64"/>
+      <c r="J161" s="65"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -13343,7 +13364,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="64"/>
+      <c r="J162" s="65"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -13360,7 +13381,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="64"/>
+      <c r="J163" s="65"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -13377,7 +13398,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="64"/>
+      <c r="J164" s="65"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -13394,7 +13415,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="64"/>
+      <c r="J165" s="65"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -13411,7 +13432,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="64"/>
+      <c r="J166" s="65"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -13428,7 +13449,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="64"/>
+      <c r="J167" s="65"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -13445,7 +13466,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="64"/>
+      <c r="J168" s="65"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -13462,7 +13483,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="64"/>
+      <c r="J169" s="65"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -13479,7 +13500,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="64"/>
+      <c r="J170" s="65"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -13496,7 +13517,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="64"/>
+      <c r="J171" s="65"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -13513,7 +13534,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="64"/>
+      <c r="J172" s="65"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -13530,7 +13551,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="64"/>
+      <c r="J173" s="65"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -13547,7 +13568,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="64"/>
+      <c r="J174" s="65"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -13564,7 +13585,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="64"/>
+      <c r="J175" s="65"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -13581,7 +13602,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="64"/>
+      <c r="J176" s="65"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -13598,7 +13619,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="64"/>
+      <c r="J177" s="65"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -13615,7 +13636,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="64"/>
+      <c r="J178" s="65"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -13632,7 +13653,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="64"/>
+      <c r="J179" s="65"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -13649,7 +13670,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="64"/>
+      <c r="J180" s="65"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -13666,7 +13687,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="64"/>
+      <c r="J181" s="65"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -13683,7 +13704,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="64"/>
+      <c r="J182" s="65"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -13700,7 +13721,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="64"/>
+      <c r="J183" s="65"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -13717,7 +13738,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="64"/>
+      <c r="J184" s="65"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -13734,7 +13755,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="64"/>
+      <c r="J185" s="65"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -13751,7 +13772,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="64"/>
+      <c r="J186" s="65"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -13768,7 +13789,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="64"/>
+      <c r="J187" s="65"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -13785,7 +13806,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="64"/>
+      <c r="J188" s="65"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -13802,7 +13823,7 @@
       <c r="G189" s="27"/>
       <c r="H189" s="27"/>
       <c r="I189" s="27"/>
-      <c r="J189" s="64"/>
+      <c r="J189" s="65"/>
       <c r="K189" s="22"/>
       <c r="L189" s="23"/>
       <c r="M189" s="21"/>
@@ -13819,7 +13840,7 @@
       <c r="G190" s="27"/>
       <c r="H190" s="27"/>
       <c r="I190" s="27"/>
-      <c r="J190" s="64"/>
+      <c r="J190" s="65"/>
       <c r="K190" s="22"/>
       <c r="L190" s="23"/>
       <c r="M190" s="21"/>
@@ -13836,7 +13857,7 @@
       <c r="G191" s="27"/>
       <c r="H191" s="27"/>
       <c r="I191" s="27"/>
-      <c r="J191" s="64"/>
+      <c r="J191" s="65"/>
       <c r="K191" s="22"/>
       <c r="L191" s="23"/>
       <c r="M191" s="21"/>
@@ -13853,7 +13874,7 @@
       <c r="G192" s="27"/>
       <c r="H192" s="27"/>
       <c r="I192" s="27"/>
-      <c r="J192" s="64"/>
+      <c r="J192" s="65"/>
       <c r="K192" s="22"/>
       <c r="L192" s="23"/>
       <c r="M192" s="21"/>
@@ -13870,7 +13891,7 @@
       <c r="G193" s="27"/>
       <c r="H193" s="27"/>
       <c r="I193" s="27"/>
-      <c r="J193" s="64"/>
+      <c r="J193" s="65"/>
       <c r="K193" s="22"/>
       <c r="L193" s="23"/>
       <c r="M193" s="21"/>
@@ -13887,7 +13908,7 @@
       <c r="G194" s="27"/>
       <c r="H194" s="27"/>
       <c r="I194" s="27"/>
-      <c r="J194" s="64"/>
+      <c r="J194" s="65"/>
       <c r="K194" s="22"/>
       <c r="L194" s="23"/>
       <c r="M194" s="21"/>
@@ -13904,7 +13925,7 @@
       <c r="G195" s="27"/>
       <c r="H195" s="27"/>
       <c r="I195" s="27"/>
-      <c r="J195" s="64"/>
+      <c r="J195" s="65"/>
       <c r="K195" s="22"/>
       <c r="L195" s="23"/>
       <c r="M195" s="21"/>
@@ -13921,7 +13942,7 @@
       <c r="G196" s="27"/>
       <c r="H196" s="27"/>
       <c r="I196" s="27"/>
-      <c r="J196" s="64"/>
+      <c r="J196" s="65"/>
       <c r="K196" s="22"/>
       <c r="L196" s="23"/>
       <c r="M196" s="21"/>
@@ -13938,7 +13959,7 @@
       <c r="G197" s="27"/>
       <c r="H197" s="27"/>
       <c r="I197" s="27"/>
-      <c r="J197" s="64"/>
+      <c r="J197" s="65"/>
       <c r="K197" s="22"/>
       <c r="L197" s="23"/>
       <c r="M197" s="21"/>
@@ -13955,7 +13976,7 @@
       <c r="G198" s="27"/>
       <c r="H198" s="27"/>
       <c r="I198" s="27"/>
-      <c r="J198" s="64"/>
+      <c r="J198" s="65"/>
       <c r="K198" s="22"/>
       <c r="L198" s="23"/>
       <c r="M198" s="21"/>
@@ -13972,7 +13993,7 @@
       <c r="G199" s="27"/>
       <c r="H199" s="27"/>
       <c r="I199" s="27"/>
-      <c r="J199" s="64"/>
+      <c r="J199" s="65"/>
       <c r="K199" s="22"/>
       <c r="L199" s="23"/>
       <c r="M199" s="21"/>
@@ -13989,7 +14010,7 @@
       <c r="G200" s="27"/>
       <c r="H200" s="27"/>
       <c r="I200" s="27"/>
-      <c r="J200" s="64"/>
+      <c r="J200" s="65"/>
       <c r="K200" s="22"/>
       <c r="L200" s="23"/>
       <c r="M200" s="21"/>
@@ -14006,7 +14027,7 @@
       <c r="G201" s="27"/>
       <c r="H201" s="27"/>
       <c r="I201" s="27"/>
-      <c r="J201" s="64"/>
+      <c r="J201" s="65"/>
       <c r="K201" s="22"/>
       <c r="L201" s="23"/>
       <c r="M201" s="21"/>
@@ -14023,7 +14044,7 @@
       <c r="G202" s="27"/>
       <c r="H202" s="27"/>
       <c r="I202" s="27"/>
-      <c r="J202" s="64"/>
+      <c r="J202" s="65"/>
       <c r="K202" s="22"/>
       <c r="L202" s="23"/>
       <c r="M202" s="21"/>
@@ -14040,7 +14061,7 @@
       <c r="G203" s="27"/>
       <c r="H203" s="27"/>
       <c r="I203" s="27"/>
-      <c r="J203" s="64"/>
+      <c r="J203" s="65"/>
       <c r="K203" s="22"/>
       <c r="L203" s="23"/>
       <c r="M203" s="21"/>

--- a/tests/artifact/script/UI-ProductRegister.xlsx
+++ b/tests/artifact/script/UI-ProductRegister.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="856">
   <si>
     <t>target</t>
   </si>
@@ -2372,6 +2372,9 @@
     <t>Fermented</t>
   </si>
   <si>
+    <t>What is the name of the test case?</t>
+  </si>
+  <si>
     <t>Windows</t>
   </si>
   <si>
@@ -2396,6 +2399,9 @@
     <t>${To.Date}</t>
   </si>
   <si>
+    <t>What are you doing after clicking?</t>
+  </si>
+  <si>
     <t>click on view button</t>
   </si>
   <si>
@@ -2468,12 +2474,18 @@
     <t xml:space="preserve">Click on search field </t>
   </si>
   <si>
+    <t>What after typing? Who will verify if the value was searched in the list?</t>
+  </si>
+  <si>
     <t>type the Empty values in search</t>
   </si>
   <si>
     <t>(empty)</t>
   </si>
   <si>
+    <t>Remove the search value is not the same test case</t>
+  </si>
+  <si>
     <t>remove the Searched values in search field</t>
   </si>
   <si>
@@ -2489,6 +2501,9 @@
     <t>${pr.Filter.Icon}</t>
   </si>
   <si>
+    <t>The steps which are being verified are not filter functionality. It is just checking the elements. You can name it differently as FIlter pop up verification. Functionality is clicking on the checkbox and looking for the output</t>
+  </si>
+  <si>
     <t>Verify the Filter table</t>
   </si>
   <si>
@@ -2543,7 +2558,19 @@
     <t>Re-direct to Invoice page</t>
   </si>
   <si>
-    <t>click on Invoice link</t>
+    <r>
+      <t xml:space="preserve">click on Invoice link - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Invoice is not a link it is a check box</t>
+    </r>
   </si>
   <si>
     <t>${pr.Invoice.hyperlink}</t>
@@ -2586,6 +2613,9 @@
   </si>
   <si>
     <t>click on Filter Icon to close the filters menu</t>
+  </si>
+  <si>
+    <t>Why the test cases are in red color?</t>
   </si>
   <si>
     <t xml:space="preserve">Un-select the Rejection note </t>
@@ -10042,8 +10072,8 @@
   <sheetPr/>
   <dimension ref="A1:O204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10340,7 +10370,9 @@
       <c r="O10" s="22"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A11" s="19"/>
+      <c r="A11" s="31" t="s">
+        <v>769</v>
+      </c>
       <c r="B11" s="30"/>
       <c r="C11" s="36" t="s">
         <v>8</v>
@@ -10349,10 +10381,10 @@
         <v>656</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -10367,7 +10399,7 @@
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19"/>
       <c r="B12" s="30" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>30</v>
@@ -10376,10 +10408,10 @@
         <v>707</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -10394,7 +10426,7 @@
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
       <c r="B13" s="30" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>30</v>
@@ -10403,10 +10435,10 @@
         <v>707</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
@@ -10419,9 +10451,11 @@
       <c r="O13" s="22"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A14" s="19"/>
+      <c r="A14" s="31" t="s">
+        <v>778</v>
+      </c>
       <c r="B14" s="30" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>30</v>
@@ -10430,7 +10464,7 @@
         <v>363</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="27"/>
@@ -10445,10 +10479,10 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="42" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C15" s="44" t="s">
         <v>30</v>
@@ -10457,10 +10491,10 @@
         <v>707</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -10475,7 +10509,7 @@
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="47"/>
       <c r="B16" s="43" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C16" s="44" t="s">
         <v>30</v>
@@ -10484,10 +10518,10 @@
         <v>483</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -10502,7 +10536,7 @@
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="47"/>
       <c r="B17" s="43" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C17" s="48" t="s">
         <v>5</v>
@@ -10511,10 +10545,10 @@
         <v>471</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -10536,10 +10570,10 @@
         <v>465</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -10561,10 +10595,10 @@
         <v>49</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -10579,7 +10613,7 @@
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="47"/>
       <c r="B20" s="43" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C20" s="48" t="s">
         <v>20</v>
@@ -10588,10 +10622,10 @@
         <v>302</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -10606,7 +10640,7 @@
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="47"/>
       <c r="B21" s="43" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C21" s="44" t="s">
         <v>30</v>
@@ -10615,10 +10649,10 @@
         <v>493</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -10633,7 +10667,7 @@
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="47"/>
       <c r="B22" s="43" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>30</v>
@@ -10642,10 +10676,10 @@
         <v>530</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
@@ -10660,7 +10694,7 @@
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
       <c r="B23" s="30" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
@@ -10669,7 +10703,7 @@
         <v>574</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="27"/>
@@ -10683,9 +10717,11 @@
       <c r="O23" s="22"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A24" s="19"/>
+      <c r="A24" s="31" t="s">
+        <v>803</v>
+      </c>
       <c r="B24" s="30" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>30</v>
@@ -10694,10 +10730,10 @@
         <v>707</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
@@ -10710,9 +10746,11 @@
       <c r="O24" s="22"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A25" s="19"/>
+      <c r="A25" s="31" t="s">
+        <v>806</v>
+      </c>
       <c r="B25" s="30" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>8</v>
@@ -10721,10 +10759,10 @@
         <v>656</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -10738,10 +10776,10 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>30</v>
@@ -10750,7 +10788,7 @@
         <v>363</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="27"/>
@@ -10763,10 +10801,12 @@
       <c r="N26" s="23"/>
       <c r="O26" s="22"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A27" s="19"/>
+    <row r="27" s="1" customFormat="1" ht="94" customHeight="1" spans="1:15">
+      <c r="A27" s="31" t="s">
+        <v>812</v>
+      </c>
       <c r="B27" s="30" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>30</v>
@@ -10775,7 +10815,7 @@
         <v>253</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="27"/>
@@ -10791,7 +10831,7 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="30" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>30</v>
@@ -10800,7 +10840,7 @@
         <v>253</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="27"/>
@@ -10816,7 +10856,7 @@
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
       <c r="B29" s="30" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>30</v>
@@ -10825,7 +10865,7 @@
         <v>363</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="27"/>
@@ -10841,7 +10881,7 @@
     <row r="30" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="30" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
@@ -10850,7 +10890,7 @@
         <v>366</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="F30" s="28">
         <v>3000</v>
@@ -10867,10 +10907,10 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>30</v>
@@ -10879,7 +10919,7 @@
         <v>363</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="F31" s="28"/>
       <c r="G31" s="27"/>
@@ -10895,7 +10935,7 @@
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
       <c r="B32" s="30" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>30</v>
@@ -10904,7 +10944,7 @@
         <v>363</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="27"/>
@@ -10920,7 +10960,7 @@
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
       <c r="B33" s="30" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>30</v>
@@ -10929,7 +10969,7 @@
         <v>363</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="27"/>
@@ -10945,7 +10985,7 @@
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
       <c r="B34" s="43" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C34" s="44" t="s">
         <v>30</v>
@@ -10954,10 +10994,10 @@
         <v>483</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
@@ -10972,7 +11012,7 @@
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
       <c r="B35" s="43" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C35" s="48" t="s">
         <v>5</v>
@@ -10981,10 +11021,10 @@
         <v>471</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="F35" s="50" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -11006,10 +11046,10 @@
         <v>465</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F36" s="50" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
@@ -11031,10 +11071,10 @@
         <v>49</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
@@ -11049,7 +11089,7 @@
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
       <c r="B38" s="43" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C38" s="48" t="s">
         <v>20</v>
@@ -11058,10 +11098,10 @@
         <v>302</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
@@ -11076,7 +11116,7 @@
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
       <c r="B39" s="43" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C39" s="44" t="s">
         <v>30</v>
@@ -11085,10 +11125,10 @@
         <v>493</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
@@ -11103,7 +11143,7 @@
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
       <c r="B40" s="43" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C40" s="48" t="s">
         <v>30</v>
@@ -11112,10 +11152,10 @@
         <v>530</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
@@ -11129,10 +11169,10 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>30</v>
@@ -11141,7 +11181,7 @@
         <v>600</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="27"/>
@@ -11157,7 +11197,7 @@
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
       <c r="B42" s="30" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>30</v>
@@ -11166,7 +11206,7 @@
         <v>253</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="27"/>
@@ -11182,7 +11222,7 @@
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
       <c r="B43" s="30" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>30</v>
@@ -11191,7 +11231,7 @@
         <v>253</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="27"/>
@@ -11207,7 +11247,7 @@
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
       <c r="B44" s="30" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>30</v>
@@ -11229,10 +11269,10 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
       <c r="A45" s="19" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>30</v>
@@ -11241,7 +11281,7 @@
         <v>363</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="27"/>
@@ -11256,10 +11296,10 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="31" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>30</v>
@@ -11268,7 +11308,7 @@
         <v>363</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="27"/>
@@ -11284,7 +11324,7 @@
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
       <c r="B47" s="30" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>30</v>
@@ -11293,7 +11333,7 @@
         <v>253</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="27"/>
@@ -11309,7 +11349,7 @@
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
       <c r="B48" s="30" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>30</v>
@@ -11318,7 +11358,7 @@
         <v>363</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="27"/>
@@ -11332,9 +11372,11 @@
       <c r="O48" s="22"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A49" s="19"/>
+      <c r="A49" s="19" t="s">
+        <v>846</v>
+      </c>
       <c r="B49" s="32" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>30</v>
@@ -11343,7 +11385,7 @@
         <v>363</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="27"/>
@@ -11359,7 +11401,7 @@
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
       <c r="B50" s="32" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>30</v>
@@ -11368,7 +11410,7 @@
         <v>363</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="27"/>
@@ -11384,7 +11426,7 @@
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
       <c r="B51" s="32" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>30</v>
@@ -11393,7 +11435,7 @@
         <v>363</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="27"/>
@@ -11409,7 +11451,7 @@
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
       <c r="B52" s="32" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>30</v>
@@ -11418,7 +11460,7 @@
         <v>253</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="27"/>
@@ -11434,7 +11476,7 @@
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
       <c r="B53" s="32" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>30</v>
@@ -11443,7 +11485,7 @@
         <v>363</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="27"/>
@@ -11459,7 +11501,7 @@
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
       <c r="B54" s="32" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>30</v>
@@ -11468,7 +11510,7 @@
         <v>363</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="27"/>
@@ -11484,7 +11526,7 @@
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
       <c r="B55" s="32" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>30</v>
@@ -11493,7 +11535,7 @@
         <v>363</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="F55" s="28"/>
       <c r="G55" s="27"/>
@@ -11509,7 +11551,7 @@
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
       <c r="B56" s="32" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>30</v>
@@ -11518,7 +11560,7 @@
         <v>363</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="F56" s="28"/>
       <c r="G56" s="27"/>
@@ -11534,7 +11576,7 @@
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
       <c r="B57" s="32" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="C57" s="33" t="s">
         <v>30</v>
@@ -11543,7 +11585,7 @@
         <v>253</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="27"/>
@@ -11559,7 +11601,7 @@
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
       <c r="B58" s="32" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>30</v>
@@ -11568,7 +11610,7 @@
         <v>363</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="27"/>
@@ -11604,10 +11646,10 @@
     </row>
     <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A60" s="19" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>30</v>
@@ -11616,7 +11658,7 @@
         <v>363</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="F60" s="28"/>
       <c r="G60" s="27"/>
@@ -11639,10 +11681,10 @@
         <v>656</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F61" s="39" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
